--- a/統計管制與最佳化方法概論/homework/my_homework/final exam/final_exam.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/final exam/final_exam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\final exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\final exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFE477A-8F05-4E5D-ABF6-AD06B6B0AF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EADF44-D890-49AB-B259-58F82192017D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="2260" windowWidth="19200" windowHeight="11460" xr2:uid="{2224B4A3-7DDB-4A03-9076-3DDD34B94DE1}"/>
+    <workbookView xWindow="6450" yWindow="2115" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{2224B4A3-7DDB-4A03-9076-3DDD34B94DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="experiment design" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -133,26 +133,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -219,7 +199,40 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -230,7 +243,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -245,7 +258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,22 +275,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,30 +614,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAAFF7F-C379-4648-8145-FECEA7F02896}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="E1" s="10" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -659,7 +678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -673,7 +692,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -687,7 +706,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -701,7 +720,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -715,7 +734,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -729,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -743,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -757,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -784,64 +803,257 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84FC70-DF1D-4EB8-93B9-4E50CD9A7490}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7">
-        <v>-1</v>
-      </c>
-      <c r="C1" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="8">
         <f>297/2</f>
         <v>148.5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="10">
         <v>210</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <f>297/2</f>
+        <v>148.5</v>
+      </c>
+      <c r="K2" s="7">
         <f>2/5</f>
         <v>0.4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="L2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="D3">
+        <f>$B$2*B3</f>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E3">
+        <f>$B$2*C3</f>
+        <v>74.25</v>
+      </c>
+      <c r="F3">
+        <f>$C$2*B3</f>
+        <v>84</v>
+      </c>
+      <c r="G3">
+        <f>$C$2*C3</f>
+        <v>105</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>210</v>
+      </c>
+      <c r="K3" s="7">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7">
+        <f>297/2</f>
+        <v>148.5</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I5" s="7">
+        <v>4</v>
+      </c>
+      <c r="J5" s="7">
+        <v>210</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I6" s="7">
+        <v>5</v>
+      </c>
+      <c r="J6" s="7">
+        <f>297/2</f>
+        <v>148.5</v>
+      </c>
+      <c r="K6" s="7">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I7" s="7">
+        <v>6</v>
+      </c>
+      <c r="J7" s="7">
+        <v>210</v>
+      </c>
+      <c r="K7" s="7">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I8" s="7">
+        <v>7</v>
+      </c>
+      <c r="J8" s="7">
+        <f>297/2</f>
+        <v>148.5</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I9" s="7">
+        <v>8</v>
+      </c>
+      <c r="J9" s="7">
+        <v>210</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/統計管制與最佳化方法概論/homework/my_homework/final exam/final_exam.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/final exam/final_exam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\final exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\final exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EADF44-D890-49AB-B259-58F82192017D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62CBA49-78B4-4C79-92BA-690FF700B4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="2115" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{2224B4A3-7DDB-4A03-9076-3DDD34B94DE1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{2224B4A3-7DDB-4A03-9076-3DDD34B94DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="experiment design" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -275,27 +275,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,26 +621,26 @@
       <selection activeCell="E1" sqref="E1:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E1" s="6" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -678,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -692,7 +695,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -706,7 +709,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -720,7 +723,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -734,7 +737,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -748,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -762,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -776,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -803,22 +806,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84FC70-DF1D-4EB8-93B9-4E50CD9A7490}">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -828,96 +831,82 @@
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6" t="s">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <f>297/2</f>
         <v>148.5</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>210</v>
       </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7">
-        <f>297/2</f>
-        <v>148.5</v>
-      </c>
-      <c r="K2" s="7">
+      <c r="I2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
         <f>2/5</f>
         <v>0.4</v>
       </c>
-      <c r="L2" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" t="s">
-        <v>8</v>
-      </c>
-      <c r="U2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7">
-        <f>2/5</f>
-        <v>0.4</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>0.5</v>
       </c>
       <c r="D3">
@@ -936,116 +925,348 @@
         <f>$C$2*C3</f>
         <v>105</v>
       </c>
-      <c r="I3" s="7">
-        <v>2</v>
-      </c>
-      <c r="J3" s="7">
-        <v>210</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <f>297/2</f>
+        <v>148.5</v>
+      </c>
+      <c r="K3" s="6">
         <f>2/5</f>
         <v>0.4</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>190</v>
+      </c>
+      <c r="N3">
+        <v>245</v>
+      </c>
+      <c r="O3">
+        <v>195</v>
+      </c>
+      <c r="P3">
+        <v>195</v>
+      </c>
+      <c r="Q3">
+        <v>138</v>
+      </c>
+      <c r="R3">
+        <v>205</v>
+      </c>
+      <c r="S3">
+        <v>192</v>
+      </c>
+      <c r="T3">
+        <v>210</v>
+      </c>
+      <c r="U3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>0.8</v>
       </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6">
+        <v>210</v>
+      </c>
+      <c r="K4" s="6">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="M4" s="13">
+        <v>156</v>
+      </c>
+      <c r="N4" s="13">
+        <v>230</v>
+      </c>
+      <c r="O4" s="13">
+        <v>167</v>
+      </c>
+      <c r="P4" s="13">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>158</v>
+      </c>
+      <c r="R4" s="13">
+        <v>170</v>
+      </c>
+      <c r="S4" s="13">
+        <v>165</v>
+      </c>
+      <c r="T4" s="13">
+        <v>174</v>
+      </c>
+      <c r="U4" s="13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="I5" s="6">
         <v>3</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J5" s="6">
         <f>297/2</f>
         <v>148.5</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K5" s="6">
         <v>0.5</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L5" s="6">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I5" s="7">
+      <c r="M5" s="13">
+        <v>87.5</v>
+      </c>
+      <c r="N5" s="13">
+        <v>92</v>
+      </c>
+      <c r="O5" s="13">
+        <v>75</v>
+      </c>
+      <c r="P5" s="13">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>89</v>
+      </c>
+      <c r="R5" s="13">
+        <v>108</v>
+      </c>
+      <c r="S5" s="13">
+        <v>146</v>
+      </c>
+      <c r="T5" s="13">
+        <v>257</v>
+      </c>
+      <c r="U5" s="13">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="I6" s="6">
         <v>4</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J6" s="6">
         <v>210</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K6" s="6">
         <v>0.5</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L6" s="6">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I6" s="7">
+      <c r="M6" s="13">
+        <v>245</v>
+      </c>
+      <c r="N6" s="13">
+        <v>262</v>
+      </c>
+      <c r="O6" s="13">
+        <v>310</v>
+      </c>
+      <c r="P6" s="13">
+        <v>190</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>185</v>
+      </c>
+      <c r="R6" s="13">
+        <v>181</v>
+      </c>
+      <c r="S6" s="13">
+        <v>263</v>
+      </c>
+      <c r="T6" s="13">
+        <v>250</v>
+      </c>
+      <c r="U6" s="13">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="I7" s="6">
         <v>5</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J7" s="6">
         <f>297/2</f>
         <v>148.5</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K7" s="6">
         <f>2/5</f>
         <v>0.4</v>
       </c>
-      <c r="L6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I7" s="7">
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="13">
+        <v>305</v>
+      </c>
+      <c r="N7" s="13">
+        <v>315</v>
+      </c>
+      <c r="O7" s="13">
+        <v>228</v>
+      </c>
+      <c r="P7" s="13">
+        <v>257</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>230</v>
+      </c>
+      <c r="R7" s="13">
+        <v>243.5</v>
+      </c>
+      <c r="S7" s="13">
+        <v>113</v>
+      </c>
+      <c r="T7" s="13">
+        <v>157.5</v>
+      </c>
+      <c r="U7" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="I8" s="6">
         <v>6</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J8" s="6">
         <v>210</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K8" s="6">
         <f>2/5</f>
         <v>0.4</v>
       </c>
-      <c r="L7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I8" s="7">
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="13">
+        <v>148</v>
+      </c>
+      <c r="N8" s="13">
+        <v>119</v>
+      </c>
+      <c r="O8" s="13">
+        <v>120</v>
+      </c>
+      <c r="P8" s="13">
+        <v>273</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>207</v>
+      </c>
+      <c r="R8" s="13">
+        <v>155</v>
+      </c>
+      <c r="S8" s="13">
+        <v>210</v>
+      </c>
+      <c r="T8" s="13">
+        <v>243</v>
+      </c>
+      <c r="U8" s="13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="I9" s="6">
         <v>7</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J9" s="6">
         <f>297/2</f>
         <v>148.5</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K9" s="6">
         <v>0.5</v>
       </c>
-      <c r="L8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I9" s="7">
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="13">
+        <v>175</v>
+      </c>
+      <c r="N9" s="13">
+        <v>137.5</v>
+      </c>
+      <c r="O9" s="13">
+        <v>174</v>
+      </c>
+      <c r="P9" s="13">
+        <v>171</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>163</v>
+      </c>
+      <c r="R9" s="13">
+        <v>180</v>
+      </c>
+      <c r="S9" s="13">
+        <v>212</v>
+      </c>
+      <c r="T9" s="13">
+        <v>241</v>
+      </c>
+      <c r="U9" s="13">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="I10" s="6">
         <v>8</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J10" s="6">
         <v>210</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K10" s="6">
         <v>0.5</v>
       </c>
-      <c r="L9" s="7">
-        <v>1</v>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="13">
+        <v>146.5</v>
+      </c>
+      <c r="N10" s="13">
+        <v>145</v>
+      </c>
+      <c r="O10" s="13">
+        <v>150</v>
+      </c>
+      <c r="P10" s="13">
+        <v>302</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>327</v>
+      </c>
+      <c r="R10" s="13">
+        <v>256.5</v>
+      </c>
+      <c r="S10" s="13">
+        <v>154</v>
+      </c>
+      <c r="T10" s="13">
+        <v>174</v>
+      </c>
+      <c r="U10" s="13">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/統計管制與最佳化方法概論/homework/my_homework/final exam/final_exam.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/final exam/final_exam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\final exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\final exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62CBA49-78B4-4C79-92BA-690FF700B4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DE92B3-1F65-43C4-8BE8-374A8673E7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{2224B4A3-7DDB-4A03-9076-3DDD34B94DE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2224B4A3-7DDB-4A03-9076-3DDD34B94DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="experiment design" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
   <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +110,232 @@
   </si>
   <si>
     <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1x2x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y_bar_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_i^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_p^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_effect^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_64,0.025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_64,0.975</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p-value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source of variation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjusted R^2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +368,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -252,13 +500,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,17 +714,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -316,6 +826,1336 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'experiment design'!$K$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('experiment design'!$Q$18,'experiment design'!$L$18,'experiment design'!$R$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-12.640255676549829</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.306922343216499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('experiment design'!$J$18,'experiment design'!$J$18,'experiment design'!$J$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ADBE-4871-A287-F9F9A3B8A6E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'experiment design'!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('experiment design'!$Q$19,'experiment design'!$L$19,'experiment design'!$R$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-25.140255676549831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.806922343216495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('experiment design'!$J$19,'experiment design'!$J$19,'experiment design'!$J$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ADBE-4871-A287-F9F9A3B8A6E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'experiment design'!$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('experiment design'!$Q$20,'experiment design'!$L$20,'experiment design'!$R$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-14.223589009883163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.723589009883163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('experiment design'!$J$20,'experiment design'!$J$20,'experiment design'!$J$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-ADBE-4871-A287-F9F9A3B8A6E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'experiment design'!$K$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('experiment design'!$Q$21,'experiment design'!$L$21,'experiment design'!$R$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.026410990116837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.97358900988317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('experiment design'!$J$21,'experiment design'!$J$21,'experiment design'!$J$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-ADBE-4871-A287-F9F9A3B8A6E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'experiment design'!$K$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('experiment design'!$Q$22,'experiment design'!$L$22,'experiment design'!$R$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-30.77914456543872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.8055555555555554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.168033454327606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('experiment design'!$J$22,'experiment design'!$J$22,'experiment design'!$J$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-ADBE-4871-A287-F9F9A3B8A6E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'experiment design'!$K$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('experiment design'!$Q$23,'experiment design'!$L$23,'experiment design'!$R$23)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-50.223589009883163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-23.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7235890098831632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('experiment design'!$J$23,'experiment design'!$J$23,'experiment design'!$J$23)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-ADBE-4871-A287-F9F9A3B8A6E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'experiment design'!$K$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E123</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('experiment design'!$Q$24,'experiment design'!$L$24,'experiment design'!$R$24)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-49.33470012099427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-22.361111111111111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6124778987720525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('experiment design'!$J$24,'experiment design'!$J$24,'experiment design'!$J$24)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-ADBE-4871-A287-F9F9A3B8A6E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="529318047"/>
+        <c:axId val="529324287"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="529318047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529324287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="529324287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529318047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.84979155730533684"/>
+          <c:y val="0.10438466025080198"/>
+          <c:w val="0.13354177602799649"/>
+          <c:h val="0.75058253135024788"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>620486</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>391886</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B57A30A-E760-4CDD-B6A1-FCFE4B25DA57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -615,182 +2455,3706 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAAFF7F-C379-4648-8145-FECEA7F02896}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:AC85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:M10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="24" max="24" width="17.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="E1" s="12" t="s">
+    <row r="1" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>-1</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-      <c r="D3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="N2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="18">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="19">
+        <f>SUM(O3:O10)/P2</f>
+        <v>3281.5312500000009</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="16" cm="1">
+        <f t="array" ref="T2">SUM(((E3:M10)-$P$8)^2)</f>
+        <v>273781.77777777775</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y2" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC2" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>190</v>
+      </c>
+      <c r="F3" s="6">
+        <v>245</v>
+      </c>
+      <c r="G3" s="6">
+        <v>195</v>
+      </c>
+      <c r="H3" s="7">
+        <v>195</v>
+      </c>
+      <c r="I3" s="6">
+        <v>138</v>
+      </c>
+      <c r="J3" s="6">
+        <v>205</v>
+      </c>
+      <c r="K3" s="7">
+        <v>192</v>
+      </c>
+      <c r="L3" s="6">
+        <v>210</v>
+      </c>
+      <c r="M3" s="6">
+        <v>212</v>
+      </c>
+      <c r="N3" s="7">
+        <f>AVERAGE(E3:M3)</f>
+        <v>198</v>
+      </c>
+      <c r="O3" s="10">
+        <f>_xlfn.VAR.S(E3:M3)</f>
+        <v>789.5</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="6">
+        <f>$P$6/2*((U3-$P$8)^2+(V3-$P$8)^2)</f>
+        <v>3698.000000000005</v>
+      </c>
+      <c r="U3" s="6">
+        <f>AVERAGE(E4:M4,E6:M6,E8:M8,E10:M10)</f>
+        <v>198.97222222222223</v>
+      </c>
+      <c r="V3" s="19">
+        <f>AVERAGE(E3:M3,E5:M5,E7:M7,E9:M9)</f>
+        <v>184.63888888888889</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="6">
+        <f>T3</f>
+        <v>3698.000000000005</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="6">
+        <f>Y3/Z3</f>
+        <v>3698.000000000005</v>
+      </c>
+      <c r="AB3" s="6">
+        <f>AA3/$AA$10</f>
+        <v>1.1269129312725592</v>
+      </c>
+      <c r="AC3" s="10">
+        <f>_xlfn.F.INV.RT(0.05,Z3,$Z$10)</f>
+        <v>3.9909237717402912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-      <c r="D4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="14">
+        <v>156</v>
+      </c>
+      <c r="F4" s="12">
+        <v>230</v>
+      </c>
+      <c r="G4" s="12">
+        <v>167</v>
+      </c>
+      <c r="H4" s="14">
+        <v>115</v>
+      </c>
+      <c r="I4" s="12">
+        <v>158</v>
+      </c>
+      <c r="J4" s="12">
+        <v>170</v>
+      </c>
+      <c r="K4" s="14">
+        <v>165</v>
+      </c>
+      <c r="L4" s="12">
+        <v>174</v>
+      </c>
+      <c r="M4" s="12">
+        <v>170</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" ref="N4:N10" si="0">AVERAGE(E4:M4)</f>
+        <v>167.22222222222223</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" ref="O4:O10" si="1">_xlfn.VAR.S(E4:M4)</f>
+        <v>868.19444444444525</v>
+      </c>
+      <c r="P4" s="18">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="19">
+        <f>4*Q2/(P2*P4)</f>
+        <v>182.30729166666671</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="6">
+        <f>$P$6/2*((U4-$P$8)^2+(V4-$P$8)^2)</f>
+        <v>60.500000000000625</v>
+      </c>
+      <c r="U4" s="6">
+        <f>AVERAGE(E5:M5,E6:M6,E9:M9,E10:M10)</f>
+        <v>192.72222222222223</v>
+      </c>
+      <c r="V4" s="19">
+        <f>AVERAGE(E3:M3,E4:M4,E7:M7,E8:M8)</f>
+        <v>190.88888888888889</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" s="6">
+        <f t="shared" ref="Y4:Y9" si="2">T4</f>
+        <v>60.500000000000625</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="6">
+        <f t="shared" ref="AA4:AA10" si="3">Y4/Z4</f>
+        <v>60.500000000000625</v>
+      </c>
+      <c r="AB4" s="6">
+        <f t="shared" ref="AB4:AB9" si="4">AA4/$AA$10</f>
+        <v>1.8436514965384114E-2</v>
+      </c>
+      <c r="AC4" s="10">
+        <f t="shared" ref="AC4:AC9" si="5">_xlfn.F.INV.RT(0.05,Z4,$Z$10)</f>
+        <v>3.9909237717402912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="B5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>87.5</v>
+      </c>
+      <c r="F5" s="12">
+        <v>92</v>
+      </c>
+      <c r="G5" s="12">
+        <v>75</v>
+      </c>
+      <c r="H5" s="14">
+        <v>73</v>
+      </c>
+      <c r="I5" s="12">
+        <v>89</v>
+      </c>
+      <c r="J5" s="12">
+        <v>108</v>
+      </c>
+      <c r="K5" s="14">
+        <v>146</v>
+      </c>
+      <c r="L5" s="12">
+        <v>257</v>
+      </c>
+      <c r="M5" s="12">
+        <v>290</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" si="0"/>
+        <v>135.27777777777777</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="1"/>
+        <v>6677.9444444444453</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="6">
+        <f>$P$6/2*((U5-$P$8)^2+(V5-$P$8)^2)</f>
+        <v>2926.125</v>
+      </c>
+      <c r="U5" s="6">
+        <f>AVERAGE(E7:M10)</f>
+        <v>198.18055555555554</v>
+      </c>
+      <c r="V5" s="19">
+        <f>AVERAGE(E3:M6)</f>
+        <v>185.43055555555554</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y5" s="6">
+        <f t="shared" si="2"/>
+        <v>2926.125</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="6">
+        <f t="shared" si="3"/>
+        <v>2926.125</v>
+      </c>
+      <c r="AB5" s="6">
+        <f t="shared" si="4"/>
+        <v>0.89169499757163684</v>
+      </c>
+      <c r="AC5" s="10">
+        <f t="shared" si="5"/>
+        <v>3.9909237717402912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>245</v>
+      </c>
+      <c r="F6" s="12">
+        <v>262</v>
+      </c>
+      <c r="G6" s="12">
+        <v>310</v>
+      </c>
+      <c r="H6" s="14">
+        <v>190</v>
+      </c>
+      <c r="I6" s="12">
+        <v>185</v>
+      </c>
+      <c r="J6" s="12">
+        <v>181</v>
+      </c>
+      <c r="K6" s="14">
+        <v>263</v>
+      </c>
+      <c r="L6" s="12">
+        <v>250</v>
+      </c>
+      <c r="M6" s="12">
+        <v>285</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="0"/>
+        <v>241.22222222222223</v>
+      </c>
+      <c r="O6" s="10">
+        <f t="shared" si="1"/>
+        <v>2131.9444444444453</v>
+      </c>
+      <c r="P6" s="18">
+        <f>P2*P4</f>
+        <v>72</v>
+      </c>
+      <c r="Q6" s="19">
+        <f>Q4^0.5</f>
+        <v>13.502121746846557</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" s="6">
+        <f>$P$6/2*((U6-$P$8)^2+(V6-$P$8)^2)</f>
+        <v>38088</v>
+      </c>
+      <c r="U6" s="6">
+        <f>AVERAGE(E3:M3,E6:M6,E7:M7,E10:M10)</f>
+        <v>214.80555555555554</v>
+      </c>
+      <c r="V6" s="19">
+        <f>AVERAGE(E4:M4,E5:M5,E8:M8,E9:M9)</f>
+        <v>168.80555555555554</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="6">
+        <f t="shared" si="2"/>
+        <v>38088</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="6">
+        <f t="shared" si="3"/>
+        <v>38088</v>
+      </c>
+      <c r="AB6" s="6">
+        <f t="shared" si="4"/>
+        <v>11.606776562008973</v>
+      </c>
+      <c r="AC6" s="10">
+        <f t="shared" si="5"/>
+        <v>3.9909237717402912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
-        <v>-1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8">
+      <c r="B7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>305</v>
+      </c>
+      <c r="F7" s="12">
+        <v>315</v>
+      </c>
+      <c r="G7" s="12">
+        <v>228</v>
+      </c>
+      <c r="H7" s="14">
+        <v>257</v>
+      </c>
+      <c r="I7" s="12">
+        <v>230</v>
+      </c>
+      <c r="J7" s="12">
+        <v>243.5</v>
+      </c>
+      <c r="K7" s="14">
+        <v>113</v>
+      </c>
+      <c r="L7" s="12">
+        <v>157.5</v>
+      </c>
+      <c r="M7" s="12">
+        <v>90</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="0"/>
+        <v>215.44444444444446</v>
+      </c>
+      <c r="O7" s="10">
+        <f t="shared" si="1"/>
+        <v>6300.465277777781</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="6">
+        <f>$P$6/2*((U7-$P$8)^2+(V7-$P$8)^2)</f>
+        <v>260.6805555555577</v>
+      </c>
+      <c r="U7" s="6">
+        <f>AVERAGE(E3:M3,E4:M4,E9:M9,E10:M10)</f>
+        <v>189.90277777777777</v>
+      </c>
+      <c r="V7" s="19">
+        <f>AVERAGE(E5:M5,E6:M6,E7:M7,E8:M8)</f>
+        <v>193.70833333333334</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y7" s="6">
+        <f t="shared" si="2"/>
+        <v>260.6805555555577</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="6">
+        <f t="shared" si="3"/>
+        <v>260.6805555555577</v>
+      </c>
+      <c r="AB7" s="6">
+        <f t="shared" si="4"/>
+        <v>7.9438693614622052E-2</v>
+      </c>
+      <c r="AC7" s="10">
+        <f t="shared" si="5"/>
+        <v>3.9909237717402912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
+        <v>148</v>
+      </c>
+      <c r="F8" s="12">
+        <v>119</v>
+      </c>
+      <c r="G8" s="12">
+        <v>120</v>
+      </c>
+      <c r="H8" s="14">
+        <v>273</v>
+      </c>
+      <c r="I8" s="12">
+        <v>207</v>
+      </c>
+      <c r="J8" s="12">
+        <v>155</v>
+      </c>
+      <c r="K8" s="14">
+        <v>210</v>
+      </c>
+      <c r="L8" s="12">
+        <v>243</v>
+      </c>
+      <c r="M8" s="12">
+        <v>171</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" si="0"/>
+        <v>182.88888888888889</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="1"/>
+        <v>2902.8611111111095</v>
+      </c>
+      <c r="P8" s="20">
+        <f>AVERAGE(N3:N10)</f>
+        <v>191.80555555555554</v>
+      </c>
+      <c r="Q8" s="22">
+        <f>P2*(P4-1)</f>
+        <v>64</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8" s="6">
+        <f>$P$6/2*((U8-$P$8)^2+(V8-$P$8)^2)</f>
+        <v>9730.125</v>
+      </c>
+      <c r="U8" s="6">
+        <f>AVERAGE(E3:M3,E5:M5,E8:M8,E10:M10)</f>
+        <v>180.18055555555554</v>
+      </c>
+      <c r="V8" s="19">
+        <f>AVERAGE(E4:M4,E6:M6,E7:M7,E9:M9)</f>
+        <v>203.43055555555554</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="6">
+        <f t="shared" si="2"/>
+        <v>9730.125</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="6">
+        <f t="shared" si="3"/>
+        <v>9730.125</v>
+      </c>
+      <c r="AB8" s="6">
+        <f t="shared" si="4"/>
+        <v>2.9651172756620867</v>
+      </c>
+      <c r="AC8" s="10">
+        <f t="shared" si="5"/>
+        <v>3.9909237717402912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>-1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10">
+      <c r="B9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14">
+        <v>175</v>
+      </c>
+      <c r="F9" s="12">
+        <v>137.5</v>
+      </c>
+      <c r="G9" s="12">
+        <v>174</v>
+      </c>
+      <c r="H9" s="14">
+        <v>171</v>
+      </c>
+      <c r="I9" s="12">
+        <v>163</v>
+      </c>
+      <c r="J9" s="12">
+        <v>180</v>
+      </c>
+      <c r="K9" s="14">
+        <v>212</v>
+      </c>
+      <c r="L9" s="12">
+        <v>241</v>
+      </c>
+      <c r="M9" s="12">
+        <v>255</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="0"/>
+        <v>189.83333333333334</v>
+      </c>
+      <c r="O9" s="10">
+        <f t="shared" si="1"/>
+        <v>1467.125</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="T9" s="6">
+        <f>$P$6/2*((U9-$P$8)^2+(V9-$P$8)^2)</f>
+        <v>9000.3472222222244</v>
+      </c>
+      <c r="U9" s="6">
+        <f>AVERAGE(E4:M4,E5:M5,E7:M7,E10:M10)</f>
+        <v>180.625</v>
+      </c>
+      <c r="V9" s="19">
+        <f>AVERAGE(E3:M3,E6:M6,E8:M8,E9:M9)</f>
+        <v>202.98611111111111</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y9" s="6">
+        <f t="shared" si="2"/>
+        <v>9000.3472222222244</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="6">
+        <f t="shared" si="3"/>
+        <v>9000.3472222222244</v>
+      </c>
+      <c r="AB9" s="6">
+        <f t="shared" si="4"/>
+        <v>2.7427278720025066</v>
+      </c>
+      <c r="AC9" s="10">
+        <f t="shared" si="5"/>
+        <v>3.9909237717402912</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="B10" s="21">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27">
+        <v>146.5</v>
+      </c>
+      <c r="F10" s="28">
+        <v>145</v>
+      </c>
+      <c r="G10" s="28">
+        <v>150</v>
+      </c>
+      <c r="H10" s="27">
+        <v>302</v>
+      </c>
+      <c r="I10" s="28">
+        <v>327</v>
+      </c>
+      <c r="J10" s="28">
+        <v>256.5</v>
+      </c>
+      <c r="K10" s="27">
+        <v>154</v>
+      </c>
+      <c r="L10" s="28">
+        <v>174</v>
+      </c>
+      <c r="M10" s="28">
+        <v>186</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="0"/>
+        <v>204.55555555555554</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="1"/>
+        <v>5114.215277777781</v>
+      </c>
+      <c r="S10" s="18"/>
+      <c r="T10" s="6" cm="1">
+        <f t="array" ref="T10">SUM(((E3:M3)-N3)^2)</f>
+        <v>6316</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="19"/>
+      <c r="X10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y10" s="6">
+        <f>T18</f>
+        <v>210017.99999999997</v>
+      </c>
+      <c r="Z10" s="6">
+        <f>P2*(P4-1)</f>
+        <v>64</v>
+      </c>
+      <c r="AA10" s="6">
+        <f t="shared" si="3"/>
+        <v>3281.5312499999995</v>
+      </c>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="10"/>
+    </row>
+    <row r="11" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S11" s="18"/>
+      <c r="T11" s="6" cm="1">
+        <f t="array" ref="T11">SUM(((E4:M4)-N4)^2)</f>
+        <v>6945.5555555555566</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="19"/>
+      <c r="X11" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y11" s="32">
+        <f>SUM(Y3:Y10)</f>
+        <v>273781.77777777775</v>
+      </c>
+      <c r="Z11" s="32">
+        <f>P2*P4-1</f>
+        <v>71</v>
+      </c>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="33"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S12" s="18"/>
+      <c r="T12" s="6" cm="1">
+        <f t="array" ref="T12">SUM(((E5:M5)-N5)^2)</f>
+        <v>53423.555555555555</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="19"/>
+      <c r="X12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y12" s="6">
+        <f>SUM(Y3:Y9)/Y11</f>
+        <v>0.23290000633107638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="18"/>
+      <c r="T13" s="6" cm="1">
+        <f t="array" ref="T13">SUM(((E6:M6)-N6)^2)</f>
+        <v>17055.555555555555</v>
+      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="19"/>
+      <c r="X13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y13" s="6">
+        <f>1-(Y10/Z10)/(Y11/Z11)</f>
+        <v>0.14899844452353783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <f>B14*C14</f>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f>C14*D14</f>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f>B14*D14</f>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f>B14*C14*D14</f>
+        <v>-1</v>
+      </c>
+      <c r="I14">
+        <v>190</v>
+      </c>
+      <c r="K14">
+        <f>SUMPRODUCT(B14:B85,$I$14:$I$85)/($P$2/2*$P$4)</f>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="L14">
+        <f>SUMPRODUCT(C14:C85,$I$14:$I$85)/($P$2/2*$P$4)</f>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="M14">
+        <f>SUMPRODUCT(D14:D85,$I$14:$I$85)/($P$2/2*$P$4)</f>
+        <v>12.75</v>
+      </c>
+      <c r="N14">
+        <f>SUMPRODUCT(E14:E85,$I$14:$I$85)/($P$2/2*$P$4)</f>
+        <v>46</v>
+      </c>
+      <c r="O14">
+        <f>SUMPRODUCT(F14:F85,$I$14:$I$85)/($P$2/2*$P$4)</f>
+        <v>-3.8055555555555554</v>
+      </c>
+      <c r="P14">
+        <f>SUMPRODUCT(G14:G85,$I$14:$I$85)/($P$2/2*$P$4)</f>
+        <v>-23.25</v>
+      </c>
+      <c r="Q14">
+        <f>SUMPRODUCT(H14:H85,$I$14:$I$85)/($P$2/2*$P$4)</f>
+        <v>-22.361111111111111</v>
+      </c>
+      <c r="S14" s="18"/>
+      <c r="T14" s="6" cm="1">
+        <f t="array" ref="T14">SUM(((E7:M7)-N7)^2)</f>
+        <v>50403.722222222219</v>
+      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="19"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E78" si="6">B15*C15</f>
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F78" si="7">C15*D15</f>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G78" si="8">B15*D15</f>
+        <v>-1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H78" si="9">B15*C15*D15</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="12">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="18"/>
+      <c r="T15" s="6" cm="1">
+        <f t="array" ref="T15">SUM(((E8:M8)-N8)^2)</f>
+        <v>23222.888888888891</v>
+      </c>
+      <c r="U15" s="6"/>
+      <c r="V15" s="19"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="12">
+        <v>87.5</v>
+      </c>
+      <c r="J16">
+        <f>AVERAGE(E3:M10)</f>
+        <v>191.80555555555554</v>
+      </c>
+      <c r="K16">
+        <f>K14/2</f>
+        <v>7.166666666666667</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:Q16" si="10">L14/2</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="10"/>
+        <v>6.375</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="10"/>
+        <v>-1.9027777777777777</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="10"/>
+        <v>-11.625</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="10"/>
+        <v>-11.180555555555555</v>
+      </c>
+      <c r="S16" s="18"/>
+      <c r="T16" s="6" cm="1">
+        <f t="array" ref="T16">SUM(((E9:M9)-N9)^2)</f>
+        <v>11737</v>
+      </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="19"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I17" s="12">
+        <v>245</v>
+      </c>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S17" s="18"/>
+      <c r="T17" s="6" cm="1">
+        <f t="array" ref="T17">SUM(((E10:M10)-N10)^2)</f>
+        <v>40913.722222222226</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="V17" s="19"/>
+    </row>
+    <row r="18" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="12">
+        <v>305</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <f>K14</f>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="M18">
+        <f>(L18-0)/$Q$6</f>
+        <v>1.061561553218916</v>
+      </c>
+      <c r="N18">
+        <f>IF(_xlfn.T.DIST(M18,$Q$8,1)&gt;0.5,(1-_xlfn.T.DIST(M18,$Q$8,1))*2,_xlfn.T.DIST(M18,$Q$8,1)*2)</f>
+        <v>0.29242431771081456</v>
+      </c>
+      <c r="O18">
+        <f>_xlfn.T.INV(0.025,64)</f>
+        <v>-1.9977296543176954</v>
+      </c>
+      <c r="P18">
+        <f>_xlfn.T.INV(0.975,64)</f>
+        <v>1.9977296543176919</v>
+      </c>
+      <c r="Q18">
+        <f>L18-P18*$Q$6</f>
+        <v>-12.640255676549829</v>
+      </c>
+      <c r="R18">
+        <f>L18+P18*$Q$6</f>
+        <v>41.306922343216499</v>
+      </c>
+      <c r="S18" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="T18" s="21">
+        <f>SUM(T10:T17)</f>
+        <v>210017.99999999997</v>
+      </c>
+      <c r="U18" s="21">
+        <f>T18+SUM(T3:T9)</f>
+        <v>273781.77777777775</v>
+      </c>
+      <c r="V18" s="22"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I19" s="12">
+        <v>148</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19">
+        <f>L14</f>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="M19">
+        <f>(L19-0)/$Q$6</f>
+        <v>0.13578112890009389</v>
+      </c>
+      <c r="N19">
+        <f>IF(_xlfn.T.DIST(M19,$Q$8,1)&gt;0.5,(1-_xlfn.T.DIST(M19,$Q$8,1))*2,_xlfn.T.DIST(M19,$Q$8,1)*2)</f>
+        <v>0.89242049053847694</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O24" si="11">_xlfn.T.INV(0.025,64)</f>
+        <v>-1.9977296543176954</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ref="P19:P24" si="12">_xlfn.T.INV(0.975,64)</f>
+        <v>1.9977296543176919</v>
+      </c>
+      <c r="Q19">
+        <f>L19-P19*$Q$6</f>
+        <v>-25.140255676549831</v>
+      </c>
+      <c r="R19">
+        <f>L19+P19*$Q$6</f>
+        <v>28.806922343216495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I20" s="12">
+        <v>175</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20">
+        <f>M14</f>
+        <v>12.75</v>
+      </c>
+      <c r="M20">
+        <f>(L20-0)/$Q$6</f>
+        <v>0.94429603280519847</v>
+      </c>
+      <c r="N20">
+        <f>IF(_xlfn.T.DIST(M20,$Q$8,1)&gt;0.5,(1-_xlfn.T.DIST(M20,$Q$8,1))*2,_xlfn.T.DIST(M20,$Q$8,1)*2)</f>
+        <v>0.34856973852589146</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="11"/>
+        <v>-1.9977296543176954</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="12"/>
+        <v>1.9977296543176919</v>
+      </c>
+      <c r="Q20">
+        <f>L20-P20*$Q$6</f>
+        <v>-14.223589009883163</v>
+      </c>
+      <c r="R20">
+        <f>L20+P20*$Q$6</f>
+        <v>39.723589009883163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="12">
+        <v>146.5</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21">
+        <f>N14</f>
+        <v>46</v>
+      </c>
+      <c r="M21">
+        <f>(L21-0)/$Q$6</f>
+        <v>3.4068719614932652</v>
+      </c>
+      <c r="N21">
+        <f>IF(_xlfn.T.DIST(M21,$Q$8,1)&gt;0.5,(1-_xlfn.T.DIST(M21,$Q$8,1))*2,_xlfn.T.DIST(M21,$Q$8,1)*2)</f>
+        <v>1.1403512702865548E-3</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="11"/>
+        <v>-1.9977296543176954</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="12"/>
+        <v>1.9977296543176919</v>
+      </c>
+      <c r="Q21">
+        <f>L21-P21*$Q$6</f>
+        <v>19.026410990116837</v>
+      </c>
+      <c r="R21">
+        <f>L21+P21*$Q$6</f>
+        <v>72.97358900988317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I22">
+        <v>245</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22">
+        <f>O14</f>
+        <v>-3.8055555555555554</v>
+      </c>
+      <c r="M22">
+        <f>(L22-0)/$Q$6</f>
+        <v>-0.28184870695928582</v>
+      </c>
+      <c r="N22">
+        <f>IF(_xlfn.T.DIST(M22,$Q$8,1)&gt;0.5,(1-_xlfn.T.DIST(M22,$Q$8,1))*2,_xlfn.T.DIST(M22,$Q$8,1)*2)</f>
+        <v>0.7789689043474407</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="11"/>
+        <v>-1.9977296543176954</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="12"/>
+        <v>1.9977296543176919</v>
+      </c>
+      <c r="Q22">
+        <f>L22-P22*$Q$6</f>
+        <v>-30.77914456543872</v>
+      </c>
+      <c r="R22">
+        <f>L22+P22*$Q$6</f>
+        <v>23.168033454327606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>-1</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="12">
+        <v>230</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23">
+        <f>P14</f>
+        <v>-23.25</v>
+      </c>
+      <c r="M23">
+        <f>(L23-0)/$Q$6</f>
+        <v>-1.7219515892330091</v>
+      </c>
+      <c r="N23">
+        <f>IF(_xlfn.T.DIST(M23,$Q$8,1)&gt;0.5,(1-_xlfn.T.DIST(M23,$Q$8,1))*2,_xlfn.T.DIST(M23,$Q$8,1)*2)</f>
+        <v>8.9908493631996517E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="11"/>
+        <v>-1.9977296543176954</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="12"/>
+        <v>1.9977296543176919</v>
+      </c>
+      <c r="Q23">
+        <f>L23-P23*$Q$6</f>
+        <v>-50.223589009883163</v>
+      </c>
+      <c r="R23">
+        <f>L23+P23*$Q$6</f>
+        <v>3.7235890098831632</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="12">
+        <v>92</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24">
+        <f>Q14</f>
+        <v>-22.361111111111111</v>
+      </c>
+      <c r="M24">
+        <f>(L24-0)/$Q$6</f>
+        <v>-1.6561183146147815</v>
+      </c>
+      <c r="N24">
+        <f>IF(_xlfn.T.DIST(M24,$Q$8,1)&gt;0.5,(1-_xlfn.T.DIST(M24,$Q$8,1))*2,_xlfn.T.DIST(M24,$Q$8,1)*2)</f>
+        <v>0.10259332497980399</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="11"/>
+        <v>-1.9977296543176954</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="12"/>
+        <v>1.9977296543176919</v>
+      </c>
+      <c r="Q24">
+        <f>L24-P24*$Q$6</f>
+        <v>-49.33470012099427</v>
+      </c>
+      <c r="R24">
+        <f>L24+P24*$Q$6</f>
+        <v>4.6124778987720525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I25" s="12">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>-1</v>
+      </c>
+      <c r="C26">
+        <v>-1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="12">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>-1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I27" s="12">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>-1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I28" s="12">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="12">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>-1</v>
+      </c>
+      <c r="C30">
+        <v>-1</v>
+      </c>
+      <c r="D30">
+        <v>-1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I30">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>-1</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>-1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>-1</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>-1</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I33" s="12">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>-1</v>
+      </c>
+      <c r="C34">
+        <v>-1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="12">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>-1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I35" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>-1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I36" s="12">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I37" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>-1</v>
+      </c>
+      <c r="C38">
+        <v>-1</v>
+      </c>
+      <c r="D38">
+        <v>-1</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I38">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>-1</v>
+      </c>
+      <c r="D39">
+        <v>-1</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I39" s="12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>-1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>-1</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I40" s="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>-1</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I41" s="12">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>-1</v>
+      </c>
+      <c r="C42">
+        <v>-1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I42" s="12">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>-1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I43" s="12">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>-1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I44" s="12">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I45" s="12">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>-1</v>
+      </c>
+      <c r="C46">
+        <v>-1</v>
+      </c>
+      <c r="D46">
+        <v>-1</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I46">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>-1</v>
+      </c>
+      <c r="D47">
+        <v>-1</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I47" s="12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>-1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>-1</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I48" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>-1</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I49" s="12">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>-1</v>
+      </c>
+      <c r="C50">
+        <v>-1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I50" s="12">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>-1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I51" s="12">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>-1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I52" s="12">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I53" s="12">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>-1</v>
+      </c>
+      <c r="C54">
+        <v>-1</v>
+      </c>
+      <c r="D54">
+        <v>-1</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I54">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>-1</v>
+      </c>
+      <c r="D55">
+        <v>-1</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I55" s="12">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>-1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>-1</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I56" s="12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>-1</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I57" s="12">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>-1</v>
+      </c>
+      <c r="C58">
+        <v>-1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I58" s="12">
+        <v>243.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>-1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I59" s="12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>-1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I60" s="12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I61" s="12">
+        <v>256.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>-1</v>
+      </c>
+      <c r="C62">
+        <v>-1</v>
+      </c>
+      <c r="D62">
+        <v>-1</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I62">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>-1</v>
+      </c>
+      <c r="D63">
+        <v>-1</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I63" s="12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>-1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>-1</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I64" s="12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>-1</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I65" s="12">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>-1</v>
+      </c>
+      <c r="C66">
+        <v>-1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I66" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>-1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I67" s="12">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>-1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I68" s="12">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I69" s="12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>-1</v>
+      </c>
+      <c r="C70">
+        <v>-1</v>
+      </c>
+      <c r="D70">
+        <v>-1</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I70">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>-1</v>
+      </c>
+      <c r="D71">
+        <v>-1</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I71" s="12">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>-1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>-1</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I72" s="12">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>-1</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I73" s="12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>-1</v>
+      </c>
+      <c r="C74">
+        <v>-1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I74" s="12">
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>-1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I75" s="12">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>-1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I76" s="12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I77" s="12">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>-1</v>
+      </c>
+      <c r="C78">
+        <v>-1</v>
+      </c>
+      <c r="D78">
+        <v>-1</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I78">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>-1</v>
+      </c>
+      <c r="D79">
+        <v>-1</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ref="E79:E85" si="13">B79*C79</f>
+        <v>-1</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ref="F79:F85" si="14">C79*D79</f>
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ref="G79:G85" si="15">B79*D79</f>
+        <v>-1</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ref="H79:H85" si="16">B79*C79*D79</f>
+        <v>1</v>
+      </c>
+      <c r="I79" s="12">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>-1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>-1</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="I80" s="12">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>-1</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="I81" s="12">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <v>-1</v>
+      </c>
+      <c r="C82">
+        <v>-1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="I82" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>-1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="I83" s="12">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>7</v>
+      </c>
+      <c r="B84">
+        <v>-1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="I84" s="12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="I85" s="12">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +6164,21 @@
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="M18:M24">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>$O$18</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+      <formula>$P$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3:AB9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$AC$3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -808,20 +6186,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84FC70-DF1D-4EB8-93B9-4E50CD9A7490}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -831,23 +6209,23 @@
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -898,7 +6276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -967,7 +6345,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -990,35 +6368,35 @@
       <c r="L4" s="6">
         <v>0.8</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <v>156</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="12">
         <v>230</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="12">
         <v>167</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="12">
         <v>115</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="12">
         <v>158</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="12">
         <v>170</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="12">
         <v>165</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="12">
         <v>174</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="12">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="6">
         <v>3</v>
       </c>
@@ -1032,35 +6410,35 @@
       <c r="L5" s="6">
         <v>0.8</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <v>87.5</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="12">
         <v>92</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="12">
         <v>75</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="12">
         <v>73</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="12">
         <v>89</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5" s="12">
         <v>108</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="12">
         <v>146</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="12">
         <v>257</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U5" s="12">
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I6" s="6">
         <v>4</v>
       </c>
@@ -1073,35 +6451,35 @@
       <c r="L6" s="6">
         <v>0.8</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="12">
         <v>245</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="12">
         <v>262</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="12">
         <v>310</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="12">
         <v>190</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="12">
         <v>185</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="12">
         <v>181</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="12">
         <v>263</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="12">
         <v>250</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="12">
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I7" s="6">
         <v>5</v>
       </c>
@@ -1116,35 +6494,35 @@
       <c r="L7" s="6">
         <v>1</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <v>305</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <v>315</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="12">
         <v>228</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="12">
         <v>257</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="12">
         <v>230</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="12">
         <v>243.5</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="12">
         <v>113</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="12">
         <v>157.5</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="12">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I8" s="6">
         <v>6</v>
       </c>
@@ -1158,35 +6536,35 @@
       <c r="L8" s="6">
         <v>1</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <v>148</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="12">
         <v>119</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="12">
         <v>120</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="12">
         <v>273</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="12">
         <v>207</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="12">
         <v>155</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="12">
         <v>210</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="12">
         <v>243</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="12">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I9" s="6">
         <v>7</v>
       </c>
@@ -1200,35 +6578,35 @@
       <c r="L9" s="6">
         <v>1</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="12">
         <v>175</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="12">
         <v>137.5</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="12">
         <v>174</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="12">
         <v>171</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="12">
         <v>163</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="12">
         <v>180</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="12">
         <v>212</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="12">
         <v>241</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="12">
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I10" s="6">
         <v>8</v>
       </c>
@@ -1241,31 +6619,31 @@
       <c r="L10" s="6">
         <v>1</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <v>146.5</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="12">
         <v>145</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="12">
         <v>150</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="12">
         <v>302</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="12">
         <v>327</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="12">
         <v>256.5</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="12">
         <v>154</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="12">
         <v>174</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="12">
         <v>186</v>
       </c>
     </row>

--- a/統計管制與最佳化方法概論/homework/my_homework/final exam/final_exam.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/final exam/final_exam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\final exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\final exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DE92B3-1F65-43C4-8BE8-374A8673E7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D174511A-21C6-4736-96B9-CEDD46AA22EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2224B4A3-7DDB-4A03-9076-3DDD34B94DE1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{2224B4A3-7DDB-4A03-9076-3DDD34B94DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="experiment design" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="99">
   <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,16 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>frog 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frog 2</t>
-  </si>
-  <si>
-    <t>frog 3</t>
-  </si>
-  <si>
     <t>run1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,12 +327,135 @@
   <si>
     <t>adjusted R^2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication 2</t>
+  </si>
+  <si>
+    <t>replication 3</t>
+  </si>
+  <si>
+    <t>6--1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2--1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8--2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2--2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8--3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7--2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4--2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4--1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2--3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3--3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3--1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6--3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8--1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7--3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1--3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1--1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5--3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5--2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6--2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3--2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1--2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5--1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4--3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7--1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replicate 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replicate 2</t>
+  </si>
+  <si>
+    <t>replicate 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -677,7 +790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,9 +830,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -747,12 +857,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -778,6 +882,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -881,13 +1000,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-12.640255676549829</c:v>
+                  <c:v>-47.489168787853536</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.333333333333334</c:v>
+                  <c:v>-20.416666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.306922343216499</c:v>
+                  <c:v>6.6558354545202008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,13 +1069,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-25.140255676549831</c:v>
+                  <c:v>-65.544724343409086</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8333333333333333</c:v>
+                  <c:v>-38.472222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.806922343216495</c:v>
+                  <c:v>-11.399720101035353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,13 +1138,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-14.223589009883163</c:v>
+                  <c:v>-14.155835454520203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.75</c:v>
+                  <c:v>12.916666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.723589009883163</c:v>
+                  <c:v>39.989168787853536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1088,13 +1207,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.026410990116837</c:v>
+                  <c:v>26.677497878813131</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>53.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.97358900988317</c:v>
+                  <c:v>80.822502121186872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1157,13 +1276,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-30.77914456543872</c:v>
+                  <c:v>-16.655835454520201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.8055555555555554</c:v>
+                  <c:v>10.416666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.168033454327606</c:v>
+                  <c:v>37.489168787853536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1226,13 +1345,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-50.223589009883163</c:v>
+                  <c:v>-24.711391010075758</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-23.25</c:v>
+                  <c:v>2.3611111111111112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7235890098831632</c:v>
+                  <c:v>29.433613232297979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1297,13 +1416,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-49.33470012099427</c:v>
+                  <c:v>-24.433613232297979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-22.361111111111111</c:v>
+                  <c:v>2.6388888888888888</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6124778987720525</c:v>
+                  <c:v>29.711391010075758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2458,45 +2577,47 @@
   <dimension ref="A1:AC85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="24" max="24" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="1" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2509,79 +2630,79 @@
         <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="17">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="18">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="19">
+      <c r="Q2" s="18">
         <f>SUM(O3:O10)/P2</f>
-        <v>3281.5312500000009</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" s="16" cm="1">
+        <v>3305.6423611111109</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="15" cm="1">
         <f t="array" ref="T2">SUM(((E3:M10)-$P$8)^2)</f>
-        <v>273781.77777777775</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="17" t="s">
-        <v>47</v>
+        <v>302891.31944444444</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA2" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="AB2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" s="29" t="s">
+      <c r="AC2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AA2" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC2" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
       <c r="B3" s="6">
@@ -2594,86 +2715,86 @@
         <v>-1</v>
       </c>
       <c r="E3" s="7">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="F3" s="6">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="G3" s="6">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="H3" s="7">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="I3" s="6">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="J3" s="6">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="K3" s="7">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="L3" s="6">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="M3" s="6">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="N3" s="7">
         <f>AVERAGE(E3:M3)</f>
-        <v>198</v>
+        <v>223.33333333333334</v>
       </c>
       <c r="O3" s="10">
         <f>_xlfn.VAR.S(E3:M3)</f>
-        <v>789.5</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>51</v>
+        <v>2950</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="T3" s="6">
-        <f>$P$6/2*((U3-$P$8)^2+(V3-$P$8)^2)</f>
-        <v>3698.000000000005</v>
+        <f t="shared" ref="T3:T9" si="0">$P$6/2*((U3-$P$8)^2+(V3-$P$8)^2)</f>
+        <v>7503.1249999999927</v>
       </c>
       <c r="U3" s="6">
         <f>AVERAGE(E4:M4,E6:M6,E8:M8,E10:M10)</f>
-        <v>198.97222222222223</v>
-      </c>
-      <c r="V3" s="19">
+        <v>158.19444444444446</v>
+      </c>
+      <c r="V3" s="18">
         <f>AVERAGE(E3:M3,E5:M5,E7:M7,E9:M9)</f>
-        <v>184.63888888888889</v>
+        <v>178.61111111111111</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y3" s="6">
         <f>T3</f>
-        <v>3698.000000000005</v>
+        <v>7503.1249999999927</v>
       </c>
       <c r="Z3" s="6">
         <v>1</v>
       </c>
       <c r="AA3" s="6">
         <f>Y3/Z3</f>
-        <v>3698.000000000005</v>
+        <v>7503.1249999999927</v>
       </c>
       <c r="AB3" s="6">
         <f>AA3/$AA$10</f>
-        <v>1.1269129312725592</v>
+        <v>2.2697933352590507</v>
       </c>
       <c r="AC3" s="10">
         <f>_xlfn.F.INV.RT(0.05,Z3,$Z$10)</f>
         <v>3.9909237717402912</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
       <c r="B4" s="6">
@@ -2685,88 +2806,88 @@
       <c r="D4" s="6">
         <v>-1</v>
       </c>
-      <c r="E4" s="14">
-        <v>156</v>
+      <c r="E4" s="13">
+        <v>145</v>
       </c>
       <c r="F4" s="12">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G4" s="12">
-        <v>167</v>
-      </c>
-      <c r="H4" s="14">
-        <v>115</v>
+        <v>200</v>
+      </c>
+      <c r="H4" s="13">
+        <v>100</v>
       </c>
       <c r="I4" s="12">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="J4" s="12">
-        <v>170</v>
-      </c>
-      <c r="K4" s="14">
-        <v>165</v>
+        <v>195</v>
+      </c>
+      <c r="K4" s="13">
+        <v>100</v>
       </c>
       <c r="L4" s="12">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="M4" s="12">
         <v>170</v>
       </c>
       <c r="N4" s="7">
-        <f t="shared" ref="N4:N10" si="0">AVERAGE(E4:M4)</f>
-        <v>167.22222222222223</v>
+        <f t="shared" ref="N4:N10" si="1">AVERAGE(E4:M4)</f>
+        <v>149.44444444444446</v>
       </c>
       <c r="O4" s="10">
-        <f t="shared" ref="O4:O10" si="1">_xlfn.VAR.S(E4:M4)</f>
-        <v>868.19444444444525</v>
-      </c>
-      <c r="P4" s="18">
+        <f t="shared" ref="O4:O10" si="2">_xlfn.VAR.S(E4:M4)</f>
+        <v>3134.0277777777774</v>
+      </c>
+      <c r="P4" s="17">
         <v>9</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="18">
         <f>4*Q2/(P2*P4)</f>
-        <v>182.30729166666671</v>
-      </c>
-      <c r="S4" s="18" t="s">
-        <v>52</v>
+        <v>183.64679783950615</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="T4" s="6">
-        <f>$P$6/2*((U4-$P$8)^2+(V4-$P$8)^2)</f>
-        <v>60.500000000000625</v>
+        <f t="shared" si="0"/>
+        <v>26642.013888888898</v>
       </c>
       <c r="U4" s="6">
         <f>AVERAGE(E5:M5,E6:M6,E9:M9,E10:M10)</f>
-        <v>192.72222222222223</v>
-      </c>
-      <c r="V4" s="19">
+        <v>149.16666666666666</v>
+      </c>
+      <c r="V4" s="18">
         <f>AVERAGE(E3:M3,E4:M4,E7:M7,E8:M8)</f>
-        <v>190.88888888888889</v>
+        <v>187.63888888888889</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Y4" s="6">
-        <f t="shared" ref="Y4:Y9" si="2">T4</f>
-        <v>60.500000000000625</v>
+        <f t="shared" ref="Y4:Y9" si="3">T4</f>
+        <v>26642.013888888898</v>
       </c>
       <c r="Z4" s="6">
         <v>1</v>
       </c>
       <c r="AA4" s="6">
-        <f t="shared" ref="AA4:AA10" si="3">Y4/Z4</f>
-        <v>60.500000000000625</v>
+        <f t="shared" ref="AA4:AA10" si="4">Y4/Z4</f>
+        <v>26642.013888888898</v>
       </c>
       <c r="AB4" s="6">
-        <f t="shared" ref="AB4:AB9" si="4">AA4/$AA$10</f>
-        <v>1.8436514965384114E-2</v>
+        <f t="shared" ref="AB4:AB9" si="5">AA4/$AA$10</f>
+        <v>8.0595572595257501</v>
       </c>
       <c r="AC4" s="10">
-        <f t="shared" ref="AC4:AC9" si="5">_xlfn.F.INV.RT(0.05,Z4,$Z$10)</f>
+        <f t="shared" ref="AC4:AC9" si="6">_xlfn.F.INV.RT(0.05,Z4,$Z$10)</f>
         <v>3.9909237717402912</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
       <c r="B5" s="6">
@@ -2778,273 +2899,273 @@
       <c r="D5" s="6">
         <v>-1</v>
       </c>
-      <c r="E5" s="14">
-        <v>87.5</v>
+      <c r="E5" s="13">
+        <v>95</v>
       </c>
       <c r="F5" s="12">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G5" s="12">
         <v>75</v>
       </c>
-      <c r="H5" s="14">
-        <v>73</v>
+      <c r="H5" s="13">
+        <v>150</v>
       </c>
       <c r="I5" s="12">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="J5" s="12">
-        <v>108</v>
-      </c>
-      <c r="K5" s="14">
-        <v>146</v>
+        <v>175</v>
+      </c>
+      <c r="K5" s="13">
+        <v>110</v>
       </c>
       <c r="L5" s="12">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="M5" s="12">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="N5" s="7">
+        <f t="shared" si="1"/>
+        <v>123.33333333333333</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="6">
         <f t="shared" si="0"/>
-        <v>135.27777777777777</v>
-      </c>
-      <c r="O5" s="10">
-        <f t="shared" si="1"/>
-        <v>6677.9444444444453</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="S5" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5" s="6">
-        <f>$P$6/2*((U5-$P$8)^2+(V5-$P$8)^2)</f>
-        <v>2926.125</v>
+        <v>3003.1249999999959</v>
       </c>
       <c r="U5" s="6">
         <f>AVERAGE(E7:M10)</f>
-        <v>198.18055555555554</v>
-      </c>
-      <c r="V5" s="19">
+        <v>174.86111111111111</v>
+      </c>
+      <c r="V5" s="18">
         <f>AVERAGE(E3:M6)</f>
-        <v>185.43055555555554</v>
+        <v>161.94444444444446</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y5" s="6">
+        <f t="shared" si="3"/>
+        <v>3003.1249999999959</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="6">
+        <f t="shared" si="4"/>
+        <v>3003.1249999999959</v>
+      </c>
+      <c r="AB5" s="6">
+        <f t="shared" si="5"/>
+        <v>0.90848454609910323</v>
+      </c>
+      <c r="AC5" s="10">
+        <f t="shared" si="6"/>
+        <v>3.9909237717402912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>145</v>
+      </c>
+      <c r="F6" s="12">
+        <v>220</v>
+      </c>
+      <c r="G6" s="12">
+        <v>295</v>
+      </c>
+      <c r="H6" s="13">
+        <v>130</v>
+      </c>
+      <c r="I6" s="12">
+        <v>130</v>
+      </c>
+      <c r="J6" s="12">
+        <v>145</v>
+      </c>
+      <c r="K6" s="13">
+        <v>90</v>
+      </c>
+      <c r="L6" s="12">
+        <v>110</v>
+      </c>
+      <c r="M6" s="12">
+        <v>100</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="1"/>
+        <v>151.66666666666666</v>
+      </c>
+      <c r="O6" s="10">
         <f t="shared" si="2"/>
-        <v>2926.125</v>
-      </c>
-      <c r="Z5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="6">
-        <f t="shared" si="3"/>
-        <v>2926.125</v>
-      </c>
-      <c r="AB5" s="6">
-        <f t="shared" si="4"/>
-        <v>0.89169499757163684</v>
-      </c>
-      <c r="AC5" s="10">
-        <f t="shared" si="5"/>
-        <v>3.9909237717402912</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="14">
-        <v>245</v>
-      </c>
-      <c r="F6" s="12">
-        <v>262</v>
-      </c>
-      <c r="G6" s="12">
-        <v>310</v>
-      </c>
-      <c r="H6" s="14">
-        <v>190</v>
-      </c>
-      <c r="I6" s="12">
-        <v>185</v>
-      </c>
-      <c r="J6" s="12">
-        <v>181</v>
-      </c>
-      <c r="K6" s="14">
-        <v>263</v>
-      </c>
-      <c r="L6" s="12">
-        <v>250</v>
-      </c>
-      <c r="M6" s="12">
-        <v>285</v>
-      </c>
-      <c r="N6" s="7">
-        <f t="shared" si="0"/>
-        <v>241.22222222222223</v>
-      </c>
-      <c r="O6" s="10">
-        <f t="shared" si="1"/>
-        <v>2131.9444444444453</v>
-      </c>
-      <c r="P6" s="18">
+        <v>4306.25</v>
+      </c>
+      <c r="P6" s="17">
         <f>P2*P4</f>
         <v>72</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="18">
         <f>Q4^0.5</f>
-        <v>13.502121746846557</v>
-      </c>
-      <c r="S6" s="18" t="s">
-        <v>55</v>
+        <v>13.551634508040207</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="T6" s="6">
-        <f>$P$6/2*((U6-$P$8)^2+(V6-$P$8)^2)</f>
-        <v>38088</v>
+        <f t="shared" si="0"/>
+        <v>52003.125</v>
       </c>
       <c r="U6" s="6">
         <f>AVERAGE(E3:M3,E6:M6,E7:M7,E10:M10)</f>
-        <v>214.80555555555554</v>
-      </c>
-      <c r="V6" s="19">
+        <v>195.27777777777777</v>
+      </c>
+      <c r="V6" s="18">
         <f>AVERAGE(E4:M4,E5:M5,E8:M8,E9:M9)</f>
-        <v>168.80555555555554</v>
+        <v>141.52777777777777</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Y6" s="6">
+        <f t="shared" si="3"/>
+        <v>52003.125</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="6">
+        <f t="shared" si="4"/>
+        <v>52003.125</v>
+      </c>
+      <c r="AB6" s="6">
+        <f t="shared" si="5"/>
+        <v>15.731624694729653</v>
+      </c>
+      <c r="AC6" s="10">
+        <f t="shared" si="6"/>
+        <v>3.9909237717402912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>245</v>
+      </c>
+      <c r="F7" s="12">
+        <v>225</v>
+      </c>
+      <c r="G7" s="12">
+        <v>335</v>
+      </c>
+      <c r="H7" s="13">
+        <v>295</v>
+      </c>
+      <c r="I7" s="12">
+        <v>280</v>
+      </c>
+      <c r="J7" s="12">
+        <v>220</v>
+      </c>
+      <c r="K7" s="13">
+        <v>180</v>
+      </c>
+      <c r="L7" s="12">
+        <v>120</v>
+      </c>
+      <c r="M7" s="12">
+        <v>135</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="1"/>
+        <v>226.11111111111111</v>
+      </c>
+      <c r="O7" s="10">
         <f t="shared" si="2"/>
-        <v>38088</v>
-      </c>
-      <c r="Z6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="6">
-        <f t="shared" si="3"/>
-        <v>38088</v>
-      </c>
-      <c r="AB6" s="6">
-        <f t="shared" si="4"/>
-        <v>11.606776562008973</v>
-      </c>
-      <c r="AC6" s="10">
-        <f t="shared" si="5"/>
-        <v>3.9909237717402912</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6">
-        <v>-1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14">
-        <v>305</v>
-      </c>
-      <c r="F7" s="12">
-        <v>315</v>
-      </c>
-      <c r="G7" s="12">
-        <v>228</v>
-      </c>
-      <c r="H7" s="14">
-        <v>257</v>
-      </c>
-      <c r="I7" s="12">
-        <v>230</v>
-      </c>
-      <c r="J7" s="12">
-        <v>243.5</v>
-      </c>
-      <c r="K7" s="14">
-        <v>113</v>
-      </c>
-      <c r="L7" s="12">
-        <v>157.5</v>
-      </c>
-      <c r="M7" s="12">
-        <v>90</v>
-      </c>
-      <c r="N7" s="7">
+        <v>5198.6111111111095</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" s="6">
         <f t="shared" si="0"/>
-        <v>215.44444444444446</v>
-      </c>
-      <c r="O7" s="10">
-        <f t="shared" si="1"/>
-        <v>6300.465277777781</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="T7" s="6">
-        <f>$P$6/2*((U7-$P$8)^2+(V7-$P$8)^2)</f>
-        <v>260.6805555555577</v>
+        <v>1953.1249999999966</v>
       </c>
       <c r="U7" s="6">
         <f>AVERAGE(E3:M3,E4:M4,E9:M9,E10:M10)</f>
-        <v>189.90277777777777</v>
-      </c>
-      <c r="V7" s="19">
+        <v>173.61111111111111</v>
+      </c>
+      <c r="V7" s="18">
         <f>AVERAGE(E5:M5,E6:M6,E7:M7,E8:M8)</f>
-        <v>193.70833333333334</v>
+        <v>163.19444444444446</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y7" s="6">
-        <f t="shared" si="2"/>
-        <v>260.6805555555577</v>
+        <f t="shared" si="3"/>
+        <v>1953.1249999999966</v>
       </c>
       <c r="Z7" s="6">
         <v>1</v>
       </c>
       <c r="AA7" s="6">
-        <f t="shared" si="3"/>
-        <v>260.6805555555577</v>
+        <f t="shared" si="4"/>
+        <v>1953.1249999999966</v>
       </c>
       <c r="AB7" s="6">
-        <f t="shared" si="4"/>
-        <v>7.9438693614622052E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.59084582862844881</v>
       </c>
       <c r="AC7" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.9909237717402912</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+    <row r="8" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
       <c r="B8" s="6">
@@ -3056,286 +3177,286 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="14">
-        <v>148</v>
+      <c r="E8" s="13">
+        <v>70</v>
       </c>
       <c r="F8" s="12">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
       </c>
-      <c r="H8" s="14">
-        <v>273</v>
+      <c r="H8" s="13">
+        <v>170</v>
       </c>
       <c r="I8" s="12">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="J8" s="12">
-        <v>155</v>
-      </c>
-      <c r="K8" s="14">
-        <v>210</v>
+        <v>150</v>
+      </c>
+      <c r="K8" s="13">
+        <v>130</v>
       </c>
       <c r="L8" s="12">
-        <v>243</v>
+        <v>110</v>
       </c>
       <c r="M8" s="12">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="N8" s="7">
-        <f t="shared" si="0"/>
-        <v>182.88888888888889</v>
+        <f t="shared" si="1"/>
+        <v>151.66666666666666</v>
       </c>
       <c r="O8" s="10">
-        <f t="shared" si="1"/>
-        <v>2902.8611111111095</v>
-      </c>
-      <c r="P8" s="20">
+        <f t="shared" si="2"/>
+        <v>3212.5</v>
+      </c>
+      <c r="P8" s="19">
         <f>AVERAGE(N3:N10)</f>
-        <v>191.80555555555554</v>
-      </c>
-      <c r="Q8" s="22">
+        <v>168.4027777777778</v>
+      </c>
+      <c r="Q8" s="21">
         <f>P2*(P4-1)</f>
         <v>64</v>
       </c>
-      <c r="S8" s="18" t="s">
-        <v>57</v>
+      <c r="S8" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="T8" s="6">
-        <f>$P$6/2*((U8-$P$8)^2+(V8-$P$8)^2)</f>
-        <v>9730.125</v>
+        <f t="shared" si="0"/>
+        <v>100.3472222222225</v>
       </c>
       <c r="U8" s="6">
         <f>AVERAGE(E3:M3,E5:M5,E8:M8,E10:M10)</f>
-        <v>180.18055555555554</v>
-      </c>
-      <c r="V8" s="19">
+        <v>169.58333333333334</v>
+      </c>
+      <c r="V8" s="18">
         <f>AVERAGE(E4:M4,E6:M6,E7:M7,E9:M9)</f>
-        <v>203.43055555555554</v>
+        <v>167.22222222222223</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y8" s="6">
+        <f t="shared" si="3"/>
+        <v>100.3472222222225</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="6">
+        <f t="shared" si="4"/>
+        <v>100.3472222222225</v>
+      </c>
+      <c r="AB8" s="6">
+        <f t="shared" si="5"/>
+        <v>3.0356345684199551E-2</v>
+      </c>
+      <c r="AC8" s="10">
+        <f t="shared" si="6"/>
+        <v>3.9909237717402912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>95</v>
+      </c>
+      <c r="F9" s="12">
+        <v>245</v>
+      </c>
+      <c r="G9" s="12">
+        <v>140</v>
+      </c>
+      <c r="H9" s="13">
+        <v>135</v>
+      </c>
+      <c r="I9" s="12">
+        <v>155</v>
+      </c>
+      <c r="J9" s="12">
+        <v>210</v>
+      </c>
+      <c r="K9" s="13">
+        <v>70</v>
+      </c>
+      <c r="L9" s="12">
+        <v>90</v>
+      </c>
+      <c r="M9" s="12">
+        <v>135</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="1"/>
+        <v>141.66666666666666</v>
+      </c>
+      <c r="O9" s="10">
         <f t="shared" si="2"/>
-        <v>9730.125</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="6">
-        <f t="shared" si="3"/>
-        <v>9730.125</v>
-      </c>
-      <c r="AB8" s="6">
-        <f t="shared" si="4"/>
-        <v>2.9651172756620867</v>
-      </c>
-      <c r="AC8" s="10">
-        <f t="shared" si="5"/>
-        <v>3.9909237717402912</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6">
-        <v>-1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14">
-        <v>175</v>
-      </c>
-      <c r="F9" s="12">
-        <v>137.5</v>
-      </c>
-      <c r="G9" s="12">
-        <v>174</v>
-      </c>
-      <c r="H9" s="14">
-        <v>171</v>
-      </c>
-      <c r="I9" s="12">
-        <v>163</v>
-      </c>
-      <c r="J9" s="12">
-        <v>180</v>
-      </c>
-      <c r="K9" s="14">
-        <v>212</v>
-      </c>
-      <c r="L9" s="12">
-        <v>241</v>
-      </c>
-      <c r="M9" s="12">
-        <v>255</v>
-      </c>
-      <c r="N9" s="7">
+        <v>3200</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="T9" s="6">
         <f t="shared" si="0"/>
-        <v>189.83333333333334</v>
-      </c>
-      <c r="O9" s="10">
-        <f t="shared" si="1"/>
-        <v>1467.125</v>
-      </c>
-      <c r="S9" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="T9" s="6">
-        <f>$P$6/2*((U9-$P$8)^2+(V9-$P$8)^2)</f>
-        <v>9000.3472222222244</v>
+        <v>125.34722222222193</v>
       </c>
       <c r="U9" s="6">
         <f>AVERAGE(E4:M4,E5:M5,E7:M7,E10:M10)</f>
-        <v>180.625</v>
-      </c>
-      <c r="V9" s="19">
+        <v>169.72222222222223</v>
+      </c>
+      <c r="V9" s="18">
         <f>AVERAGE(E3:M3,E6:M6,E8:M8,E9:M9)</f>
-        <v>202.98611111111111</v>
+        <v>167.08333333333334</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y9" s="6">
+        <f t="shared" si="3"/>
+        <v>125.34722222222193</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="6">
+        <f t="shared" si="4"/>
+        <v>125.34722222222193</v>
+      </c>
+      <c r="AB9" s="6">
+        <f t="shared" si="5"/>
+        <v>3.7919172290643538E-2</v>
+      </c>
+      <c r="AC9" s="10">
+        <f t="shared" si="6"/>
+        <v>3.9909237717402912</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="19">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
+        <v>150</v>
+      </c>
+      <c r="F10" s="25">
+        <v>110</v>
+      </c>
+      <c r="G10" s="25">
+        <v>160</v>
+      </c>
+      <c r="H10" s="24">
+        <v>190</v>
+      </c>
+      <c r="I10" s="25">
+        <v>275</v>
+      </c>
+      <c r="J10" s="25">
+        <v>260</v>
+      </c>
+      <c r="K10" s="24">
+        <v>115</v>
+      </c>
+      <c r="L10" s="25">
+        <v>180</v>
+      </c>
+      <c r="M10" s="25">
+        <v>180</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="O10" s="11">
         <f t="shared" si="2"/>
-        <v>9000.3472222222244</v>
-      </c>
-      <c r="Z9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="6">
-        <f t="shared" si="3"/>
-        <v>9000.3472222222244</v>
-      </c>
-      <c r="AB9" s="6">
-        <f t="shared" si="4"/>
-        <v>2.7427278720025066</v>
-      </c>
-      <c r="AC9" s="10">
-        <f t="shared" si="5"/>
-        <v>3.9909237717402912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
-        <v>8</v>
-      </c>
-      <c r="B10" s="21">
-        <v>1</v>
-      </c>
-      <c r="C10" s="21">
-        <v>1</v>
-      </c>
-      <c r="D10" s="21">
-        <v>1</v>
-      </c>
-      <c r="E10" s="27">
-        <v>146.5</v>
-      </c>
-      <c r="F10" s="28">
-        <v>145</v>
-      </c>
-      <c r="G10" s="28">
-        <v>150</v>
-      </c>
-      <c r="H10" s="27">
-        <v>302</v>
-      </c>
-      <c r="I10" s="28">
-        <v>327</v>
-      </c>
-      <c r="J10" s="28">
-        <v>256.5</v>
-      </c>
-      <c r="K10" s="27">
-        <v>154</v>
-      </c>
-      <c r="L10" s="28">
-        <v>174</v>
-      </c>
-      <c r="M10" s="28">
-        <v>186</v>
-      </c>
-      <c r="N10" s="8">
-        <f t="shared" si="0"/>
-        <v>204.55555555555554</v>
-      </c>
-      <c r="O10" s="11">
-        <f t="shared" si="1"/>
-        <v>5114.215277777781</v>
-      </c>
-      <c r="S10" s="18"/>
+        <v>3243.75</v>
+      </c>
+      <c r="S10" s="17"/>
       <c r="T10" s="6" cm="1">
         <f t="array" ref="T10">SUM(((E3:M3)-N3)^2)</f>
-        <v>6316</v>
+        <v>23599.999999999996</v>
       </c>
       <c r="U10" s="6"/>
-      <c r="V10" s="19"/>
+      <c r="V10" s="18"/>
       <c r="X10" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Y10" s="6">
         <f>T18</f>
-        <v>210017.99999999997</v>
+        <v>211561.11111111112</v>
       </c>
       <c r="Z10" s="6">
         <f>P2*(P4-1)</f>
         <v>64</v>
       </c>
       <c r="AA10" s="6">
-        <f t="shared" si="3"/>
-        <v>3281.5312499999995</v>
+        <f t="shared" si="4"/>
+        <v>3305.6423611111113</v>
       </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="10"/>
     </row>
-    <row r="11" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S11" s="18"/>
+    <row r="11" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S11" s="17"/>
       <c r="T11" s="6" cm="1">
         <f t="array" ref="T11">SUM(((E4:M4)-N4)^2)</f>
-        <v>6945.5555555555566</v>
+        <v>25072.222222222226</v>
       </c>
       <c r="U11" s="6"/>
-      <c r="V11" s="19"/>
-      <c r="X11" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y11" s="32">
+      <c r="V11" s="18"/>
+      <c r="X11" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y11" s="29">
         <f>SUM(Y3:Y10)</f>
-        <v>273781.77777777775</v>
-      </c>
-      <c r="Z11" s="32">
+        <v>302891.31944444444</v>
+      </c>
+      <c r="Z11" s="29">
         <f>P2*P4-1</f>
         <v>71</v>
       </c>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="33"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="S12" s="18"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="30"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="S12" s="17"/>
       <c r="T12" s="6" cm="1">
         <f t="array" ref="T12">SUM(((E5:M5)-N5)^2)</f>
-        <v>53423.555555555555</v>
+        <v>9600</v>
       </c>
       <c r="U12" s="6"/>
-      <c r="V12" s="19"/>
+      <c r="V12" s="18"/>
       <c r="X12" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Y12" s="6">
         <f>SUM(Y3:Y9)/Y11</f>
-        <v>0.23290000633107638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0.30152798205260178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3349,57 +3470,57 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="H13" t="s">
+      <c r="K13" t="s">
         <v>17</v>
       </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" t="s">
         <v>19</v>
       </c>
-      <c r="K13" t="s">
+      <c r="N13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" t="s">
         <v>20</v>
       </c>
-      <c r="L13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="Q13" t="s">
         <v>22</v>
       </c>
-      <c r="N13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>25</v>
-      </c>
-      <c r="S13" s="18"/>
+      <c r="S13" s="17"/>
       <c r="T13" s="6" cm="1">
         <f t="array" ref="T13">SUM(((E6:M6)-N6)^2)</f>
-        <v>17055.555555555555</v>
+        <v>34450.000000000007</v>
       </c>
       <c r="U13" s="6"/>
-      <c r="V13" s="19"/>
+      <c r="V13" s="18"/>
       <c r="X13" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y13" s="6">
         <f>1-(Y10/Z10)/(Y11/Z11)</f>
-        <v>0.14899844452353783</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0.22513260508960498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3429,45 +3550,46 @@
         <v>-1</v>
       </c>
       <c r="I14">
-        <v>190</v>
+        <f>E3</f>
+        <v>255</v>
       </c>
       <c r="K14">
-        <f>SUMPRODUCT(B14:B85,$I$14:$I$85)/($P$2/2*$P$4)</f>
-        <v>14.333333333333334</v>
+        <f t="shared" ref="K14:Q14" si="7">SUMPRODUCT(B14:B85,$I$14:$I$85)/($P$2/2*$P$4)</f>
+        <v>-20.416666666666668</v>
       </c>
       <c r="L14">
-        <f>SUMPRODUCT(C14:C85,$I$14:$I$85)/($P$2/2*$P$4)</f>
-        <v>1.8333333333333333</v>
+        <f t="shared" si="7"/>
+        <v>-38.472222222222221</v>
       </c>
       <c r="M14">
-        <f>SUMPRODUCT(D14:D85,$I$14:$I$85)/($P$2/2*$P$4)</f>
-        <v>12.75</v>
+        <f t="shared" si="7"/>
+        <v>12.916666666666666</v>
       </c>
       <c r="N14">
-        <f>SUMPRODUCT(E14:E85,$I$14:$I$85)/($P$2/2*$P$4)</f>
-        <v>46</v>
+        <f t="shared" si="7"/>
+        <v>53.75</v>
       </c>
       <c r="O14">
-        <f>SUMPRODUCT(F14:F85,$I$14:$I$85)/($P$2/2*$P$4)</f>
-        <v>-3.8055555555555554</v>
+        <f t="shared" si="7"/>
+        <v>10.416666666666666</v>
       </c>
       <c r="P14">
-        <f>SUMPRODUCT(G14:G85,$I$14:$I$85)/($P$2/2*$P$4)</f>
-        <v>-23.25</v>
+        <f t="shared" si="7"/>
+        <v>2.3611111111111112</v>
       </c>
       <c r="Q14">
-        <f>SUMPRODUCT(H14:H85,$I$14:$I$85)/($P$2/2*$P$4)</f>
-        <v>-22.361111111111111</v>
-      </c>
-      <c r="S14" s="18"/>
+        <f t="shared" si="7"/>
+        <v>2.6388888888888888</v>
+      </c>
+      <c r="S14" s="17"/>
       <c r="T14" s="6" cm="1">
         <f t="array" ref="T14">SUM(((E7:M7)-N7)^2)</f>
-        <v>50403.722222222219</v>
+        <v>41588.888888888891</v>
       </c>
       <c r="U14" s="6"/>
-      <c r="V14" s="19"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V14" s="18"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3481,57 +3603,58 @@
         <v>-1</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:E78" si="6">B15*C15</f>
+        <f t="shared" ref="E15:E78" si="8">B15*C15</f>
         <v>-1</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F78" si="7">C15*D15</f>
+        <f t="shared" ref="F15:F78" si="9">C15*D15</f>
         <v>1</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G78" si="8">B15*D15</f>
+        <f t="shared" ref="G15:G78" si="10">B15*D15</f>
         <v>-1</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H78" si="9">B15*C15*D15</f>
-        <v>1</v>
-      </c>
-      <c r="I15" s="12">
-        <v>156</v>
+        <f t="shared" ref="H15:H78" si="11">B15*C15*D15</f>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:I21" si="12">E4</f>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s">
         <v>30</v>
       </c>
-      <c r="K15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="Q15" t="s">
         <v>35</v>
       </c>
-      <c r="N15" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" t="s">
-        <v>37</v>
-      </c>
-      <c r="P15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>38</v>
-      </c>
-      <c r="S15" s="18"/>
+      <c r="S15" s="17"/>
       <c r="T15" s="6" cm="1">
         <f t="array" ref="T15">SUM(((E8:M8)-N8)^2)</f>
-        <v>23222.888888888891</v>
+        <v>25700</v>
       </c>
       <c r="U15" s="6"/>
-      <c r="V15" s="19"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V15" s="18"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3545,65 +3668,66 @@
         <v>-1</v>
       </c>
       <c r="E16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H16">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I16" s="12">
-        <v>87.5</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="12"/>
+        <v>95</v>
       </c>
       <c r="J16">
         <f>AVERAGE(E3:M10)</f>
-        <v>191.80555555555554</v>
+        <v>168.40277777777777</v>
       </c>
       <c r="K16">
         <f>K14/2</f>
-        <v>7.166666666666667</v>
+        <v>-10.208333333333334</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:Q16" si="10">L14/2</f>
-        <v>0.91666666666666663</v>
+        <f t="shared" ref="L16:Q16" si="13">L14/2</f>
+        <v>-19.236111111111111</v>
       </c>
       <c r="M16">
-        <f t="shared" si="10"/>
-        <v>6.375</v>
+        <f t="shared" si="13"/>
+        <v>6.458333333333333</v>
       </c>
       <c r="N16">
-        <f t="shared" si="10"/>
-        <v>23</v>
+        <f t="shared" si="13"/>
+        <v>26.875</v>
       </c>
       <c r="O16">
-        <f t="shared" si="10"/>
-        <v>-1.9027777777777777</v>
+        <f t="shared" si="13"/>
+        <v>5.208333333333333</v>
       </c>
       <c r="P16">
-        <f t="shared" si="10"/>
-        <v>-11.625</v>
+        <f t="shared" si="13"/>
+        <v>1.1805555555555556</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="10"/>
-        <v>-11.180555555555555</v>
-      </c>
-      <c r="S16" s="18"/>
+        <f t="shared" si="13"/>
+        <v>1.3194444444444444</v>
+      </c>
+      <c r="S16" s="17"/>
       <c r="T16" s="6" cm="1">
         <f t="array" ref="T16">SUM(((E9:M9)-N9)^2)</f>
-        <v>11737</v>
+        <v>25600</v>
       </c>
       <c r="U16" s="6"/>
-      <c r="V16" s="19"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V16" s="18"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3617,53 +3741,54 @@
         <v>-1</v>
       </c>
       <c r="E17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H17">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I17" s="12">
-        <v>245</v>
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="12"/>
+        <v>145</v>
       </c>
       <c r="M17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" t="s">
         <v>42</v>
       </c>
-      <c r="N17" t="s">
-        <v>49</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" t="s">
         <v>45</v>
       </c>
-      <c r="P17" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>47</v>
-      </c>
-      <c r="R17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S17" s="18"/>
+      <c r="S17" s="17"/>
       <c r="T17" s="6" cm="1">
         <f t="array" ref="T17">SUM(((E10:M10)-N10)^2)</f>
-        <v>40913.722222222226</v>
+        <v>25950</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="V17" s="19"/>
-    </row>
-    <row r="18" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="V17" s="18"/>
+    </row>
+    <row r="18" spans="1:22" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>5</v>
       </c>
@@ -3677,41 +3802,42 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I18" s="12">
-        <v>305</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="12"/>
+        <v>245</v>
       </c>
       <c r="J18">
         <v>7</v>
       </c>
       <c r="K18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L18">
         <f>K14</f>
-        <v>14.333333333333334</v>
+        <v>-20.416666666666668</v>
       </c>
       <c r="M18">
-        <f>(L18-0)/$Q$6</f>
-        <v>1.061561553218916</v>
+        <f t="shared" ref="M18:M24" si="14">(L18-0)/$Q$6</f>
+        <v>-1.5065833316677355</v>
       </c>
       <c r="N18">
-        <f>IF(_xlfn.T.DIST(M18,$Q$8,1)&gt;0.5,(1-_xlfn.T.DIST(M18,$Q$8,1))*2,_xlfn.T.DIST(M18,$Q$8,1)*2)</f>
-        <v>0.29242431771081456</v>
+        <f t="shared" ref="N18:N24" si="15">IF(_xlfn.T.DIST(M18,$Q$8,1)&gt;0.5,(1-_xlfn.T.DIST(M18,$Q$8,1))*2,_xlfn.T.DIST(M18,$Q$8,1)*2)</f>
+        <v>0.13683774040131461</v>
       </c>
       <c r="O18">
         <f>_xlfn.T.INV(0.025,64)</f>
@@ -3722,27 +3848,27 @@
         <v>1.9977296543176919</v>
       </c>
       <c r="Q18">
-        <f>L18-P18*$Q$6</f>
-        <v>-12.640255676549829</v>
+        <f t="shared" ref="Q18:Q24" si="16">L18-P18*$Q$6</f>
+        <v>-47.489168787853536</v>
       </c>
       <c r="R18">
-        <f>L18+P18*$Q$6</f>
-        <v>41.306922343216499</v>
-      </c>
-      <c r="S18" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="T18" s="21">
+        <f t="shared" ref="R18:R24" si="17">L18+P18*$Q$6</f>
+        <v>6.6558354545202008</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="T18" s="20">
         <f>SUM(T10:T17)</f>
-        <v>210017.99999999997</v>
-      </c>
-      <c r="U18" s="21">
+        <v>211561.11111111112</v>
+      </c>
+      <c r="U18" s="20">
         <f>T18+SUM(T3:T9)</f>
-        <v>273781.77777777775</v>
-      </c>
-      <c r="V18" s="22"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+        <v>302891.31944444444</v>
+      </c>
+      <c r="V18" s="21"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>6</v>
       </c>
@@ -3756,60 +3882,61 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H19">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I19" s="12">
-        <v>148</v>
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="12"/>
+        <v>70</v>
       </c>
       <c r="J19">
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L19">
         <f>L14</f>
-        <v>1.8333333333333333</v>
+        <v>-38.472222222222221</v>
       </c>
       <c r="M19">
-        <f>(L19-0)/$Q$6</f>
-        <v>0.13578112890009389</v>
+        <f t="shared" si="14"/>
+        <v>-2.838935937904508</v>
       </c>
       <c r="N19">
-        <f>IF(_xlfn.T.DIST(M19,$Q$8,1)&gt;0.5,(1-_xlfn.T.DIST(M19,$Q$8,1))*2,_xlfn.T.DIST(M19,$Q$8,1)*2)</f>
-        <v>0.89242049053847694</v>
+        <f t="shared" si="15"/>
+        <v>6.0594192891584376E-3</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:O24" si="11">_xlfn.T.INV(0.025,64)</f>
+        <f t="shared" ref="O19:O24" si="18">_xlfn.T.INV(0.025,64)</f>
         <v>-1.9977296543176954</v>
       </c>
       <c r="P19">
-        <f t="shared" ref="P19:P24" si="12">_xlfn.T.INV(0.975,64)</f>
+        <f t="shared" ref="P19:P24" si="19">_xlfn.T.INV(0.975,64)</f>
         <v>1.9977296543176919</v>
       </c>
       <c r="Q19">
-        <f>L19-P19*$Q$6</f>
-        <v>-25.140255676549831</v>
+        <f t="shared" si="16"/>
+        <v>-65.544724343409086</v>
       </c>
       <c r="R19">
-        <f>L19+P19*$Q$6</f>
-        <v>28.806922343216495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>-11.399720101035353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>7</v>
       </c>
@@ -3823,60 +3950,61 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H20">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I20" s="12">
-        <v>175</v>
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="12"/>
+        <v>95</v>
       </c>
       <c r="J20">
         <v>5</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L20">
         <f>M14</f>
-        <v>12.75</v>
+        <v>12.916666666666666</v>
       </c>
       <c r="M20">
-        <f>(L20-0)/$Q$6</f>
-        <v>0.94429603280519847</v>
+        <f t="shared" si="14"/>
+        <v>0.95314455676938348</v>
       </c>
       <c r="N20">
-        <f>IF(_xlfn.T.DIST(M20,$Q$8,1)&gt;0.5,(1-_xlfn.T.DIST(M20,$Q$8,1))*2,_xlfn.T.DIST(M20,$Q$8,1)*2)</f>
-        <v>0.34856973852589146</v>
+        <f t="shared" si="15"/>
+        <v>0.34410294744434688</v>
       </c>
       <c r="O20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-1.9977296543176954</v>
       </c>
       <c r="P20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.9977296543176919</v>
       </c>
       <c r="Q20">
-        <f>L20-P20*$Q$6</f>
-        <v>-14.223589009883163</v>
+        <f t="shared" si="16"/>
+        <v>-14.155835454520203</v>
       </c>
       <c r="R20">
-        <f>L20+P20*$Q$6</f>
-        <v>39.723589009883163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>39.989168787853536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>8</v>
       </c>
@@ -3890,127 +4018,129 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H21">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I21" s="12">
-        <v>146.5</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="12"/>
+        <v>150</v>
       </c>
       <c r="J21">
         <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L21">
         <f>N14</f>
-        <v>46</v>
+        <v>53.75</v>
       </c>
       <c r="M21">
-        <f>(L21-0)/$Q$6</f>
-        <v>3.4068719614932652</v>
+        <f t="shared" si="14"/>
+        <v>3.966311220104854</v>
       </c>
       <c r="N21">
-        <f>IF(_xlfn.T.DIST(M21,$Q$8,1)&gt;0.5,(1-_xlfn.T.DIST(M21,$Q$8,1))*2,_xlfn.T.DIST(M21,$Q$8,1)*2)</f>
-        <v>1.1403512702865548E-3</v>
+        <f t="shared" si="15"/>
+        <v>1.8687299396247248E-4</v>
       </c>
       <c r="O21">
+        <f t="shared" si="18"/>
+        <v>-1.9977296543176954</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="19"/>
+        <v>1.9977296543176919</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="16"/>
+        <v>26.677497878813131</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="17"/>
+        <v>80.822502121186872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="11"/>
-        <v>-1.9977296543176954</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="12"/>
-        <v>1.9977296543176919</v>
-      </c>
-      <c r="Q21">
-        <f>L21-P21*$Q$6</f>
-        <v>19.026410990116837</v>
-      </c>
-      <c r="R21">
-        <f>L21+P21*$Q$6</f>
-        <v>72.97358900988317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>-1</v>
-      </c>
-      <c r="C22">
-        <v>-1</v>
-      </c>
-      <c r="D22">
-        <v>-1</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="I22">
-        <v>245</v>
+        <f>F3</f>
+        <v>275</v>
       </c>
       <c r="J22">
         <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L22">
         <f>O14</f>
-        <v>-3.8055555555555554</v>
+        <v>10.416666666666666</v>
       </c>
       <c r="M22">
-        <f>(L22-0)/$Q$6</f>
-        <v>-0.28184870695928582</v>
+        <f t="shared" si="14"/>
+        <v>0.76866496513659965</v>
       </c>
       <c r="N22">
-        <f>IF(_xlfn.T.DIST(M22,$Q$8,1)&gt;0.5,(1-_xlfn.T.DIST(M22,$Q$8,1))*2,_xlfn.T.DIST(M22,$Q$8,1)*2)</f>
-        <v>0.7789689043474407</v>
+        <f t="shared" si="15"/>
+        <v>0.44491952177532523</v>
       </c>
       <c r="O22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-1.9977296543176954</v>
       </c>
       <c r="P22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.9977296543176919</v>
       </c>
       <c r="Q22">
-        <f>L22-P22*$Q$6</f>
-        <v>-30.77914456543872</v>
+        <f t="shared" si="16"/>
+        <v>-16.655835454520201</v>
       </c>
       <c r="R22">
-        <f>L22+P22*$Q$6</f>
-        <v>23.168033454327606</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>37.489168787853536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2</v>
       </c>
@@ -4024,60 +4154,61 @@
         <v>-1</v>
       </c>
       <c r="E23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H23">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I23" s="12">
-        <v>230</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23:I29" si="20">F4</f>
+        <v>240</v>
       </c>
       <c r="J23">
         <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L23">
         <f>P14</f>
-        <v>-23.25</v>
+        <v>2.3611111111111112</v>
       </c>
       <c r="M23">
-        <f>(L23-0)/$Q$6</f>
-        <v>-1.7219515892330091</v>
+        <f t="shared" si="14"/>
+        <v>0.1742307254309626</v>
       </c>
       <c r="N23">
-        <f>IF(_xlfn.T.DIST(M23,$Q$8,1)&gt;0.5,(1-_xlfn.T.DIST(M23,$Q$8,1))*2,_xlfn.T.DIST(M23,$Q$8,1)*2)</f>
-        <v>8.9908493631996517E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.86223410670395051</v>
       </c>
       <c r="O23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-1.9977296543176954</v>
       </c>
       <c r="P23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.9977296543176919</v>
       </c>
       <c r="Q23">
-        <f>L23-P23*$Q$6</f>
-        <v>-50.223589009883163</v>
+        <f t="shared" si="16"/>
+        <v>-24.711391010075758</v>
       </c>
       <c r="R23">
-        <f>L23+P23*$Q$6</f>
-        <v>3.7235890098831632</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>29.433613232297979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>3</v>
       </c>
@@ -4091,60 +4222,61 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H24">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I24" s="12">
-        <v>92</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="20"/>
+        <v>85</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L24">
         <f>Q14</f>
-        <v>-22.361111111111111</v>
+        <v>2.6388888888888888</v>
       </c>
       <c r="M24">
-        <f>(L24-0)/$Q$6</f>
-        <v>-1.6561183146147815</v>
+        <f t="shared" si="14"/>
+        <v>0.19472845783460524</v>
       </c>
       <c r="N24">
-        <f>IF(_xlfn.T.DIST(M24,$Q$8,1)&gt;0.5,(1-_xlfn.T.DIST(M24,$Q$8,1))*2,_xlfn.T.DIST(M24,$Q$8,1)*2)</f>
-        <v>0.10259332497980399</v>
+        <f t="shared" si="15"/>
+        <v>0.84622236936459205</v>
       </c>
       <c r="O24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-1.9977296543176954</v>
       </c>
       <c r="P24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.9977296543176919</v>
       </c>
       <c r="Q24">
-        <f>L24-P24*$Q$6</f>
-        <v>-49.33470012099427</v>
+        <f t="shared" si="16"/>
+        <v>-24.433613232297979</v>
       </c>
       <c r="R24">
-        <f>L24+P24*$Q$6</f>
-        <v>4.6124778987720525</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>29.711391010075758</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>4</v>
       </c>
@@ -4158,26 +4290,27 @@
         <v>-1</v>
       </c>
       <c r="E25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H25">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I25" s="12">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="20"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>5</v>
       </c>
@@ -4191,26 +4324,27 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H26">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I26" s="12">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="20"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>6</v>
       </c>
@@ -4224,26 +4358,27 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H27">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I27" s="12">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="20"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>7</v>
       </c>
@@ -4257,26 +4392,27 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H28">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I28" s="12">
-        <v>137.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="20"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>8</v>
       </c>
@@ -4290,59 +4426,61 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G29">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="20"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>-1</v>
+      </c>
+      <c r="C30">
+        <v>-1</v>
+      </c>
+      <c r="D30">
+        <v>-1</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H29">
+      <c r="F30">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I29" s="12">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>-1</v>
-      </c>
-      <c r="C30">
-        <v>-1</v>
-      </c>
-      <c r="D30">
-        <v>-1</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
       <c r="G30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="I30">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+        <f>G3</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>2</v>
       </c>
@@ -4356,26 +4494,27 @@
         <v>-1</v>
       </c>
       <c r="E31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H31">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I31" s="12">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31:I37" si="21">G4</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4389,26 +4528,27 @@
         <v>-1</v>
       </c>
       <c r="E32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H32">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I32" s="12">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="21"/>
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4422,26 +4562,27 @@
         <v>-1</v>
       </c>
       <c r="E33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H33">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I33" s="12">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="21"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>5</v>
       </c>
@@ -4455,26 +4596,27 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H34">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I34" s="12">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="21"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>6</v>
       </c>
@@ -4488,26 +4630,27 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H35">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I35" s="12">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="21"/>
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>7</v>
       </c>
@@ -4521,26 +4664,27 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H36">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I36" s="12">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="21"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>8</v>
       </c>
@@ -4554,59 +4698,61 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G37">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="21"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>-1</v>
+      </c>
+      <c r="C38">
+        <v>-1</v>
+      </c>
+      <c r="D38">
+        <v>-1</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H37">
+      <c r="F38">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I37" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>-1</v>
-      </c>
-      <c r="C38">
-        <v>-1</v>
-      </c>
-      <c r="D38">
-        <v>-1</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
       <c r="G38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="I38">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <f>H3</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>2</v>
       </c>
@@ -4620,26 +4766,27 @@
         <v>-1</v>
       </c>
       <c r="E39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H39">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I39" s="12">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39:I45" si="22">H4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>3</v>
       </c>
@@ -4653,26 +4800,27 @@
         <v>-1</v>
       </c>
       <c r="E40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H40">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I40" s="12">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="22"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>4</v>
       </c>
@@ -4686,26 +4834,27 @@
         <v>-1</v>
       </c>
       <c r="E41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H41">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I41" s="12">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="22"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>5</v>
       </c>
@@ -4719,26 +4868,27 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H42">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I42" s="12">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="22"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>6</v>
       </c>
@@ -4752,26 +4902,27 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H43">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I43" s="12">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="22"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>7</v>
       </c>
@@ -4785,26 +4936,27 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H44">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I44" s="12">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="22"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>8</v>
       </c>
@@ -4818,59 +4970,61 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G45">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="22"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>-1</v>
+      </c>
+      <c r="C46">
+        <v>-1</v>
+      </c>
+      <c r="D46">
+        <v>-1</v>
+      </c>
+      <c r="E46">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H45">
+      <c r="F46">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I45" s="12">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>-1</v>
-      </c>
-      <c r="C46">
-        <v>-1</v>
-      </c>
-      <c r="D46">
-        <v>-1</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
       <c r="G46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="I46">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <f>I3</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>2</v>
       </c>
@@ -4884,26 +5038,27 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H47">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I47" s="12">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ref="I47:I53" si="23">I4</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>3</v>
       </c>
@@ -4917,26 +5072,27 @@
         <v>-1</v>
       </c>
       <c r="E48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H48">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I48" s="12">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="23"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>4</v>
       </c>
@@ -4950,26 +5106,27 @@
         <v>-1</v>
       </c>
       <c r="E49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H49">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I49" s="12">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="23"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>5</v>
       </c>
@@ -4983,26 +5140,27 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H50">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I50" s="12">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="23"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>6</v>
       </c>
@@ -5016,26 +5174,27 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H51">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I51" s="12">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="23"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>7</v>
       </c>
@@ -5049,26 +5208,27 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H52">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I52" s="12">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="23"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>8</v>
       </c>
@@ -5082,59 +5242,61 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G53">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="23"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>-1</v>
+      </c>
+      <c r="C54">
+        <v>-1</v>
+      </c>
+      <c r="D54">
+        <v>-1</v>
+      </c>
+      <c r="E54">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H53">
+      <c r="F54">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I53" s="12">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54">
-        <v>-1</v>
-      </c>
-      <c r="C54">
-        <v>-1</v>
-      </c>
-      <c r="D54">
-        <v>-1</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
       <c r="G54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="I54">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <f>J3</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>2</v>
       </c>
@@ -5148,26 +5310,27 @@
         <v>-1</v>
       </c>
       <c r="E55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H55">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I55" s="12">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ref="I55:I61" si="24">J4</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>3</v>
       </c>
@@ -5181,26 +5344,27 @@
         <v>-1</v>
       </c>
       <c r="E56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H56">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I56" s="12">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="24"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>4</v>
       </c>
@@ -5214,26 +5378,27 @@
         <v>-1</v>
       </c>
       <c r="E57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H57">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I57" s="12">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="24"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>5</v>
       </c>
@@ -5247,26 +5412,27 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H58">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I58" s="12">
-        <v>243.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="24"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>6</v>
       </c>
@@ -5280,26 +5446,27 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H59">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I59" s="12">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="24"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>7</v>
       </c>
@@ -5313,26 +5480,27 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H60">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I60" s="12">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="24"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>8</v>
       </c>
@@ -5346,59 +5514,61 @@
         <v>1</v>
       </c>
       <c r="E61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G61">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="24"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>-1</v>
+      </c>
+      <c r="C62">
+        <v>-1</v>
+      </c>
+      <c r="D62">
+        <v>-1</v>
+      </c>
+      <c r="E62">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H61">
+      <c r="F62">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I61" s="12">
-        <v>256.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62">
-        <v>-1</v>
-      </c>
-      <c r="C62">
-        <v>-1</v>
-      </c>
-      <c r="D62">
-        <v>-1</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
       <c r="G62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="I62">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <f>K3</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>2</v>
       </c>
@@ -5412,26 +5582,27 @@
         <v>-1</v>
       </c>
       <c r="E63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H63">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I63" s="12">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <f t="shared" ref="I63:I69" si="25">K4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>3</v>
       </c>
@@ -5445,26 +5616,27 @@
         <v>-1</v>
       </c>
       <c r="E64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H64">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I64" s="12">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="25"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>4</v>
       </c>
@@ -5478,26 +5650,27 @@
         <v>-1</v>
       </c>
       <c r="E65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H65">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I65" s="12">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="25"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>5</v>
       </c>
@@ -5511,26 +5684,27 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H66">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I66" s="12">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="25"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>6</v>
       </c>
@@ -5544,26 +5718,27 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H67">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I67" s="12">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="25"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>7</v>
       </c>
@@ -5577,26 +5752,27 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H68">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I68" s="12">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="25"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>8</v>
       </c>
@@ -5610,59 +5786,61 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G69">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="25"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>-1</v>
+      </c>
+      <c r="C70">
+        <v>-1</v>
+      </c>
+      <c r="D70">
+        <v>-1</v>
+      </c>
+      <c r="E70">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H69">
+      <c r="F70">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I69" s="12">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70">
-        <v>-1</v>
-      </c>
-      <c r="C70">
-        <v>-1</v>
-      </c>
-      <c r="D70">
-        <v>-1</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
       <c r="G70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="I70">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <f>L3</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>2</v>
       </c>
@@ -5676,26 +5854,27 @@
         <v>-1</v>
       </c>
       <c r="E71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H71">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I71" s="12">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <f t="shared" ref="I71:I77" si="26">L4</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>3</v>
       </c>
@@ -5709,26 +5888,27 @@
         <v>-1</v>
       </c>
       <c r="E72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H72">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I72" s="12">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="26"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>4</v>
       </c>
@@ -5742,26 +5922,27 @@
         <v>-1</v>
       </c>
       <c r="E73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H73">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I73" s="12">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="26"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>5</v>
       </c>
@@ -5775,26 +5956,27 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H74">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I74" s="12">
-        <v>157.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="26"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>6</v>
       </c>
@@ -5808,26 +5990,27 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H75">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I75" s="12">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="26"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>7</v>
       </c>
@@ -5841,26 +6024,27 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="F76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="H76">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I76" s="12">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="26"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>8</v>
       </c>
@@ -5874,59 +6058,61 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G77">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>-1</v>
+      </c>
+      <c r="C78">
+        <v>-1</v>
+      </c>
+      <c r="D78">
+        <v>-1</v>
+      </c>
+      <c r="E78">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H77">
+      <c r="F78">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I77" s="12">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78">
-        <v>-1</v>
-      </c>
-      <c r="C78">
-        <v>-1</v>
-      </c>
-      <c r="D78">
-        <v>-1</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
       <c r="G78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="I78">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <f>M3</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>2</v>
       </c>
@@ -5940,26 +6126,27 @@
         <v>-1</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E85" si="13">B79*C79</f>
+        <f t="shared" ref="E79:E85" si="27">B79*C79</f>
         <v>-1</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79:F85" si="14">C79*D79</f>
+        <f t="shared" ref="F79:F85" si="28">C79*D79</f>
         <v>1</v>
       </c>
       <c r="G79">
-        <f t="shared" ref="G79:G85" si="15">B79*D79</f>
+        <f t="shared" ref="G79:G85" si="29">B79*D79</f>
         <v>-1</v>
       </c>
       <c r="H79">
-        <f t="shared" ref="H79:H85" si="16">B79*C79*D79</f>
-        <v>1</v>
-      </c>
-      <c r="I79" s="12">
+        <f t="shared" ref="H79:H85" si="30">B79*C79*D79</f>
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ref="I79:I85" si="31">M4</f>
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>3</v>
       </c>
@@ -5973,26 +6160,27 @@
         <v>-1</v>
       </c>
       <c r="E80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>-1</v>
       </c>
       <c r="F80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="G80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="H80">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="I80" s="12">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="31"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>4</v>
       </c>
@@ -6006,26 +6194,27 @@
         <v>-1</v>
       </c>
       <c r="E81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="G81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>-1</v>
       </c>
       <c r="H81">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="I81" s="12">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>5</v>
       </c>
@@ -6039,26 +6228,27 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="G82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>-1</v>
       </c>
       <c r="H82">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="I82" s="12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="31"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>6</v>
       </c>
@@ -6072,26 +6262,27 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>-1</v>
       </c>
       <c r="F83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="G83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="H83">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="I83" s="12">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="31"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>7</v>
       </c>
@@ -6105,26 +6296,27 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>-1</v>
       </c>
       <c r="F84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="G84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>-1</v>
       </c>
       <c r="H84">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="I84" s="12">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="31"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>8</v>
       </c>
@@ -6138,23 +6330,24 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="G85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="H85">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="I85" s="12">
-        <v>186</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="31"/>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6184,24 +6377,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84FC70-DF1D-4EB8-93B9-4E50CD9A7490}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="M14" sqref="M14:U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5">
         <v>-1</v>
@@ -6209,25 +6402,25 @@
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M1" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="7">
         <f>297/2</f>
@@ -6240,45 +6433,45 @@
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="N2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" t="s">
-        <v>8</v>
-      </c>
-      <c r="U2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="B3" s="6">
         <f>2/5</f>
@@ -6345,9 +6538,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="8">
         <v>0.8</v>
@@ -6396,7 +6589,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="I5" s="6">
         <v>3</v>
       </c>
@@ -6438,7 +6631,16 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
       <c r="I6" s="6">
         <v>4</v>
       </c>
@@ -6479,7 +6681,19 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C7" s="34">
+        <v>1</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
       <c r="I7" s="6">
         <v>5</v>
       </c>
@@ -6522,7 +6736,19 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C8" s="34">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
       <c r="I8" s="6">
         <v>6</v>
       </c>
@@ -6564,7 +6790,19 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C9" s="34">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
       <c r="I9" s="6">
         <v>7</v>
       </c>
@@ -6606,7 +6844,19 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C10" s="34">
+        <v>4</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
       <c r="I10" s="6">
         <v>8</v>
       </c>
@@ -6647,8 +6897,703 @@
         <v>186</v>
       </c>
     </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C11" s="34">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C12" s="34">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C13" s="34">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" t="s">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s">
+        <v>5</v>
+      </c>
+      <c r="U13" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C14" s="34">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
+        <f>297/2</f>
+        <v>148.5</v>
+      </c>
+      <c r="K14" s="6">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="M14">
+        <v>255</v>
+      </c>
+      <c r="N14">
+        <v>275</v>
+      </c>
+      <c r="O14">
+        <v>210</v>
+      </c>
+      <c r="P14">
+        <v>170</v>
+      </c>
+      <c r="Q14">
+        <v>145</v>
+      </c>
+      <c r="R14">
+        <v>160</v>
+      </c>
+      <c r="S14">
+        <v>235</v>
+      </c>
+      <c r="T14">
+        <v>290</v>
+      </c>
+      <c r="U14">
+        <v>270</v>
+      </c>
+      <c r="V14">
+        <f>AVERAGE(M14:U14)</f>
+        <v>223.33333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C15" s="34">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="6">
+        <v>2</v>
+      </c>
+      <c r="J15" s="6">
+        <v>210</v>
+      </c>
+      <c r="K15" s="6">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="M15" s="12">
+        <v>145</v>
+      </c>
+      <c r="N15" s="12">
+        <v>240</v>
+      </c>
+      <c r="O15" s="12">
+        <v>200</v>
+      </c>
+      <c r="P15" s="12">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>70</v>
+      </c>
+      <c r="R15" s="12">
+        <v>195</v>
+      </c>
+      <c r="S15" s="12">
+        <v>100</v>
+      </c>
+      <c r="T15" s="12">
+        <v>125</v>
+      </c>
+      <c r="U15" s="12">
+        <v>170</v>
+      </c>
+      <c r="V15">
+        <f t="shared" ref="V15:V21" si="0">AVERAGE(M15:U15)</f>
+        <v>149.44444444444446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C16" s="34">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="6">
+        <v>3</v>
+      </c>
+      <c r="J16" s="6">
+        <f>297/2</f>
+        <v>148.5</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="M16" s="12">
+        <v>95</v>
+      </c>
+      <c r="N16" s="12">
+        <v>85</v>
+      </c>
+      <c r="O16" s="12">
+        <v>75</v>
+      </c>
+      <c r="P16" s="12">
+        <v>150</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>130</v>
+      </c>
+      <c r="R16" s="12">
+        <v>175</v>
+      </c>
+      <c r="S16" s="12">
+        <v>110</v>
+      </c>
+      <c r="T16" s="12">
+        <v>160</v>
+      </c>
+      <c r="U16" s="12">
+        <v>130</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>123.33333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C17" s="34">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="6">
+        <v>4</v>
+      </c>
+      <c r="J17" s="6">
+        <v>210</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="M17" s="12">
+        <v>145</v>
+      </c>
+      <c r="N17" s="12">
+        <v>220</v>
+      </c>
+      <c r="O17" s="12">
+        <v>295</v>
+      </c>
+      <c r="P17" s="12">
+        <v>130</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>130</v>
+      </c>
+      <c r="R17" s="12">
+        <v>145</v>
+      </c>
+      <c r="S17" s="12">
+        <v>90</v>
+      </c>
+      <c r="T17" s="12">
+        <v>110</v>
+      </c>
+      <c r="U17" s="12">
+        <v>100</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>151.66666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C18" s="34">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="6">
+        <v>5</v>
+      </c>
+      <c r="J18" s="6">
+        <f>297/2</f>
+        <v>148.5</v>
+      </c>
+      <c r="K18" s="6">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1</v>
+      </c>
+      <c r="M18" s="12">
+        <v>245</v>
+      </c>
+      <c r="N18" s="12">
+        <v>225</v>
+      </c>
+      <c r="O18" s="12">
+        <v>335</v>
+      </c>
+      <c r="P18" s="12">
+        <v>295</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>280</v>
+      </c>
+      <c r="R18" s="12">
+        <v>220</v>
+      </c>
+      <c r="S18" s="12">
+        <v>180</v>
+      </c>
+      <c r="T18" s="12">
+        <v>120</v>
+      </c>
+      <c r="U18" s="12">
+        <v>135</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>226.11111111111111</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C19" s="34">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="6">
+        <v>6</v>
+      </c>
+      <c r="J19" s="6">
+        <v>210</v>
+      </c>
+      <c r="K19" s="6">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1</v>
+      </c>
+      <c r="M19" s="12">
+        <v>70</v>
+      </c>
+      <c r="N19" s="12">
+        <v>140</v>
+      </c>
+      <c r="O19" s="12">
+        <v>120</v>
+      </c>
+      <c r="P19" s="12">
+        <v>170</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>255</v>
+      </c>
+      <c r="R19" s="12">
+        <v>150</v>
+      </c>
+      <c r="S19" s="12">
+        <v>130</v>
+      </c>
+      <c r="T19" s="12">
+        <v>110</v>
+      </c>
+      <c r="U19" s="12">
+        <v>220</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="0"/>
+        <v>151.66666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C20" s="34">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="6">
+        <v>7</v>
+      </c>
+      <c r="J20" s="6">
+        <f>297/2</f>
+        <v>148.5</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1</v>
+      </c>
+      <c r="M20" s="12">
+        <v>95</v>
+      </c>
+      <c r="N20" s="12">
+        <v>245</v>
+      </c>
+      <c r="O20" s="12">
+        <v>140</v>
+      </c>
+      <c r="P20" s="12">
+        <v>135</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>155</v>
+      </c>
+      <c r="R20" s="12">
+        <v>210</v>
+      </c>
+      <c r="S20" s="12">
+        <v>70</v>
+      </c>
+      <c r="T20" s="12">
+        <v>90</v>
+      </c>
+      <c r="U20" s="12">
+        <v>135</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>141.66666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C21" s="34">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="6">
+        <v>8</v>
+      </c>
+      <c r="J21" s="6">
+        <v>210</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="6">
+        <v>1</v>
+      </c>
+      <c r="M21" s="12">
+        <v>150</v>
+      </c>
+      <c r="N21" s="12">
+        <v>110</v>
+      </c>
+      <c r="O21" s="12">
+        <v>160</v>
+      </c>
+      <c r="P21" s="12">
+        <v>190</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>275</v>
+      </c>
+      <c r="R21" s="12">
+        <v>260</v>
+      </c>
+      <c r="S21" s="12">
+        <v>115</v>
+      </c>
+      <c r="T21" s="12">
+        <v>180</v>
+      </c>
+      <c r="U21" s="12">
+        <v>180</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C22" s="34">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C23" s="34">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C24" s="34">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C25" s="34">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C26" s="34">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C27" s="34">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C28" s="34">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C29" s="34">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C30" s="34">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D7:E30">
+    <sortCondition ref="E7:E30"/>
+  </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>

--- a/統計管制與最佳化方法概論/homework/my_homework/final exam/final_exam.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/final exam/final_exam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\final exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\final exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D174511A-21C6-4736-96B9-CEDD46AA22EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819B70CA-39C2-44A1-8E37-3B9A0CCF2F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{2224B4A3-7DDB-4A03-9076-3DDD34B94DE1}"/>
+    <workbookView xWindow="7200" yWindow="3255" windowWidth="21600" windowHeight="11295" xr2:uid="{2224B4A3-7DDB-4A03-9076-3DDD34B94DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="experiment design" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="99">
   <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -884,6 +884,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -892,12 +898,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2576,37 +2576,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAAFF7F-C379-4648-8145-FECEA7F02896}">
   <dimension ref="A1:AC85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="16" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="31" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="31" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="22"/>
       <c r="O1" s="23"/>
       <c r="P1" s="14" t="s">
@@ -2616,7 +2616,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>3.9909237717402912</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>3.9909237717402912</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>3.9909237717402912</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>4</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>3.9909237717402912</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>5</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>3.9909237717402912</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>6</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>3.9909237717402912</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>7</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>3.9909237717402912</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>8</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="AB10" s="6"/>
       <c r="AC10" s="10"/>
     </row>
-    <row r="11" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S11" s="17"/>
       <c r="T11" s="6" cm="1">
         <f t="array" ref="T11">SUM(((E4:M4)-N4)^2)</f>
@@ -3440,7 +3440,7 @@
       <c r="AB11" s="29"/>
       <c r="AC11" s="30"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="S12" s="17"/>
       <c r="T12" s="6" cm="1">
         <f t="array" ref="T12">SUM(((E5:M5)-N5)^2)</f>
@@ -3456,7 +3456,7 @@
         <v>0.30152798205260178</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>0.22513260508960498</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3589,7 +3589,7 @@
       <c r="U14" s="6"/>
       <c r="V14" s="18"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3653,8 +3653,26 @@
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="18"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="X15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y15" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z15" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA15" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB15" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC15" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3726,8 +3744,30 @@
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="18"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="X16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y16" s="6">
+        <f>T4</f>
+        <v>26642.013888888898</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="6">
+        <f>Y16/Z16</f>
+        <v>26642.013888888898</v>
+      </c>
+      <c r="AB16" s="6">
+        <f>AA16/$AA$18</f>
+        <v>8.1976823586429255</v>
+      </c>
+      <c r="AC16" s="10">
+        <f>_xlfn.F.INV.RT(0.05,Z16,$Z$18)</f>
+        <v>3.9798072092573862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3787,8 +3827,30 @@
         <v>47</v>
       </c>
       <c r="V17" s="18"/>
-    </row>
-    <row r="18" spans="1:22" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y17" s="6">
+        <f>T6</f>
+        <v>52003.125</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="6">
+        <f t="shared" ref="AA17:AA18" si="14">Y17/Z17</f>
+        <v>52003.125</v>
+      </c>
+      <c r="AB17" s="6">
+        <f>AA17/$AA$18</f>
+        <v>16.001234072796358</v>
+      </c>
+      <c r="AC17" s="10">
+        <f>_xlfn.F.INV.RT(0.05,Z17,$Z$18)</f>
+        <v>3.9798072092573862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -3832,11 +3894,11 @@
         <v>-20.416666666666668</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M24" si="14">(L18-0)/$Q$6</f>
+        <f t="shared" ref="M18:M24" si="15">(L18-0)/$Q$6</f>
         <v>-1.5065833316677355</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N24" si="15">IF(_xlfn.T.DIST(M18,$Q$8,1)&gt;0.5,(1-_xlfn.T.DIST(M18,$Q$8,1))*2,_xlfn.T.DIST(M18,$Q$8,1)*2)</f>
+        <f t="shared" ref="N18:N24" si="16">IF(_xlfn.T.DIST(M18,$Q$8,1)&gt;0.5,(1-_xlfn.T.DIST(M18,$Q$8,1))*2,_xlfn.T.DIST(M18,$Q$8,1)*2)</f>
         <v>0.13683774040131461</v>
       </c>
       <c r="O18">
@@ -3848,11 +3910,11 @@
         <v>1.9977296543176919</v>
       </c>
       <c r="Q18">
-        <f t="shared" ref="Q18:Q24" si="16">L18-P18*$Q$6</f>
+        <f t="shared" ref="Q18:Q24" si="17">L18-P18*$Q$6</f>
         <v>-47.489168787853536</v>
       </c>
       <c r="R18">
-        <f t="shared" ref="R18:R24" si="17">L18+P18*$Q$6</f>
+        <f t="shared" ref="R18:R24" si="18">L18+P18*$Q$6</f>
         <v>6.6558354545202008</v>
       </c>
       <c r="S18" s="19" t="s">
@@ -3867,8 +3929,25 @@
         <v>302891.31944444444</v>
       </c>
       <c r="V18" s="21"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="X18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y18" s="6">
+        <f>SUM(T3,T5,T7:T9,T18)</f>
+        <v>224246.18055555556</v>
+      </c>
+      <c r="Z18" s="6">
+        <f>Z19-Z16-Z17</f>
+        <v>69</v>
+      </c>
+      <c r="AA18" s="6">
+        <f t="shared" si="14"/>
+        <v>3249.9446457326894</v>
+      </c>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="10"/>
+    </row>
+    <row r="19" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -3912,31 +3991,45 @@
         <v>-38.472222222222221</v>
       </c>
       <c r="M19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-2.838935937904508</v>
       </c>
       <c r="N19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.0594192891584376E-3</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:O24" si="18">_xlfn.T.INV(0.025,64)</f>
+        <f t="shared" ref="O19:O24" si="19">_xlfn.T.INV(0.025,64)</f>
         <v>-1.9977296543176954</v>
       </c>
       <c r="P19">
-        <f t="shared" ref="P19:P24" si="19">_xlfn.T.INV(0.975,64)</f>
+        <f t="shared" ref="P19:P24" si="20">_xlfn.T.INV(0.975,64)</f>
         <v>1.9977296543176919</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-65.544724343409086</v>
       </c>
       <c r="R19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-11.399720101035353</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="X19" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y19" s="29">
+        <f>SUM(Y16:Y18)</f>
+        <v>302891.3194444445</v>
+      </c>
+      <c r="Z19" s="29">
+        <f>P6-1</f>
+        <v>71</v>
+      </c>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="30"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
@@ -3980,31 +4073,38 @@
         <v>12.916666666666666</v>
       </c>
       <c r="M20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.95314455676938348</v>
       </c>
       <c r="N20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.34410294744434688</v>
       </c>
       <c r="O20">
+        <f t="shared" si="19"/>
+        <v>-1.9977296543176954</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="20"/>
+        <v>1.9977296543176919</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="17"/>
+        <v>-14.155835454520203</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="18"/>
-        <v>-1.9977296543176954</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="19"/>
-        <v>1.9977296543176919</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="16"/>
-        <v>-14.155835454520203</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="17"/>
         <v>39.989168787853536</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="X20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y20">
+        <f>SUM(Y16:Y17)/Y19</f>
+        <v>0.25964804482722648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
@@ -4048,31 +4148,38 @@
         <v>53.75</v>
       </c>
       <c r="M21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.966311220104854</v>
       </c>
       <c r="N21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.8687299396247248E-4</v>
       </c>
       <c r="O21">
+        <f t="shared" si="19"/>
+        <v>-1.9977296543176954</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="20"/>
+        <v>1.9977296543176919</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="17"/>
+        <v>26.677497878813131</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="18"/>
-        <v>-1.9977296543176954</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="19"/>
-        <v>1.9977296543176919</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="16"/>
-        <v>26.677497878813131</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="17"/>
         <v>80.822502121186872</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="X21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y21">
+        <f>1-(Y18/Z18)/(Y19/Z19)</f>
+        <v>0.23818856786569687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4116,31 +4223,31 @@
         <v>10.416666666666666</v>
       </c>
       <c r="M22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.76866496513659965</v>
       </c>
       <c r="N22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.44491952177532523</v>
       </c>
       <c r="O22">
+        <f t="shared" si="19"/>
+        <v>-1.9977296543176954</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="20"/>
+        <v>1.9977296543176919</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="17"/>
+        <v>-16.655835454520201</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="18"/>
-        <v>-1.9977296543176954</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="19"/>
-        <v>1.9977296543176919</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="16"/>
-        <v>-16.655835454520201</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="17"/>
         <v>37.489168787853536</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -4170,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23:I29" si="20">F4</f>
+        <f t="shared" ref="I23:I29" si="21">F4</f>
         <v>240</v>
       </c>
       <c r="J23">
@@ -4184,31 +4291,31 @@
         <v>2.3611111111111112</v>
       </c>
       <c r="M23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.1742307254309626</v>
       </c>
       <c r="N23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.86223410670395051</v>
       </c>
       <c r="O23">
+        <f t="shared" si="19"/>
+        <v>-1.9977296543176954</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="20"/>
+        <v>1.9977296543176919</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="17"/>
+        <v>-24.711391010075758</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="18"/>
-        <v>-1.9977296543176954</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="19"/>
-        <v>1.9977296543176919</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="16"/>
-        <v>-24.711391010075758</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="17"/>
         <v>29.433613232297979</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -4238,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>85</v>
       </c>
       <c r="J24">
@@ -4252,31 +4359,31 @@
         <v>2.6388888888888888</v>
       </c>
       <c r="M24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.19472845783460524</v>
       </c>
       <c r="N24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.84622236936459205</v>
       </c>
       <c r="O24">
+        <f t="shared" si="19"/>
+        <v>-1.9977296543176954</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="20"/>
+        <v>1.9977296543176919</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="17"/>
+        <v>-24.433613232297979</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="18"/>
-        <v>-1.9977296543176954</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="19"/>
-        <v>1.9977296543176919</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="16"/>
-        <v>-24.433613232297979</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="17"/>
         <v>29.711391010075758</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -4306,11 +4413,11 @@
         <v>-1</v>
       </c>
       <c r="I25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -4340,11 +4447,11 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -4374,11 +4481,11 @@
         <v>-1</v>
       </c>
       <c r="I27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
@@ -4408,11 +4515,11 @@
         <v>-1</v>
       </c>
       <c r="I28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -4442,11 +4549,11 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4480,7 +4587,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -4510,11 +4617,11 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <f t="shared" ref="I31:I37" si="21">G4</f>
+        <f t="shared" ref="I31:I37" si="22">G4</f>
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4544,11 +4651,11 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4578,11 +4685,11 @@
         <v>-1</v>
       </c>
       <c r="I33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -4612,11 +4719,11 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6</v>
       </c>
@@ -4646,11 +4753,11 @@
         <v>-1</v>
       </c>
       <c r="I35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7</v>
       </c>
@@ -4680,11 +4787,11 @@
         <v>-1</v>
       </c>
       <c r="I36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8</v>
       </c>
@@ -4714,11 +4821,11 @@
         <v>1</v>
       </c>
       <c r="I37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -4752,7 +4859,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -4782,11 +4889,11 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <f t="shared" ref="I39:I45" si="22">H4</f>
+        <f t="shared" ref="I39:I45" si="23">H4</f>
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -4816,11 +4923,11 @@
         <v>1</v>
       </c>
       <c r="I40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -4850,11 +4957,11 @@
         <v>-1</v>
       </c>
       <c r="I41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -4884,11 +4991,11 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -4918,11 +5025,11 @@
         <v>-1</v>
       </c>
       <c r="I43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -4952,11 +5059,11 @@
         <v>-1</v>
       </c>
       <c r="I44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -4986,11 +5093,11 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -5024,7 +5131,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -5054,11 +5161,11 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <f t="shared" ref="I47:I53" si="23">I4</f>
+        <f t="shared" ref="I47:I53" si="24">I4</f>
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -5088,11 +5195,11 @@
         <v>1</v>
       </c>
       <c r="I48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -5122,11 +5229,11 @@
         <v>-1</v>
       </c>
       <c r="I49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -5156,11 +5263,11 @@
         <v>1</v>
       </c>
       <c r="I50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>280</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
@@ -5190,11 +5297,11 @@
         <v>-1</v>
       </c>
       <c r="I51">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
@@ -5224,11 +5331,11 @@
         <v>-1</v>
       </c>
       <c r="I52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
@@ -5258,11 +5365,11 @@
         <v>1</v>
       </c>
       <c r="I53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>275</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -5296,7 +5403,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -5326,11 +5433,11 @@
         <v>1</v>
       </c>
       <c r="I55">
-        <f t="shared" ref="I55:I61" si="24">J4</f>
+        <f t="shared" ref="I55:I61" si="25">J4</f>
         <v>195</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -5360,11 +5467,11 @@
         <v>1</v>
       </c>
       <c r="I56">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -5394,11 +5501,11 @@
         <v>-1</v>
       </c>
       <c r="I57">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5</v>
       </c>
@@ -5428,11 +5535,11 @@
         <v>1</v>
       </c>
       <c r="I58">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
@@ -5462,11 +5569,11 @@
         <v>-1</v>
       </c>
       <c r="I59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7</v>
       </c>
@@ -5496,11 +5603,11 @@
         <v>-1</v>
       </c>
       <c r="I60">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>8</v>
       </c>
@@ -5530,11 +5637,11 @@
         <v>1</v>
       </c>
       <c r="I61">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -5568,7 +5675,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -5598,11 +5705,11 @@
         <v>1</v>
       </c>
       <c r="I63">
-        <f t="shared" ref="I63:I69" si="25">K4</f>
+        <f t="shared" ref="I63:I69" si="26">K4</f>
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -5632,11 +5739,11 @@
         <v>1</v>
       </c>
       <c r="I64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
@@ -5666,11 +5773,11 @@
         <v>-1</v>
       </c>
       <c r="I65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5</v>
       </c>
@@ -5700,11 +5807,11 @@
         <v>1</v>
       </c>
       <c r="I66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6</v>
       </c>
@@ -5734,11 +5841,11 @@
         <v>-1</v>
       </c>
       <c r="I67">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7</v>
       </c>
@@ -5768,11 +5875,11 @@
         <v>-1</v>
       </c>
       <c r="I68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8</v>
       </c>
@@ -5802,11 +5909,11 @@
         <v>1</v>
       </c>
       <c r="I69">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -5840,7 +5947,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -5870,11 +5977,11 @@
         <v>1</v>
       </c>
       <c r="I71">
-        <f t="shared" ref="I71:I77" si="26">L4</f>
+        <f t="shared" ref="I71:I77" si="27">L4</f>
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -5904,11 +6011,11 @@
         <v>1</v>
       </c>
       <c r="I72">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4</v>
       </c>
@@ -5938,11 +6045,11 @@
         <v>-1</v>
       </c>
       <c r="I73">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5</v>
       </c>
@@ -5972,11 +6079,11 @@
         <v>1</v>
       </c>
       <c r="I74">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6</v>
       </c>
@@ -6006,11 +6113,11 @@
         <v>-1</v>
       </c>
       <c r="I75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7</v>
       </c>
@@ -6040,11 +6147,11 @@
         <v>-1</v>
       </c>
       <c r="I76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>8</v>
       </c>
@@ -6074,11 +6181,11 @@
         <v>1</v>
       </c>
       <c r="I77">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -6112,7 +6219,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -6126,27 +6233,27 @@
         <v>-1</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E85" si="27">B79*C79</f>
+        <f t="shared" ref="E79:E85" si="28">B79*C79</f>
         <v>-1</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79:F85" si="28">C79*D79</f>
+        <f t="shared" ref="F79:F85" si="29">C79*D79</f>
         <v>1</v>
       </c>
       <c r="G79">
-        <f t="shared" ref="G79:G85" si="29">B79*D79</f>
+        <f t="shared" ref="G79:G85" si="30">B79*D79</f>
         <v>-1</v>
       </c>
       <c r="H79">
-        <f t="shared" ref="H79:H85" si="30">B79*C79*D79</f>
+        <f t="shared" ref="H79:H85" si="31">B79*C79*D79</f>
         <v>1</v>
       </c>
       <c r="I79">
-        <f t="shared" ref="I79:I85" si="31">M4</f>
+        <f t="shared" ref="I79:I85" si="32">M4</f>
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -6160,27 +6267,27 @@
         <v>-1</v>
       </c>
       <c r="E80">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="F80">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1</v>
       </c>
       <c r="G80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="H80">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="I80">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -6194,27 +6301,27 @@
         <v>-1</v>
       </c>
       <c r="E81">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1</v>
       </c>
       <c r="G81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-1</v>
       </c>
       <c r="H81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
       <c r="I81">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5</v>
       </c>
@@ -6228,27 +6335,27 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1</v>
       </c>
       <c r="G82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-1</v>
       </c>
       <c r="H82">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="I82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>6</v>
       </c>
@@ -6262,27 +6369,27 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="F83">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1</v>
       </c>
       <c r="G83">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="H83">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
       <c r="I83">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>7</v>
       </c>
@@ -6296,27 +6403,27 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="F84">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G84">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-1</v>
       </c>
       <c r="H84">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
       <c r="I84">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>8</v>
       </c>
@@ -6330,23 +6437,23 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="H85">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="I85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>180</v>
       </c>
     </row>
@@ -6379,20 +6486,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84FC70-DF1D-4EB8-93B9-4E50CD9A7490}">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:U21"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -6402,23 +6509,23 @@
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33" t="s">
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -6469,7 +6576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -6538,7 +6645,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -6589,7 +6696,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I5" s="6">
         <v>3</v>
       </c>
@@ -6631,7 +6738,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -6681,11 +6788,11 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C7" s="34">
-        <v>1</v>
-      </c>
-      <c r="D7" s="35" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C7" s="31">
+        <v>1</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E7" t="s">
@@ -6736,8 +6843,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C8" s="34">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C8" s="31">
         <v>2</v>
       </c>
       <c r="D8" t="s">
@@ -6790,8 +6897,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C9" s="34">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C9" s="31">
         <v>3</v>
       </c>
       <c r="D9" t="s">
@@ -6844,11 +6951,11 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C10" s="34">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C10" s="31">
         <v>4</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="32" t="s">
         <v>72</v>
       </c>
       <c r="E10" t="s">
@@ -6897,8 +7004,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C11" s="34">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C11" s="31">
         <v>5</v>
       </c>
       <c r="D11" t="s">
@@ -6911,8 +7018,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C12" s="34">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C12" s="31">
         <v>6</v>
       </c>
       <c r="D12" t="s">
@@ -6924,24 +7031,24 @@
       <c r="F12" t="s">
         <v>83</v>
       </c>
-      <c r="M12" s="33" t="s">
+      <c r="M12" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33" t="s">
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33" t="s">
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C13" s="34">
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C13" s="31">
         <v>7</v>
       </c>
       <c r="D13" t="s">
@@ -6996,8 +7103,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C14" s="34">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C14" s="31">
         <v>8</v>
       </c>
       <c r="D14" t="s">
@@ -7055,8 +7162,8 @@
         <v>223.33333333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C15" s="34">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C15" s="31">
         <v>9</v>
       </c>
       <c r="D15" t="s">
@@ -7113,8 +7220,8 @@
         <v>149.44444444444446</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C16" s="34">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C16" s="31">
         <v>10</v>
       </c>
       <c r="D16" t="s">
@@ -7171,8 +7278,8 @@
         <v>123.33333333333333</v>
       </c>
     </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C17" s="34">
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C17" s="31">
         <v>11</v>
       </c>
       <c r="D17" t="s">
@@ -7228,8 +7335,8 @@
         <v>151.66666666666666</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C18" s="34">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C18" s="31">
         <v>12</v>
       </c>
       <c r="D18" t="s">
@@ -7287,8 +7394,8 @@
         <v>226.11111111111111</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C19" s="34">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C19" s="31">
         <v>13</v>
       </c>
       <c r="D19" t="s">
@@ -7345,8 +7452,8 @@
         <v>151.66666666666666</v>
       </c>
     </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C20" s="34">
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C20" s="31">
         <v>14</v>
       </c>
       <c r="D20" t="s">
@@ -7403,8 +7510,8 @@
         <v>141.66666666666666</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C21" s="34">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C21" s="31">
         <v>15</v>
       </c>
       <c r="D21" t="s">
@@ -7460,8 +7567,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C22" s="34">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C22" s="31">
         <v>16</v>
       </c>
       <c r="D22" t="s">
@@ -7474,8 +7581,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C23" s="34">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C23" s="31">
         <v>17</v>
       </c>
       <c r="D23" t="s">
@@ -7488,8 +7595,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C24" s="34">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C24" s="31">
         <v>18</v>
       </c>
       <c r="D24" t="s">
@@ -7502,22 +7609,22 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C25" s="34">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C25" s="31">
         <v>19</v>
       </c>
       <c r="D25" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="32" t="s">
         <v>86</v>
       </c>
       <c r="F25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C26" s="34">
+    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C26" s="31">
         <v>20</v>
       </c>
       <c r="D26" t="s">
@@ -7530,8 +7637,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C27" s="34">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C27" s="31">
         <v>21</v>
       </c>
       <c r="D27" t="s">
@@ -7544,8 +7651,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C28" s="34">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C28" s="31">
         <v>22</v>
       </c>
       <c r="D28" t="s">
@@ -7558,8 +7665,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C29" s="34">
+    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C29" s="31">
         <v>23</v>
       </c>
       <c r="D29" t="s">
@@ -7572,8 +7679,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C30" s="34">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C30" s="31">
         <v>24</v>
       </c>
       <c r="D30" t="s">

--- a/統計管制與最佳化方法概論/homework/my_homework/final exam/final_exam.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/final exam/final_exam.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\final exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3009C1B8-A260-46BB-A34C-9909B25D9918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6297270E-DA4C-4DA8-B8E5-D9C5039B9FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2224B4A3-7DDB-4A03-9076-3DDD34B94DE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2224B4A3-7DDB-4A03-9076-3DDD34B94DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="experiment design 1" sheetId="1" r:id="rId1"/>
     <sheet name="experiment design 2" sheetId="3" r:id="rId2"/>
-    <sheet name="experiment parameters" sheetId="2" r:id="rId3"/>
+    <sheet name="experiment parameters(A)" sheetId="2" r:id="rId3"/>
+    <sheet name="experiment parameters(B)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'experiment design 1'!$P$29:$Q$29</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'experiment design 1'!$K$46:$M$46</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'experiment design 2'!$C$30:$D$30</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
@@ -30,14 +31,16 @@
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'experiment design 1'!$P$29</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'experiment design 1'!$K$46</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'experiment design 2'!$C$30</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'experiment design 1'!$P$29</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'experiment design 1'!$K$46</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'experiment design 2'!$C$30</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'experiment design 1'!$Q$29</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'experiment design 1'!$L$46</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'experiment design 2'!$D$30</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'experiment design 1'!$Q$29</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'experiment design 1'!$L$46</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'experiment design 2'!$D$30</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'experiment design 1'!$M$46</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'experiment design 1'!$M$46</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -50,11 +53,11 @@
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'experiment design 1'!$R$29</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'experiment design 1'!$N$46</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'experiment design 2'!$E$30</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
@@ -68,6 +71,8 @@
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">-1</definedName>
@@ -76,6 +81,8 @@
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">-1</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">-1</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">-1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
@@ -138,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="129">
   <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -617,6 +624,30 @@
   </si>
   <si>
     <t>SN_hat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leg length</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1141,6 +1172,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1161,9 +1195,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13580,16 +13611,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>17319</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>103908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>565728</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>151244</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>617682</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>203198</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13619,15 +13650,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>796636</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
+      <xdr:colOff>398318</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>340590</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>168561</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>634999</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47334</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13657,15 +13688,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>779319</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>69272</xdr:rowOff>
+      <xdr:colOff>398319</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>207817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>323273</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>168562</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>99289</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14035,8 +14066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAAFF7F-C379-4648-8145-FECEA7F02896}">
   <dimension ref="A1:AO85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -14052,21 +14083,21 @@
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
       <c r="N1" s="22"/>
       <c r="O1" s="23"/>
       <c r="P1" s="14" t="s">
@@ -14229,7 +14260,7 @@
         <v>63.194444444444443</v>
       </c>
       <c r="AO2">
-        <f>_xlfn.NORM.INV(AN2/100,$AM$74,$AM$75)</f>
+        <f t="shared" ref="AO2:AO33" si="1">_xlfn.NORM.INV(AN2/100,$AM$74,$AM$75)</f>
         <v>10.600760115206734</v>
       </c>
     </row>
@@ -14291,7 +14322,7 @@
         <v>48</v>
       </c>
       <c r="T3" s="6">
-        <f t="shared" ref="T3:T9" si="1">$P$6/2*((U3-$P$8)^2+(V3-$P$8)^2)</f>
+        <f t="shared" ref="T3:T9" si="2">$P$6/2*((U3-$P$8)^2+(V3-$P$8)^2)</f>
         <v>85767.013888888876</v>
       </c>
       <c r="U3" s="6">
@@ -14340,19 +14371,19 @@
         <v>-1</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ9" si="2">E4</f>
+        <f t="shared" ref="AJ3:AJ9" si="3">E4</f>
         <v>130</v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK66" si="3">$J$16+$K$16*AG3+$L$16*AH3+$M$16*AI3+$N$16*AG3*AH3</f>
+        <f t="shared" ref="AK3:AK66" si="4">$J$16+$K$16*AG3+$L$16*AH3+$M$16*AI3+$N$16*AG3*AH3</f>
         <v>122.15277777777779</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL9" si="4">N4</f>
+        <f t="shared" ref="AL3:AL9" si="5">N4</f>
         <v>128.33333333333334</v>
       </c>
       <c r="AM3">
-        <f t="shared" ref="AM3:AM66" si="5">AJ3-AK3</f>
+        <f t="shared" ref="AM3:AM66" si="6">AJ3-AK3</f>
         <v>7.8472222222222143</v>
       </c>
       <c r="AN3">
@@ -14360,7 +14391,7 @@
         <v>60.416666666666664</v>
       </c>
       <c r="AO3">
-        <f>_xlfn.NORM.INV(AN3/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>8.3088870314850301</v>
       </c>
     </row>
@@ -14405,11 +14436,11 @@
         <v>170</v>
       </c>
       <c r="N4" s="7">
-        <f t="shared" ref="N4:N10" si="6">AVERAGE(E4:M4)</f>
+        <f t="shared" ref="N4:N10" si="7">AVERAGE(E4:M4)</f>
         <v>128.33333333333334</v>
       </c>
       <c r="O4" s="10">
-        <f t="shared" ref="O4:O10" si="7">_xlfn.VAR.S(E4:M4)</f>
+        <f t="shared" ref="O4:O10" si="8">_xlfn.VAR.S(E4:M4)</f>
         <v>631.25</v>
       </c>
       <c r="P4" s="17">
@@ -14423,7 +14454,7 @@
         <v>49</v>
       </c>
       <c r="T4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47278.125</v>
       </c>
       <c r="U4" s="6">
@@ -14438,22 +14469,22 @@
         <v>62</v>
       </c>
       <c r="Y4" s="6">
-        <f t="shared" ref="Y4:Y9" si="8">T4</f>
+        <f t="shared" ref="Y4:Y9" si="9">T4</f>
         <v>47278.125</v>
       </c>
       <c r="Z4" s="6">
         <v>1</v>
       </c>
       <c r="AA4" s="6">
-        <f t="shared" ref="AA4:AA10" si="9">Y4/Z4</f>
+        <f t="shared" ref="AA4:AA10" si="10">Y4/Z4</f>
         <v>47278.125</v>
       </c>
       <c r="AB4" s="6">
-        <f t="shared" ref="AB4:AB9" si="10">AA4/$AA$10</f>
+        <f t="shared" ref="AB4:AB9" si="11">AA4/$AA$10</f>
         <v>47.558854348585399</v>
       </c>
       <c r="AC4" s="10">
-        <f t="shared" ref="AC4:AC9" si="11">_xlfn.F.INV.RT(0.05,Z4,$Z$10)</f>
+        <f t="shared" ref="AC4:AC9" si="12">_xlfn.F.INV.RT(0.05,Z4,$Z$10)</f>
         <v>3.9909237717402912</v>
       </c>
       <c r="AE4">
@@ -14472,19 +14503,19 @@
         <v>-1</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>139.93055555555554</v>
       </c>
       <c r="AL4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>123.33333333333333</v>
       </c>
       <c r="AM4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-44.930555555555543</v>
       </c>
       <c r="AN4">
@@ -14492,7 +14523,7 @@
         <v>6.25</v>
       </c>
       <c r="AO4">
-        <f>_xlfn.NORM.INV(AN4/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>-48.256597326517728</v>
       </c>
     </row>
@@ -14537,11 +14568,11 @@
         <v>130</v>
       </c>
       <c r="N5" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>123.33333333333333</v>
       </c>
       <c r="O5" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1200</v>
       </c>
       <c r="P5" s="17" t="s">
@@ -14554,7 +14585,7 @@
         <v>50</v>
       </c>
       <c r="T5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13475.347222222226</v>
       </c>
       <c r="U5" s="6">
@@ -14569,22 +14600,22 @@
         <v>63</v>
       </c>
       <c r="Y5" s="6">
-        <f t="shared" si="8"/>
-        <v>13475.347222222226</v>
-      </c>
-      <c r="Z5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="6">
         <f t="shared" si="9"/>
         <v>13475.347222222226</v>
       </c>
+      <c r="Z5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="6">
+        <f t="shared" si="10"/>
+        <v>13475.347222222226</v>
+      </c>
       <c r="AB5" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13.555361508906744</v>
       </c>
       <c r="AC5" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.9909237717402912</v>
       </c>
       <c r="AE5">
@@ -14603,19 +14634,19 @@
         <v>-1</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>126.04166666666666</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>131.66666666666666</v>
       </c>
       <c r="AM5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>38.958333333333343</v>
       </c>
       <c r="AN5">
@@ -14623,7 +14654,7 @@
         <v>85.416666666666671</v>
       </c>
       <c r="AO5">
-        <f>_xlfn.NORM.INV(AN5/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>33.169005319884299</v>
       </c>
     </row>
@@ -14668,11 +14699,11 @@
         <v>100</v>
       </c>
       <c r="N6" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>131.66666666666666</v>
       </c>
       <c r="O6" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>768.75</v>
       </c>
       <c r="P6" s="17">
@@ -14687,7 +14718,7 @@
         <v>52</v>
       </c>
       <c r="T6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54725.347222222219</v>
       </c>
       <c r="U6" s="6">
@@ -14702,22 +14733,22 @@
         <v>33</v>
       </c>
       <c r="Y6" s="6">
-        <f t="shared" si="8"/>
-        <v>54725.347222222219</v>
-      </c>
-      <c r="Z6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="6">
         <f t="shared" si="9"/>
         <v>54725.347222222219</v>
       </c>
+      <c r="Z6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="6">
+        <f t="shared" si="10"/>
+        <v>54725.347222222219</v>
+      </c>
       <c r="AB6" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>55.050296891372682</v>
       </c>
       <c r="AC6" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.9909237717402912</v>
       </c>
       <c r="AE6">
@@ -14736,19 +14767,19 @@
         <v>1</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>273.68055555555554</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>268.88888888888891</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-28.680555555555543</v>
       </c>
       <c r="AN6">
@@ -14756,7 +14787,7 @@
         <v>21.527777777777779</v>
       </c>
       <c r="AO6">
-        <f>_xlfn.NORM.INV(AN6/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>-24.794560515461562</v>
       </c>
     </row>
@@ -14801,11 +14832,11 @@
         <v>280</v>
       </c>
       <c r="N7" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>268.88888888888891</v>
       </c>
       <c r="O7" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1373.6111111111095</v>
       </c>
       <c r="P7" s="17" t="s">
@@ -14818,7 +14849,7 @@
         <v>53</v>
       </c>
       <c r="T7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2167.0138888888914</v>
       </c>
       <c r="U7" s="6">
@@ -14833,22 +14864,22 @@
         <v>21</v>
       </c>
       <c r="Y7" s="6">
-        <f t="shared" si="8"/>
-        <v>2167.0138888888914</v>
-      </c>
-      <c r="Z7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="6">
         <f t="shared" si="9"/>
         <v>2167.0138888888914</v>
       </c>
+      <c r="Z7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="6">
+        <f t="shared" si="10"/>
+        <v>2167.0138888888914</v>
+      </c>
       <c r="AB7" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.1798812434509278</v>
       </c>
       <c r="AC7" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.9909237717402912</v>
       </c>
       <c r="AE7">
@@ -14867,19 +14898,19 @@
         <v>1</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>149.51388888888886</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>143.33333333333334</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-24.513888888888857</v>
       </c>
       <c r="AN7">
@@ -14887,7 +14918,7 @@
         <v>24.305555555555557</v>
       </c>
       <c r="AO7">
-        <f>_xlfn.NORM.INV(AN7/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>-21.909020319035537</v>
       </c>
     </row>
@@ -14932,11 +14963,11 @@
         <v>220</v>
       </c>
       <c r="N8" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>143.33333333333334</v>
       </c>
       <c r="O8" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1106.25</v>
       </c>
       <c r="P8" s="19">
@@ -14951,7 +14982,7 @@
         <v>54</v>
       </c>
       <c r="T8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2508.680555555562</v>
       </c>
       <c r="U8" s="6">
@@ -14966,22 +14997,22 @@
         <v>20</v>
       </c>
       <c r="Y8" s="6">
-        <f t="shared" si="8"/>
-        <v>2508.680555555562</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="6">
         <f t="shared" si="9"/>
         <v>2508.680555555562</v>
       </c>
+      <c r="Z8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="6">
+        <f t="shared" si="10"/>
+        <v>2508.680555555562</v>
+      </c>
       <c r="AB8" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.523576667830953</v>
       </c>
       <c r="AC8" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.9909237717402912</v>
       </c>
       <c r="AE8">
@@ -15000,19 +15031,19 @@
         <v>1</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>167.29166666666663</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>183.88888888888889</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.708333333333371</v>
       </c>
       <c r="AN8">
@@ -15020,7 +15051,7 @@
         <v>96.527777777777771</v>
       </c>
       <c r="AO8">
-        <f>_xlfn.NORM.INV(AN8/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>57.108086645888982</v>
       </c>
     </row>
@@ -15065,18 +15096,18 @@
         <v>210</v>
       </c>
       <c r="N9" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>183.88888888888889</v>
       </c>
       <c r="O9" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1073.6111111111095</v>
       </c>
       <c r="S9" s="17" t="s">
         <v>55</v>
       </c>
       <c r="T9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1953.1249999999966</v>
       </c>
       <c r="U9" s="6">
@@ -15091,22 +15122,22 @@
         <v>22</v>
       </c>
       <c r="Y9" s="6">
-        <f t="shared" si="8"/>
-        <v>1953.1249999999966</v>
-      </c>
-      <c r="Z9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="6">
         <f t="shared" si="9"/>
         <v>1953.1249999999966</v>
       </c>
+      <c r="Z9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="6">
+        <f t="shared" si="10"/>
+        <v>1953.1249999999966</v>
+      </c>
       <c r="AB9" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.964722319245543</v>
       </c>
       <c r="AC9" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.9909237717402912</v>
       </c>
       <c r="AE9">
@@ -15125,19 +15156,19 @@
         <v>1</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>153.40277777777777</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>147.77777777777777</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.4027777777777715</v>
       </c>
       <c r="AN9">
@@ -15145,7 +15176,7 @@
         <v>46.527777777777779</v>
       </c>
       <c r="AO9">
-        <f>_xlfn.NORM.INV(AN9/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>-2.741221183522601</v>
       </c>
     </row>
@@ -15190,11 +15221,11 @@
         <v>180</v>
       </c>
       <c r="N10" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>147.77777777777777</v>
       </c>
       <c r="O10" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>863.19444444444525</v>
       </c>
       <c r="S10" s="17"/>
@@ -15216,7 +15247,7 @@
         <v>64</v>
       </c>
       <c r="AA10" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>994.09722222222229</v>
       </c>
       <c r="AB10" s="6"/>
@@ -15241,7 +15272,7 @@
         <v>275</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>246.31944444444446</v>
       </c>
       <c r="AL10">
@@ -15249,7 +15280,7 @@
         <v>251.11111111111111</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28.680555555555543</v>
       </c>
       <c r="AN10">
@@ -15257,7 +15288,7 @@
         <v>81.25</v>
       </c>
       <c r="AO10">
-        <f>_xlfn.NORM.INV(AN10/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>27.905678224423603</v>
       </c>
     </row>
@@ -15299,19 +15330,19 @@
         <v>-1</v>
       </c>
       <c r="AJ11">
-        <f t="shared" ref="AJ11:AJ17" si="12">F4</f>
+        <f t="shared" ref="AJ11:AJ17" si="13">F4</f>
         <v>130</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>122.15277777777779</v>
       </c>
       <c r="AL11">
-        <f t="shared" ref="AL11:AL17" si="13">AL3</f>
+        <f t="shared" ref="AL11:AL17" si="14">AL3</f>
         <v>128.33333333333334</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.8472222222222143</v>
       </c>
       <c r="AN11">
@@ -15319,7 +15350,7 @@
         <v>60.416666666666664</v>
       </c>
       <c r="AO11">
-        <f>_xlfn.NORM.INV(AN11/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>8.3088870314850301</v>
       </c>
     </row>
@@ -15354,19 +15385,19 @@
         <v>-1</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>85</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>139.93055555555554</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>123.33333333333333</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-54.930555555555543</v>
       </c>
       <c r="AN12">
@@ -15374,7 +15405,7 @@
         <v>2.0833333333333335</v>
       </c>
       <c r="AO12">
-        <f>_xlfn.NORM.INV(AN12/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>-64.069727034327329</v>
       </c>
     </row>
@@ -15457,19 +15488,19 @@
         <v>-1</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>145</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>126.04166666666666</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>131.66666666666666</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.958333333333343</v>
       </c>
       <c r="AN13">
@@ -15477,7 +15508,7 @@
         <v>68.75</v>
       </c>
       <c r="AO13">
-        <f>_xlfn.NORM.INV(AN13/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>15.374728238070459</v>
       </c>
     </row>
@@ -15515,31 +15546,31 @@
         <v>255</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:Q14" si="14">SUMPRODUCT(B14:B85,$I$14:$I$85)/($P$2/2*$P$4)</f>
+        <f t="shared" ref="K14:Q14" si="15">SUMPRODUCT(B14:B85,$I$14:$I$85)/($P$2/2*$P$4)</f>
         <v>-69.027777777777771</v>
       </c>
       <c r="L14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-51.25</v>
       </c>
       <c r="M14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27.361111111111111</v>
       </c>
       <c r="N14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>55.138888888888886</v>
       </c>
       <c r="O14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.972222222222221</v>
       </c>
       <c r="P14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-11.805555555555555</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="S14" s="17"/>
@@ -15565,19 +15596,19 @@
         <v>1</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>225</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>273.68055555555554</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>268.88888888888891</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-48.680555555555543</v>
       </c>
       <c r="AN14">
@@ -15585,7 +15616,7 @@
         <v>4.8611111111111107</v>
       </c>
       <c r="AO14">
-        <f>_xlfn.NORM.INV(AN14/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>-52.168142015497658</v>
       </c>
     </row>
@@ -15603,23 +15634,23 @@
         <v>-1</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:E78" si="15">B15*C15</f>
+        <f t="shared" ref="E15:E78" si="16">B15*C15</f>
         <v>-1</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F78" si="16">C15*D15</f>
+        <f t="shared" ref="F15:F78" si="17">C15*D15</f>
         <v>1</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G78" si="17">B15*D15</f>
+        <f t="shared" ref="G15:G78" si="18">B15*D15</f>
         <v>-1</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H78" si="18">B15*C15*D15</f>
+        <f t="shared" ref="H15:H78" si="19">B15*C15*D15</f>
         <v>1</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15:I21" si="19">E4</f>
+        <f t="shared" ref="I15:I21" si="20">E4</f>
         <v>130</v>
       </c>
       <c r="J15" t="s">
@@ -15687,19 +15718,19 @@
         <v>1</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>140</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>149.51388888888886</v>
       </c>
       <c r="AL15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>143.33333333333334</v>
       </c>
       <c r="AM15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-9.5138888888888573</v>
       </c>
       <c r="AN15">
@@ -15707,7 +15738,7 @@
         <v>42.361111111111114</v>
       </c>
       <c r="AO15">
-        <f>_xlfn.NORM.INV(AN15/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>-6.0603469148980285</v>
       </c>
     </row>
@@ -15725,55 +15756,55 @@
         <v>-1</v>
       </c>
       <c r="E16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>95</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="39">
         <f>AVERAGE(E3:M10)</f>
         <v>172.29166666666666</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="39">
         <f>K14/2</f>
         <v>-34.513888888888886</v>
       </c>
-      <c r="L16" s="46">
-        <f t="shared" ref="L16:Q16" si="20">L14/2</f>
+      <c r="L16" s="39">
+        <f t="shared" ref="L16:Q16" si="21">L14/2</f>
         <v>-25.625</v>
       </c>
-      <c r="M16" s="46">
-        <f t="shared" si="20"/>
+      <c r="M16" s="39">
+        <f t="shared" si="21"/>
         <v>13.680555555555555</v>
       </c>
-      <c r="N16" s="46">
-        <f t="shared" si="20"/>
+      <c r="N16" s="39">
+        <f t="shared" si="21"/>
         <v>27.569444444444443</v>
       </c>
       <c r="O16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.4861111111111107</v>
       </c>
       <c r="P16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-5.9027777777777777</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-5.208333333333333</v>
       </c>
       <c r="S16" s="17"/>
@@ -15821,19 +15852,19 @@
         <v>1</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>215</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>167.29166666666663</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>183.88888888888889</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47.708333333333371</v>
       </c>
       <c r="AN16">
@@ -15841,7 +15872,7 @@
         <v>93.75</v>
       </c>
       <c r="AO16">
-        <f>_xlfn.NORM.INV(AN16/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>48.256597326517777</v>
       </c>
     </row>
@@ -15859,23 +15890,23 @@
         <v>-1</v>
       </c>
       <c r="E17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>165</v>
       </c>
       <c r="M17" t="s">
@@ -15943,19 +15974,19 @@
         <v>1</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>110</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>153.40277777777777</v>
       </c>
       <c r="AL17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>147.77777777777777</v>
       </c>
       <c r="AM17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-43.402777777777771</v>
       </c>
       <c r="AN17">
@@ -15963,7 +15994,7 @@
         <v>7.6388888888888893</v>
       </c>
       <c r="AO17">
-        <f>_xlfn.NORM.INV(AN17/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>-44.974770883466576</v>
       </c>
     </row>
@@ -15981,23 +16012,23 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>245</v>
       </c>
       <c r="J18">
@@ -16011,11 +16042,11 @@
         <v>-69.027777777777771</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M24" si="21">(L18-0)/$Q$6</f>
+        <f t="shared" ref="M18:M24" si="22">(L18-0)/$Q$6</f>
         <v>-9.2885027651706018</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N24" si="22">IF(_xlfn.T.DIST(M18,$Q$8,1)&gt;0.5,(1-_xlfn.T.DIST(M18,$Q$8,1))*2,_xlfn.T.DIST(M18,$Q$8,1)*2)</f>
+        <f t="shared" ref="N18:N24" si="23">IF(_xlfn.T.DIST(M18,$Q$8,1)&gt;0.5,(1-_xlfn.T.DIST(M18,$Q$8,1))*2,_xlfn.T.DIST(M18,$Q$8,1)*2)</f>
         <v>1.7789459470304938E-13</v>
       </c>
       <c r="O18">
@@ -16027,11 +16058,11 @@
         <v>1.9977296543176919</v>
       </c>
       <c r="Q18">
-        <f t="shared" ref="Q18:Q24" si="23">L18-P18*$Q$6</f>
+        <f t="shared" ref="Q18:Q24" si="24">L18-P18*$Q$6</f>
         <v>-83.873963662052049</v>
       </c>
       <c r="R18">
-        <f t="shared" ref="R18:R24" si="24">L18+P18*$Q$6</f>
+        <f t="shared" ref="R18:R24" si="25">L18+P18*$Q$6</f>
         <v>-54.181591893503487</v>
       </c>
       <c r="S18" s="19" t="s">
@@ -16088,7 +16119,7 @@
         <v>210</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>246.31944444444446</v>
       </c>
       <c r="AL18">
@@ -16096,7 +16127,7 @@
         <v>251.11111111111111</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-36.319444444444457</v>
       </c>
       <c r="AN18">
@@ -16104,7 +16135,7 @@
         <v>14.583333333333334</v>
       </c>
       <c r="AO18">
-        <f>_xlfn.NORM.INV(AN18/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>-33.169005319884256</v>
       </c>
     </row>
@@ -16122,23 +16153,23 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>125</v>
       </c>
       <c r="J19">
@@ -16152,27 +16183,27 @@
         <v>-51.25</v>
       </c>
       <c r="M19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-6.8962927974807897</v>
       </c>
       <c r="N19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.8278984230469919E-9</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:O24" si="25">_xlfn.T.INV(0.025,64)</f>
+        <f t="shared" ref="O19:O24" si="26">_xlfn.T.INV(0.025,64)</f>
         <v>-1.9977296543176954</v>
       </c>
       <c r="P19">
-        <f t="shared" ref="P19:P24" si="26">_xlfn.T.INV(0.975,64)</f>
+        <f t="shared" ref="P19:P24" si="27">_xlfn.T.INV(0.975,64)</f>
         <v>1.9977296543176919</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-66.096185884274277</v>
       </c>
       <c r="R19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-36.403814115725716</v>
       </c>
       <c r="X19" s="3" t="s">
@@ -16186,7 +16217,7 @@
         <v>1</v>
       </c>
       <c r="AA19" s="6">
-        <f t="shared" ref="AA19:AA20" si="27">Y19/Z19</f>
+        <f t="shared" ref="AA19:AA20" si="28">Y19/Z19</f>
         <v>54725.347222222219</v>
       </c>
       <c r="AB19" s="6">
@@ -16213,19 +16244,19 @@
         <v>-1</v>
       </c>
       <c r="AJ19">
-        <f t="shared" ref="AJ19:AJ25" si="28">G4</f>
+        <f t="shared" ref="AJ19:AJ25" si="29">G4</f>
         <v>165</v>
       </c>
       <c r="AK19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>122.15277777777779</v>
       </c>
       <c r="AL19">
-        <f t="shared" ref="AL19:AL25" si="29">AL11</f>
+        <f t="shared" ref="AL19:AL25" si="30">AL11</f>
         <v>128.33333333333334</v>
       </c>
       <c r="AM19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.847222222222214</v>
       </c>
       <c r="AN19">
@@ -16233,7 +16264,7 @@
         <v>89.583333333333329</v>
       </c>
       <c r="AO19">
-        <f>_xlfn.NORM.INV(AN19/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>39.576157197965557</v>
       </c>
     </row>
@@ -16251,23 +16282,23 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>225</v>
       </c>
       <c r="J20">
@@ -16281,27 +16312,27 @@
         <v>27.361111111111111</v>
       </c>
       <c r="M20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.6817606533976033</v>
       </c>
       <c r="N20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.7768190654373655E-4</v>
       </c>
       <c r="O20">
+        <f t="shared" si="26"/>
+        <v>-1.9977296543176954</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="27"/>
+        <v>1.9977296543176919</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="24"/>
+        <v>12.514925226836828</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="25"/>
-        <v>-1.9977296543176954</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="26"/>
-        <v>1.9977296543176919</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="23"/>
-        <v>12.514925226836828</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="24"/>
         <v>42.207296995385391</v>
       </c>
       <c r="X20" s="3" t="s">
@@ -16316,7 +16347,7 @@
         <v>67</v>
       </c>
       <c r="AA20" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1048.5230099502489</v>
       </c>
       <c r="AB20" s="6"/>
@@ -16337,19 +16368,19 @@
         <v>-1</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>75</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>139.93055555555554</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>123.33333333333333</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-64.930555555555543</v>
       </c>
       <c r="AN20">
@@ -16357,7 +16388,7 @@
         <v>0.69444444444444442</v>
       </c>
       <c r="AO20">
-        <f>_xlfn.NORM.INV(AN20/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>-77.384551017079403</v>
       </c>
     </row>
@@ -16375,23 +16406,23 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>150</v>
       </c>
       <c r="J21">
@@ -16405,27 +16436,27 @@
         <v>55.138888888888886</v>
       </c>
       <c r="M21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.4195887279129362</v>
       </c>
       <c r="N21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.4015279481991456E-10</v>
       </c>
       <c r="O21">
+        <f t="shared" si="26"/>
+        <v>-1.9977296543176954</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="27"/>
+        <v>1.9977296543176919</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="24"/>
+        <v>40.292703004614602</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="25"/>
-        <v>-1.9977296543176954</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="26"/>
-        <v>1.9977296543176919</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="23"/>
-        <v>40.292703004614602</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="24"/>
         <v>69.985074773163163</v>
       </c>
       <c r="X21" s="28" t="s">
@@ -16458,19 +16489,19 @@
         <v>-1</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>170</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>126.04166666666666</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>131.66666666666666</v>
       </c>
       <c r="AM21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43.958333333333343</v>
       </c>
       <c r="AN21">
@@ -16478,7 +16509,7 @@
         <v>92.361111111111114</v>
       </c>
       <c r="AO21">
-        <f>_xlfn.NORM.INV(AN21/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>44.974770883466654</v>
       </c>
     </row>
@@ -16496,19 +16527,19 @@
         <v>-1</v>
       </c>
       <c r="E22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I22">
@@ -16526,27 +16557,27 @@
         <v>10.972222222222221</v>
       </c>
       <c r="M22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.4764420894335566</v>
       </c>
       <c r="N22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.14472894507095124</v>
       </c>
       <c r="O22">
+        <f t="shared" si="26"/>
+        <v>-1.9977296543176954</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="27"/>
+        <v>1.9977296543176919</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="24"/>
+        <v>-3.873963662052061</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="25"/>
-        <v>-1.9977296543176954</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="26"/>
-        <v>1.9977296543176919</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="23"/>
-        <v>-3.873963662052061</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="24"/>
         <v>25.818408106496506</v>
       </c>
       <c r="X22" s="12" t="s">
@@ -16572,19 +16603,19 @@
         <v>1</v>
       </c>
       <c r="AJ22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>335</v>
       </c>
       <c r="AK22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>273.68055555555554</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>268.88888888888891</v>
       </c>
       <c r="AM22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.319444444444457</v>
       </c>
       <c r="AN22">
@@ -16592,7 +16623,7 @@
         <v>97.916666666666671</v>
       </c>
       <c r="AO22">
-        <f>_xlfn.NORM.INV(AN22/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>64.0697270343274</v>
       </c>
     </row>
@@ -16610,23 +16641,23 @@
         <v>-1</v>
       </c>
       <c r="E23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23:I29" si="30">F4</f>
+        <f t="shared" ref="I23:I29" si="31">F4</f>
         <v>130</v>
       </c>
       <c r="J23">
@@ -16640,27 +16671,27 @@
         <v>-11.805555555555555</v>
       </c>
       <c r="M23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1.5885769316690166</v>
       </c>
       <c r="N23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.11708438715111638</v>
       </c>
       <c r="O23">
+        <f t="shared" si="26"/>
+        <v>-1.9977296543176954</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="27"/>
+        <v>1.9977296543176919</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="24"/>
+        <v>-26.651741439829838</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="25"/>
-        <v>-1.9977296543176954</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="26"/>
-        <v>1.9977296543176919</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="23"/>
-        <v>-26.651741439829838</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="24"/>
         <v>3.0406303287187271</v>
       </c>
       <c r="X23" s="12" t="s">
@@ -16686,19 +16717,19 @@
         <v>1</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>120</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>149.51388888888886</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>143.33333333333334</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-29.513888888888857</v>
       </c>
       <c r="AN23">
@@ -16706,7 +16737,7 @@
         <v>20.138888888888889</v>
       </c>
       <c r="AO23">
-        <f>_xlfn.NORM.INV(AN23/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>-26.317927843627817</v>
       </c>
     </row>
@@ -16724,23 +16755,23 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>85</v>
       </c>
       <c r="J24">
@@ -16754,27 +16785,27 @@
         <v>-10.416666666666666</v>
       </c>
       <c r="M24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1.4016855279432499</v>
       </c>
       <c r="N24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.16584040658342786</v>
       </c>
       <c r="O24">
+        <f t="shared" si="26"/>
+        <v>-1.9977296543176954</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="27"/>
+        <v>1.9977296543176919</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="24"/>
+        <v>-25.262852550940949</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="25"/>
-        <v>-1.9977296543176954</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="26"/>
-        <v>1.9977296543176919</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="23"/>
-        <v>-25.262852550940949</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="24"/>
         <v>4.4295192176076164</v>
       </c>
       <c r="AE24">
@@ -16793,19 +16824,19 @@
         <v>1</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>170</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>167.29166666666663</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>183.88888888888889</v>
       </c>
       <c r="AM24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7083333333333712</v>
       </c>
       <c r="AN24">
@@ -16813,7 +16844,7 @@
         <v>49.305555555555557</v>
       </c>
       <c r="AO24">
-        <f>_xlfn.NORM.INV(AN24/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>-0.54757875009487278</v>
       </c>
     </row>
@@ -16831,23 +16862,23 @@
         <v>-1</v>
       </c>
       <c r="E25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>145</v>
       </c>
       <c r="AE25">
@@ -16866,19 +16897,19 @@
         <v>1</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>160</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>153.40277777777777</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>147.77777777777777</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.5972222222222285</v>
       </c>
       <c r="AN25">
@@ -16886,7 +16917,7 @@
         <v>59.027777777777779</v>
       </c>
       <c r="AO25">
-        <f>_xlfn.NORM.INV(AN25/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>7.1800294636251634</v>
       </c>
     </row>
@@ -16904,23 +16935,23 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>225</v>
       </c>
       <c r="AE26">
@@ -16943,7 +16974,7 @@
         <v>205</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>246.31944444444446</v>
       </c>
       <c r="AL26">
@@ -16951,7 +16982,7 @@
         <v>251.11111111111111</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-41.319444444444457</v>
       </c>
       <c r="AN26">
@@ -16959,7 +16990,7 @@
         <v>10.416666666666666</v>
       </c>
       <c r="AO26">
-        <f>_xlfn.NORM.INV(AN26/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>-39.576157197965522</v>
       </c>
     </row>
@@ -16977,23 +17008,23 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I27">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>140</v>
       </c>
       <c r="AE27">
@@ -17012,19 +17043,19 @@
         <v>-1</v>
       </c>
       <c r="AJ27">
-        <f t="shared" ref="AJ27:AJ33" si="31">H4</f>
+        <f t="shared" ref="AJ27:AJ33" si="32">H4</f>
         <v>125</v>
       </c>
       <c r="AK27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>122.15277777777779</v>
       </c>
       <c r="AL27">
-        <f t="shared" ref="AL27:AL73" si="32">AL19</f>
+        <f t="shared" ref="AL27:AL73" si="33">AL19</f>
         <v>128.33333333333334</v>
       </c>
       <c r="AM27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8472222222222143</v>
       </c>
       <c r="AN27">
@@ -17032,7 +17063,7 @@
         <v>50.694444444444443</v>
       </c>
       <c r="AO27">
-        <f>_xlfn.NORM.INV(AN27/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>0.54757875009489654</v>
       </c>
     </row>
@@ -17050,30 +17081,30 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>215</v>
       </c>
-      <c r="K28" s="41" t="s">
+      <c r="K28" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="L28" s="42"/>
-      <c r="M28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
       <c r="AE28">
         <v>27</v>
       </c>
@@ -17090,19 +17121,19 @@
         <v>-1</v>
       </c>
       <c r="AJ28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>150</v>
       </c>
       <c r="AK28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>139.93055555555554</v>
       </c>
       <c r="AL28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>123.33333333333333</v>
       </c>
       <c r="AM28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.069444444444457</v>
       </c>
       <c r="AN28">
@@ -17110,7 +17141,7 @@
         <v>64.583333333333329</v>
       </c>
       <c r="AO28">
-        <f>_xlfn.NORM.INV(AN28/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>11.767374889845355</v>
       </c>
     </row>
@@ -17128,23 +17159,23 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>110</v>
       </c>
       <c r="K29" s="17" t="s">
@@ -17170,19 +17201,19 @@
         <v>-1</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>130</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>126.04166666666666</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>131.66666666666666</v>
       </c>
       <c r="AM29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.9583333333333428</v>
       </c>
       <c r="AN29">
@@ -17190,7 +17221,7 @@
         <v>53.472222222222221</v>
       </c>
       <c r="AO29">
-        <f>_xlfn.NORM.INV(AN29/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>2.741221183522625</v>
       </c>
     </row>
@@ -17208,19 +17239,19 @@
         <v>-1</v>
       </c>
       <c r="E30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I30">
@@ -17252,19 +17283,19 @@
         <v>1</v>
       </c>
       <c r="AJ30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>295</v>
       </c>
       <c r="AK30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>273.68055555555554</v>
       </c>
       <c r="AL30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>268.88888888888891</v>
       </c>
       <c r="AM30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.319444444444457</v>
       </c>
       <c r="AN30">
@@ -17272,7 +17303,7 @@
         <v>74.305555555555557</v>
       </c>
       <c r="AO30">
-        <f>_xlfn.NORM.INV(AN30/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>20.534000754096457</v>
       </c>
     </row>
@@ -17290,31 +17321,31 @@
         <v>-1</v>
       </c>
       <c r="E31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I31">
-        <f t="shared" ref="I31:I37" si="33">G4</f>
+        <f t="shared" ref="I31:I37" si="34">G4</f>
         <v>165</v>
       </c>
       <c r="K31" s="17">
-        <f t="shared" ref="K31:K37" si="34">($P$4-1)*LN(O4)</f>
+        <f t="shared" ref="K31:K37" si="35">($P$4-1)*LN(O4)</f>
         <v>51.581615844716559</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" ref="L31:L37" si="35">1/($P$4-1)</f>
+        <f t="shared" ref="L31:L37" si="36">1/($P$4-1)</f>
         <v>0.125</v>
       </c>
       <c r="M31" s="18"/>
@@ -17334,19 +17365,19 @@
         <v>1</v>
       </c>
       <c r="AJ31">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>170</v>
       </c>
       <c r="AK31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>149.51388888888886</v>
       </c>
       <c r="AL31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>143.33333333333334</v>
       </c>
       <c r="AM31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.486111111111143</v>
       </c>
       <c r="AN31">
@@ -17354,7 +17385,7 @@
         <v>72.916666666666671</v>
       </c>
       <c r="AO31">
-        <f>_xlfn.NORM.INV(AN31/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>19.197149378333414</v>
       </c>
     </row>
@@ -17372,31 +17403,31 @@
         <v>-1</v>
       </c>
       <c r="E32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I32">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>75</v>
       </c>
       <c r="K32" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>56.720614686208734</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.125</v>
       </c>
       <c r="M32" s="18"/>
@@ -17416,19 +17447,19 @@
         <v>1</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>135</v>
       </c>
       <c r="AK32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>167.29166666666663</v>
       </c>
       <c r="AL32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>183.88888888888889</v>
       </c>
       <c r="AM32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-32.291666666666629</v>
       </c>
       <c r="AN32">
@@ -17436,7 +17467,7 @@
         <v>17.361111111111111</v>
       </c>
       <c r="AO32">
-        <f>_xlfn.NORM.INV(AN32/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>-29.567926136636782</v>
       </c>
     </row>
@@ -17454,31 +17485,31 @@
         <v>-1</v>
       </c>
       <c r="E33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>170</v>
       </c>
       <c r="K33" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>53.158126552965818</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.125</v>
       </c>
       <c r="M33" s="18"/>
@@ -17498,19 +17529,19 @@
         <v>1</v>
       </c>
       <c r="AJ33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>110</v>
       </c>
       <c r="AK33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>153.40277777777777</v>
       </c>
       <c r="AL33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>147.77777777777777</v>
       </c>
       <c r="AM33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-43.402777777777771</v>
       </c>
       <c r="AN33">
@@ -17518,7 +17549,7 @@
         <v>7.6388888888888893</v>
       </c>
       <c r="AO33">
-        <f>_xlfn.NORM.INV(AN33/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="1"/>
         <v>-44.974770883466576</v>
       </c>
     </row>
@@ -17536,31 +17567,31 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>335</v>
       </c>
       <c r="K34" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>57.801587188757978</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.125</v>
       </c>
       <c r="M34" s="18"/>
@@ -17584,23 +17615,23 @@
         <v>240</v>
       </c>
       <c r="AK34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>246.31944444444446</v>
       </c>
       <c r="AL34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>251.11111111111111</v>
       </c>
       <c r="AM34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6.3194444444444571</v>
       </c>
       <c r="AN34">
-        <f t="shared" ref="AN34:AN65" si="36">100*(_xlfn.RANK.EQ(AM34,$AM$2:$AM$73,1)-0.5)/$P$6</f>
+        <f t="shared" ref="AN34:AN65" si="37">100*(_xlfn.RANK.EQ(AM34,$AM$2:$AM$73,1)-0.5)/$P$6</f>
         <v>45.138888888888886</v>
       </c>
       <c r="AO34">
-        <f>_xlfn.NORM.INV(AN34/100,$AM$74,$AM$75)</f>
+        <f t="shared" ref="AO34:AO65" si="38">_xlfn.NORM.INV(AN34/100,$AM$74,$AM$75)</f>
         <v>-3.8423919457049842</v>
       </c>
     </row>
@@ -17618,31 +17649,31 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>120</v>
       </c>
       <c r="K35" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>56.069849570577112</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.125</v>
       </c>
       <c r="M35" s="18"/>
@@ -17662,27 +17693,27 @@
         <v>-1</v>
       </c>
       <c r="AJ35">
-        <f t="shared" ref="AJ35:AJ41" si="37">I4</f>
+        <f t="shared" ref="AJ35:AJ41" si="39">I4</f>
         <v>110</v>
       </c>
       <c r="AK35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>122.15277777777779</v>
       </c>
       <c r="AL35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>128.33333333333334</v>
       </c>
       <c r="AM35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-12.152777777777786</v>
       </c>
       <c r="AN35">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>36.805555555555557</v>
       </c>
       <c r="AO35">
-        <f>_xlfn.NORM.INV(AN35/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>-10.600760115206709</v>
       </c>
     </row>
@@ -17700,31 +17731,31 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>170</v>
       </c>
       <c r="K36" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>55.830264924475649</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.125</v>
       </c>
       <c r="M36" s="18"/>
@@ -17744,27 +17775,27 @@
         <v>-1</v>
       </c>
       <c r="AJ36">
+        <f t="shared" si="39"/>
+        <v>130</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="4"/>
+        <v>139.93055555555554</v>
+      </c>
+      <c r="AL36">
+        <f t="shared" si="33"/>
+        <v>123.33333333333333</v>
+      </c>
+      <c r="AM36">
+        <f t="shared" si="6"/>
+        <v>-9.9305555555555429</v>
+      </c>
+      <c r="AN36">
         <f t="shared" si="37"/>
-        <v>130</v>
-      </c>
-      <c r="AK36">
-        <f t="shared" si="3"/>
-        <v>139.93055555555554</v>
-      </c>
-      <c r="AL36">
-        <f t="shared" si="32"/>
-        <v>123.33333333333333</v>
-      </c>
-      <c r="AM36">
-        <f t="shared" si="5"/>
-        <v>-9.9305555555555429</v>
-      </c>
-      <c r="AN36">
-        <f t="shared" si="36"/>
         <v>39.583333333333336</v>
       </c>
       <c r="AO36">
-        <f>_xlfn.NORM.INV(AN36/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>-8.3088870314850052</v>
       </c>
     </row>
@@ -17782,31 +17813,31 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>160</v>
       </c>
       <c r="K37" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>54.085119823382421</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.125</v>
       </c>
       <c r="M37" s="18"/>
@@ -17826,27 +17857,27 @@
         <v>-1</v>
       </c>
       <c r="AJ37">
+        <f t="shared" si="39"/>
+        <v>130</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="4"/>
+        <v>126.04166666666666</v>
+      </c>
+      <c r="AL37">
+        <f t="shared" si="33"/>
+        <v>131.66666666666666</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" si="6"/>
+        <v>3.9583333333333428</v>
+      </c>
+      <c r="AN37">
         <f t="shared" si="37"/>
-        <v>130</v>
-      </c>
-      <c r="AK37">
-        <f t="shared" si="3"/>
-        <v>126.04166666666666</v>
-      </c>
-      <c r="AL37">
-        <f t="shared" si="32"/>
-        <v>131.66666666666666</v>
-      </c>
-      <c r="AM37">
-        <f t="shared" si="5"/>
-        <v>3.9583333333333428</v>
-      </c>
-      <c r="AN37">
-        <f t="shared" si="36"/>
         <v>53.472222222222221</v>
       </c>
       <c r="AO37">
-        <f>_xlfn.NORM.INV(AN37/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>2.741221183522625</v>
       </c>
     </row>
@@ -17864,19 +17895,19 @@
         <v>-1</v>
       </c>
       <c r="E38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I38">
@@ -17906,27 +17937,27 @@
         <v>1</v>
       </c>
       <c r="AJ38">
+        <f t="shared" si="39"/>
+        <v>280</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="4"/>
+        <v>273.68055555555554</v>
+      </c>
+      <c r="AL38">
+        <f t="shared" si="33"/>
+        <v>268.88888888888891</v>
+      </c>
+      <c r="AM38">
+        <f t="shared" si="6"/>
+        <v>6.3194444444444571</v>
+      </c>
+      <c r="AN38">
         <f t="shared" si="37"/>
-        <v>280</v>
-      </c>
-      <c r="AK38">
-        <f t="shared" si="3"/>
-        <v>273.68055555555554</v>
-      </c>
-      <c r="AL38">
-        <f t="shared" si="32"/>
-        <v>268.88888888888891</v>
-      </c>
-      <c r="AM38">
-        <f t="shared" si="5"/>
-        <v>6.3194444444444571</v>
-      </c>
-      <c r="AN38">
-        <f t="shared" si="36"/>
         <v>56.25</v>
       </c>
       <c r="AO38">
-        <f>_xlfn.NORM.INV(AN38/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>4.9482932683074452</v>
       </c>
     </row>
@@ -17944,23 +17975,23 @@
         <v>-1</v>
       </c>
       <c r="E39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I39">
-        <f t="shared" ref="I39:I45" si="38">H4</f>
+        <f t="shared" ref="I39:I45" si="40">H4</f>
         <v>125</v>
       </c>
       <c r="K39" s="17">
@@ -17988,27 +18019,27 @@
         <v>1</v>
       </c>
       <c r="AJ39">
+        <f t="shared" si="39"/>
+        <v>140</v>
+      </c>
+      <c r="AK39">
+        <f t="shared" si="4"/>
+        <v>149.51388888888886</v>
+      </c>
+      <c r="AL39">
+        <f t="shared" si="33"/>
+        <v>143.33333333333334</v>
+      </c>
+      <c r="AM39">
+        <f t="shared" si="6"/>
+        <v>-9.5138888888888573</v>
+      </c>
+      <c r="AN39">
         <f t="shared" si="37"/>
-        <v>140</v>
-      </c>
-      <c r="AK39">
-        <f t="shared" si="3"/>
-        <v>149.51388888888886</v>
-      </c>
-      <c r="AL39">
-        <f t="shared" si="32"/>
-        <v>143.33333333333334</v>
-      </c>
-      <c r="AM39">
-        <f t="shared" si="5"/>
-        <v>-9.5138888888888573</v>
-      </c>
-      <c r="AN39">
-        <f t="shared" si="36"/>
         <v>42.361111111111114</v>
       </c>
       <c r="AO39">
-        <f>_xlfn.NORM.INV(AN39/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>-6.0603469148980285</v>
       </c>
     </row>
@@ -18026,23 +18057,23 @@
         <v>-1</v>
       </c>
       <c r="E40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>150</v>
       </c>
       <c r="K40" s="17" t="s">
@@ -18070,27 +18101,27 @@
         <v>1</v>
       </c>
       <c r="AJ40">
+        <f t="shared" si="39"/>
+        <v>155</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" si="4"/>
+        <v>167.29166666666663</v>
+      </c>
+      <c r="AL40">
+        <f t="shared" si="33"/>
+        <v>183.88888888888889</v>
+      </c>
+      <c r="AM40">
+        <f t="shared" si="6"/>
+        <v>-12.291666666666629</v>
+      </c>
+      <c r="AN40">
         <f t="shared" si="37"/>
-        <v>155</v>
-      </c>
-      <c r="AK40">
-        <f t="shared" si="3"/>
-        <v>167.29166666666663</v>
-      </c>
-      <c r="AL40">
-        <f t="shared" si="32"/>
-        <v>183.88888888888889</v>
-      </c>
-      <c r="AM40">
-        <f t="shared" si="5"/>
-        <v>-12.291666666666629</v>
-      </c>
-      <c r="AN40">
-        <f t="shared" si="36"/>
         <v>35.416666666666664</v>
       </c>
       <c r="AO40">
-        <f>_xlfn.NORM.INV(AN40/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>-11.767374889845337</v>
       </c>
     </row>
@@ -18108,23 +18139,23 @@
         <v>-1</v>
       </c>
       <c r="E41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I41">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>130</v>
       </c>
       <c r="K41" s="19">
@@ -18155,27 +18186,27 @@
         <v>1</v>
       </c>
       <c r="AJ41">
+        <f t="shared" si="39"/>
+        <v>175</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" si="4"/>
+        <v>153.40277777777777</v>
+      </c>
+      <c r="AL41">
+        <f t="shared" si="33"/>
+        <v>147.77777777777777</v>
+      </c>
+      <c r="AM41">
+        <f t="shared" si="6"/>
+        <v>21.597222222222229</v>
+      </c>
+      <c r="AN41">
         <f t="shared" si="37"/>
-        <v>175</v>
-      </c>
-      <c r="AK41">
-        <f t="shared" si="3"/>
-        <v>153.40277777777777</v>
-      </c>
-      <c r="AL41">
-        <f t="shared" si="32"/>
-        <v>147.77777777777777</v>
-      </c>
-      <c r="AM41">
-        <f t="shared" si="5"/>
-        <v>21.597222222222229</v>
-      </c>
-      <c r="AN41">
-        <f t="shared" si="36"/>
         <v>75.694444444444443</v>
       </c>
       <c r="AO41">
-        <f>_xlfn.NORM.INV(AN41/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>21.909020319035559</v>
       </c>
     </row>
@@ -18193,23 +18224,23 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>295</v>
       </c>
       <c r="AE42">
@@ -18232,23 +18263,23 @@
         <v>280</v>
       </c>
       <c r="AK42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>246.31944444444446</v>
       </c>
       <c r="AL42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>251.11111111111111</v>
       </c>
       <c r="AM42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33.680555555555543</v>
       </c>
       <c r="AN42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>82.638888888888886</v>
       </c>
       <c r="AO42">
-        <f>_xlfn.NORM.INV(AN42/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>29.5679261366368</v>
       </c>
     </row>
@@ -18266,23 +18297,23 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I43">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>170</v>
       </c>
       <c r="AE43">
@@ -18301,27 +18332,27 @@
         <v>-1</v>
       </c>
       <c r="AJ43">
-        <f t="shared" ref="AJ43:AJ49" si="39">J4</f>
+        <f t="shared" ref="AJ43:AJ49" si="41">J4</f>
         <v>100</v>
       </c>
       <c r="AK43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>122.15277777777779</v>
       </c>
       <c r="AL43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>128.33333333333334</v>
       </c>
       <c r="AM43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-22.152777777777786</v>
       </c>
       <c r="AN43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>27.083333333333332</v>
       </c>
       <c r="AO43">
-        <f>_xlfn.NORM.INV(AN43/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>-19.197149378333389</v>
       </c>
     </row>
@@ -18339,23 +18370,23 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I44">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>135</v>
       </c>
       <c r="AE44">
@@ -18374,27 +18405,27 @@
         <v>-1</v>
       </c>
       <c r="AJ44">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>175</v>
       </c>
       <c r="AK44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>139.93055555555554</v>
       </c>
       <c r="AL44">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>123.33333333333333</v>
       </c>
       <c r="AM44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35.069444444444457</v>
       </c>
       <c r="AN44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>84.027777777777771</v>
       </c>
       <c r="AO44">
-        <f>_xlfn.NORM.INV(AN44/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>31.317146128603564</v>
       </c>
     </row>
@@ -18412,24 +18443,36 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I45">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>110</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>2</v>
+      </c>
+      <c r="M45" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>108</v>
       </c>
       <c r="AE45">
         <v>44</v>
@@ -18447,27 +18490,27 @@
         <v>-1</v>
       </c>
       <c r="AJ45">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>145</v>
       </c>
       <c r="AK45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>126.04166666666666</v>
       </c>
       <c r="AL45">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>131.66666666666666</v>
       </c>
       <c r="AM45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.958333333333343</v>
       </c>
       <c r="AN45">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>68.75</v>
       </c>
       <c r="AO45">
-        <f>_xlfn.NORM.INV(AN45/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>15.374728238070459</v>
       </c>
     </row>
@@ -18485,25 +18528,38 @@
         <v>-1</v>
       </c>
       <c r="E46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I46">
         <f>I3</f>
         <v>240</v>
       </c>
+      <c r="K46">
+        <v>-1</v>
+      </c>
+      <c r="L46">
+        <v>-1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <f>J16+K16*K46+L16*L46+M16*M46+N16*K46*L46</f>
+        <v>273.68055555555554</v>
+      </c>
       <c r="AE46">
         <v>45</v>
       </c>
@@ -18520,27 +18576,27 @@
         <v>1</v>
       </c>
       <c r="AJ46">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>220</v>
       </c>
       <c r="AK46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>273.68055555555554</v>
       </c>
       <c r="AL46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>268.88888888888891</v>
       </c>
       <c r="AM46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-53.680555555555543</v>
       </c>
       <c r="AN46">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>3.4722222222222223</v>
       </c>
       <c r="AO46">
-        <f>_xlfn.NORM.INV(AN46/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>-57.108086645888996</v>
       </c>
     </row>
@@ -18558,23 +18614,23 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F47">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I47">
-        <f t="shared" ref="I47:I53" si="40">I4</f>
+        <f t="shared" ref="I47:I53" si="42">I4</f>
         <v>110</v>
       </c>
       <c r="AE47">
@@ -18593,27 +18649,27 @@
         <v>1</v>
       </c>
       <c r="AJ47">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>135</v>
       </c>
       <c r="AK47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>149.51388888888886</v>
       </c>
       <c r="AL47">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>143.33333333333334</v>
       </c>
       <c r="AM47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-14.513888888888857</v>
       </c>
       <c r="AN47">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>34.027777777777779</v>
       </c>
       <c r="AO47">
-        <f>_xlfn.NORM.INV(AN47/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>-12.950409492828237</v>
       </c>
     </row>
@@ -18631,23 +18687,23 @@
         <v>-1</v>
       </c>
       <c r="E48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I48">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>130</v>
       </c>
       <c r="AE48">
@@ -18666,27 +18722,27 @@
         <v>1</v>
       </c>
       <c r="AJ48">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>210</v>
       </c>
       <c r="AK48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>167.29166666666663</v>
       </c>
       <c r="AL48">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>183.88888888888889</v>
       </c>
       <c r="AM48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.708333333333371</v>
       </c>
       <c r="AN48">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>86.805555555555557</v>
       </c>
       <c r="AO48">
-        <f>_xlfn.NORM.INV(AN48/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>35.143601220693029</v>
       </c>
     </row>
@@ -18704,23 +18760,23 @@
         <v>-1</v>
       </c>
       <c r="E49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>130</v>
       </c>
       <c r="AE49">
@@ -18739,27 +18795,27 @@
         <v>1</v>
       </c>
       <c r="AJ49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>150</v>
       </c>
       <c r="AK49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>153.40277777777777</v>
       </c>
       <c r="AL49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>147.77777777777777</v>
       </c>
       <c r="AM49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.4027777777777715</v>
       </c>
       <c r="AN49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>46.527777777777779</v>
       </c>
       <c r="AO49">
-        <f>_xlfn.NORM.INV(AN49/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>-2.741221183522601</v>
       </c>
     </row>
@@ -18777,23 +18833,23 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I50">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>280</v>
       </c>
       <c r="AE50">
@@ -18816,23 +18872,23 @@
         <v>235</v>
       </c>
       <c r="AK50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>246.31944444444446</v>
       </c>
       <c r="AL50">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>251.11111111111111</v>
       </c>
       <c r="AM50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-11.319444444444457</v>
       </c>
       <c r="AN50">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>38.194444444444443</v>
       </c>
       <c r="AO50">
-        <f>_xlfn.NORM.INV(AN50/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>-9.4485516983872113</v>
       </c>
     </row>
@@ -18850,23 +18906,23 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I51">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>140</v>
       </c>
       <c r="AE51">
@@ -18885,27 +18941,27 @@
         <v>-1</v>
       </c>
       <c r="AJ51">
-        <f t="shared" ref="AJ51:AJ57" si="41">K4</f>
+        <f t="shared" ref="AJ51:AJ57" si="43">K4</f>
         <v>100</v>
       </c>
       <c r="AK51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>122.15277777777779</v>
       </c>
       <c r="AL51">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>128.33333333333334</v>
       </c>
       <c r="AM51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-22.152777777777786</v>
       </c>
       <c r="AN51">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>27.083333333333332</v>
       </c>
       <c r="AO51">
-        <f>_xlfn.NORM.INV(AN51/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>-19.197149378333389</v>
       </c>
     </row>
@@ -18923,23 +18979,23 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I52">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>155</v>
       </c>
       <c r="AE52">
@@ -18958,27 +19014,27 @@
         <v>-1</v>
       </c>
       <c r="AJ52">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>110</v>
       </c>
       <c r="AK52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>139.93055555555554</v>
       </c>
       <c r="AL52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>123.33333333333333</v>
       </c>
       <c r="AM52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-29.930555555555543</v>
       </c>
       <c r="AN52">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>18.75</v>
       </c>
       <c r="AO52">
-        <f>_xlfn.NORM.INV(AN52/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>-27.905678224423582</v>
       </c>
     </row>
@@ -18996,23 +19052,23 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>175</v>
       </c>
       <c r="AE53">
@@ -19031,27 +19087,27 @@
         <v>-1</v>
       </c>
       <c r="AJ53">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>90</v>
       </c>
       <c r="AK53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>126.04166666666666</v>
       </c>
       <c r="AL53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>131.66666666666666</v>
       </c>
       <c r="AM53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-36.041666666666657</v>
       </c>
       <c r="AN53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>15.972222222222221</v>
       </c>
       <c r="AO53">
-        <f>_xlfn.NORM.INV(AN53/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>-31.317146128603639</v>
       </c>
     </row>
@@ -19069,19 +19125,19 @@
         <v>-1</v>
       </c>
       <c r="E54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I54">
@@ -19104,27 +19160,27 @@
         <v>1</v>
       </c>
       <c r="AJ54">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>290</v>
       </c>
       <c r="AK54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>273.68055555555554</v>
       </c>
       <c r="AL54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>268.88888888888891</v>
       </c>
       <c r="AM54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.319444444444457</v>
       </c>
       <c r="AN54">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>65.972222222222229</v>
       </c>
       <c r="AO54">
-        <f>_xlfn.NORM.INV(AN54/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>12.950409492828273</v>
       </c>
     </row>
@@ -19142,23 +19198,23 @@
         <v>-1</v>
       </c>
       <c r="E55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H55">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I55">
-        <f t="shared" ref="I55:I61" si="42">J4</f>
+        <f t="shared" ref="I55:I61" si="44">J4</f>
         <v>100</v>
       </c>
       <c r="AE55">
@@ -19177,27 +19233,27 @@
         <v>1</v>
       </c>
       <c r="AJ55">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>130</v>
       </c>
       <c r="AK55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>149.51388888888886</v>
       </c>
       <c r="AL55">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>143.33333333333334</v>
       </c>
       <c r="AM55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-19.513888888888857</v>
       </c>
       <c r="AN55">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>29.861111111111111</v>
       </c>
       <c r="AO55">
-        <f>_xlfn.NORM.INV(AN55/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>-16.621087836872164</v>
       </c>
     </row>
@@ -19215,23 +19271,23 @@
         <v>-1</v>
       </c>
       <c r="E56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I56">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>175</v>
       </c>
       <c r="AE56">
@@ -19250,27 +19306,27 @@
         <v>1</v>
       </c>
       <c r="AJ56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>150</v>
       </c>
       <c r="AK56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>167.29166666666663</v>
       </c>
       <c r="AL56">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>183.88888888888889</v>
       </c>
       <c r="AM56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-17.291666666666629</v>
       </c>
       <c r="AN56">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>31.25</v>
       </c>
       <c r="AO56">
-        <f>_xlfn.NORM.INV(AN56/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>-15.374728238070434</v>
       </c>
     </row>
@@ -19288,23 +19344,23 @@
         <v>-1</v>
       </c>
       <c r="E57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I57">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>145</v>
       </c>
       <c r="AE57">
@@ -19323,27 +19379,27 @@
         <v>1</v>
       </c>
       <c r="AJ57">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>115</v>
       </c>
       <c r="AK57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>153.40277777777777</v>
       </c>
       <c r="AL57">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>147.77777777777777</v>
       </c>
       <c r="AM57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-38.402777777777771</v>
       </c>
       <c r="AN57">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>13.194444444444445</v>
       </c>
       <c r="AO57">
-        <f>_xlfn.NORM.INV(AN57/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>-35.143601220693</v>
       </c>
     </row>
@@ -19361,23 +19417,23 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I58">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>220</v>
       </c>
       <c r="AE58">
@@ -19400,23 +19456,23 @@
         <v>290</v>
       </c>
       <c r="AK58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>246.31944444444446</v>
       </c>
       <c r="AL58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>251.11111111111111</v>
       </c>
       <c r="AM58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43.680555555555543</v>
       </c>
       <c r="AN58">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>90.972222222222229</v>
       </c>
       <c r="AO58">
-        <f>_xlfn.NORM.INV(AN58/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>42.120435070013713</v>
       </c>
     </row>
@@ -19434,23 +19490,23 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I59">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>135</v>
       </c>
       <c r="AE59">
@@ -19469,27 +19525,27 @@
         <v>-1</v>
       </c>
       <c r="AJ59">
-        <f t="shared" ref="AJ59:AJ65" si="43">L4</f>
+        <f t="shared" ref="AJ59:AJ65" si="45">L4</f>
         <v>125</v>
       </c>
       <c r="AK59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>122.15277777777779</v>
       </c>
       <c r="AL59">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>128.33333333333334</v>
       </c>
       <c r="AM59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8472222222222143</v>
       </c>
       <c r="AN59">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>50.694444444444443</v>
       </c>
       <c r="AO59">
-        <f>_xlfn.NORM.INV(AN59/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>0.54757875009489654</v>
       </c>
     </row>
@@ -19507,23 +19563,23 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I60">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>210</v>
       </c>
       <c r="AE60">
@@ -19542,27 +19598,27 @@
         <v>-1</v>
       </c>
       <c r="AJ60">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>160</v>
       </c>
       <c r="AK60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>139.93055555555554</v>
       </c>
       <c r="AL60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>123.33333333333333</v>
       </c>
       <c r="AM60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.069444444444457</v>
       </c>
       <c r="AN60">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>71.527777777777771</v>
       </c>
       <c r="AO60">
-        <f>_xlfn.NORM.INV(AN60/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>17.894112054763355</v>
       </c>
     </row>
@@ -19580,23 +19636,23 @@
         <v>1</v>
       </c>
       <c r="E61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I61">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>150</v>
       </c>
       <c r="AE61">
@@ -19615,27 +19671,27 @@
         <v>-1</v>
       </c>
       <c r="AJ61">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>110</v>
       </c>
       <c r="AK61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>126.04166666666666</v>
       </c>
       <c r="AL61">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>131.66666666666666</v>
       </c>
       <c r="AM61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-16.041666666666657</v>
       </c>
       <c r="AN61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>32.638888888888886</v>
       </c>
       <c r="AO61">
-        <f>_xlfn.NORM.INV(AN61/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>-14.152057622445941</v>
       </c>
     </row>
@@ -19653,19 +19709,19 @@
         <v>-1</v>
       </c>
       <c r="E62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I62">
@@ -19688,27 +19744,27 @@
         <v>1</v>
       </c>
       <c r="AJ62">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>250</v>
       </c>
       <c r="AK62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>273.68055555555554</v>
       </c>
       <c r="AL62">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>268.88888888888891</v>
       </c>
       <c r="AM62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-23.680555555555543</v>
       </c>
       <c r="AN62">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>25.694444444444443</v>
       </c>
       <c r="AO62">
-        <f>_xlfn.NORM.INV(AN62/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>-20.534000754096436</v>
       </c>
     </row>
@@ -19726,23 +19782,23 @@
         <v>-1</v>
       </c>
       <c r="E63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G63">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I63">
-        <f t="shared" ref="I63:I69" si="44">K4</f>
+        <f t="shared" ref="I63:I69" si="46">K4</f>
         <v>100</v>
       </c>
       <c r="AE63">
@@ -19761,27 +19817,27 @@
         <v>1</v>
       </c>
       <c r="AJ63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>110</v>
       </c>
       <c r="AK63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>149.51388888888886</v>
       </c>
       <c r="AL63">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>143.33333333333334</v>
       </c>
       <c r="AM63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-39.513888888888857</v>
       </c>
       <c r="AN63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>11.805555555555555</v>
       </c>
       <c r="AO63">
-        <f>_xlfn.NORM.INV(AN63/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>-37.267369807683195</v>
       </c>
     </row>
@@ -19799,23 +19855,23 @@
         <v>-1</v>
       </c>
       <c r="E64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G64">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>110</v>
       </c>
       <c r="AE64">
@@ -19834,27 +19890,27 @@
         <v>1</v>
       </c>
       <c r="AJ64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>185</v>
       </c>
       <c r="AK64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>167.29166666666663</v>
       </c>
       <c r="AL64">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>183.88888888888889</v>
       </c>
       <c r="AM64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.708333333333371</v>
       </c>
       <c r="AN64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>67.361111111111114</v>
       </c>
       <c r="AO64">
-        <f>_xlfn.NORM.INV(AN64/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>14.152057622445966</v>
       </c>
     </row>
@@ -19872,23 +19928,23 @@
         <v>-1</v>
       </c>
       <c r="E65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>90</v>
       </c>
       <c r="AE65">
@@ -19907,27 +19963,27 @@
         <v>1</v>
       </c>
       <c r="AJ65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>180</v>
       </c>
       <c r="AK65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>153.40277777777777</v>
       </c>
       <c r="AL65">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>147.77777777777777</v>
       </c>
       <c r="AM65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26.597222222222229</v>
       </c>
       <c r="AN65">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>78.472222222222229</v>
       </c>
       <c r="AO65">
-        <f>_xlfn.NORM.INV(AN65/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="38"/>
         <v>24.79456051546158</v>
       </c>
     </row>
@@ -19945,23 +20001,23 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G66">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I66">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>290</v>
       </c>
       <c r="AE66">
@@ -19984,23 +20040,23 @@
         <v>270</v>
       </c>
       <c r="AK66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>246.31944444444446</v>
       </c>
       <c r="AL66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>251.11111111111111</v>
       </c>
       <c r="AM66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.680555555555543</v>
       </c>
       <c r="AN66">
-        <f t="shared" ref="AN66:AN73" si="45">100*(_xlfn.RANK.EQ(AM66,$AM$2:$AM$73,1)-0.5)/$P$6</f>
+        <f t="shared" ref="AN66:AN73" si="47">100*(_xlfn.RANK.EQ(AM66,$AM$2:$AM$73,1)-0.5)/$P$6</f>
         <v>77.083333333333329</v>
       </c>
       <c r="AO66">
-        <f>_xlfn.NORM.INV(AN66/100,$AM$74,$AM$75)</f>
+        <f t="shared" ref="AO66:AO73" si="48">_xlfn.NORM.INV(AN66/100,$AM$74,$AM$75)</f>
         <v>23.327244580687402</v>
       </c>
     </row>
@@ -20018,23 +20074,23 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>130</v>
       </c>
       <c r="AE67">
@@ -20053,27 +20109,27 @@
         <v>-1</v>
       </c>
       <c r="AJ67">
-        <f t="shared" ref="AJ67:AJ73" si="46">M4</f>
+        <f t="shared" ref="AJ67:AJ73" si="49">M4</f>
         <v>170</v>
       </c>
       <c r="AK67">
-        <f t="shared" ref="AK67:AK73" si="47">$J$16+$K$16*AG67+$L$16*AH67+$M$16*AI67+$N$16*AG67*AH67</f>
+        <f t="shared" ref="AK67:AK73" si="50">$J$16+$K$16*AG67+$L$16*AH67+$M$16*AI67+$N$16*AG67*AH67</f>
         <v>122.15277777777779</v>
       </c>
       <c r="AL67">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>128.33333333333334</v>
       </c>
       <c r="AM67">
-        <f t="shared" ref="AM67:AM73" si="48">AJ67-AK67</f>
+        <f t="shared" ref="AM67:AM73" si="51">AJ67-AK67</f>
         <v>47.847222222222214</v>
       </c>
       <c r="AN67">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>95.138888888888886</v>
       </c>
       <c r="AO67">
-        <f>_xlfn.NORM.INV(AN67/100,$AM$74,$AM$75)</f>
+        <f t="shared" si="48"/>
         <v>52.168142015497672</v>
       </c>
     </row>
@@ -20091,23 +20147,23 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I68">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>150</v>
       </c>
       <c r="AE68">
@@ -20126,27 +20182,27 @@
         <v>-1</v>
       </c>
       <c r="AJ68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>130</v>
       </c>
       <c r="AK68">
+        <f t="shared" si="50"/>
+        <v>139.93055555555554</v>
+      </c>
+      <c r="AL68">
+        <f t="shared" si="33"/>
+        <v>123.33333333333333</v>
+      </c>
+      <c r="AM68">
+        <f t="shared" si="51"/>
+        <v>-9.9305555555555429</v>
+      </c>
+      <c r="AN68">
         <f t="shared" si="47"/>
-        <v>139.93055555555554</v>
-      </c>
-      <c r="AL68">
-        <f t="shared" si="32"/>
-        <v>123.33333333333333</v>
-      </c>
-      <c r="AM68">
+        <v>39.583333333333336</v>
+      </c>
+      <c r="AO68">
         <f t="shared" si="48"/>
-        <v>-9.9305555555555429</v>
-      </c>
-      <c r="AN68">
-        <f t="shared" si="45"/>
-        <v>39.583333333333336</v>
-      </c>
-      <c r="AO68">
-        <f>_xlfn.NORM.INV(AN68/100,$AM$74,$AM$75)</f>
         <v>-8.3088870314850052</v>
       </c>
     </row>
@@ -20164,23 +20220,23 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H69">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I69">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>115</v>
       </c>
       <c r="AE69">
@@ -20199,27 +20255,27 @@
         <v>-1</v>
       </c>
       <c r="AJ69">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="AK69">
+        <f t="shared" si="50"/>
+        <v>126.04166666666666</v>
+      </c>
+      <c r="AL69">
+        <f t="shared" si="33"/>
+        <v>131.66666666666666</v>
+      </c>
+      <c r="AM69">
+        <f t="shared" si="51"/>
+        <v>-26.041666666666657</v>
+      </c>
+      <c r="AN69">
         <f t="shared" si="47"/>
-        <v>126.04166666666666</v>
-      </c>
-      <c r="AL69">
-        <f t="shared" si="32"/>
-        <v>131.66666666666666</v>
-      </c>
-      <c r="AM69">
+        <v>22.916666666666668</v>
+      </c>
+      <c r="AO69">
         <f t="shared" si="48"/>
-        <v>-26.041666666666657</v>
-      </c>
-      <c r="AN69">
-        <f t="shared" si="45"/>
-        <v>22.916666666666668</v>
-      </c>
-      <c r="AO69">
-        <f>_xlfn.NORM.INV(AN69/100,$AM$74,$AM$75)</f>
         <v>-23.327244580687378</v>
       </c>
     </row>
@@ -20237,19 +20293,19 @@
         <v>-1</v>
       </c>
       <c r="E70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I70">
@@ -20272,27 +20328,27 @@
         <v>1</v>
       </c>
       <c r="AJ70">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>280</v>
       </c>
       <c r="AK70">
+        <f t="shared" si="50"/>
+        <v>273.68055555555554</v>
+      </c>
+      <c r="AL70">
+        <f t="shared" si="33"/>
+        <v>268.88888888888891</v>
+      </c>
+      <c r="AM70">
+        <f t="shared" si="51"/>
+        <v>6.3194444444444571</v>
+      </c>
+      <c r="AN70">
         <f t="shared" si="47"/>
-        <v>273.68055555555554</v>
-      </c>
-      <c r="AL70">
-        <f t="shared" si="32"/>
-        <v>268.88888888888891</v>
-      </c>
-      <c r="AM70">
+        <v>56.25</v>
+      </c>
+      <c r="AO70">
         <f t="shared" si="48"/>
-        <v>6.3194444444444571</v>
-      </c>
-      <c r="AN70">
-        <f t="shared" si="45"/>
-        <v>56.25</v>
-      </c>
-      <c r="AO70">
-        <f>_xlfn.NORM.INV(AN70/100,$AM$74,$AM$75)</f>
         <v>4.9482932683074452</v>
       </c>
     </row>
@@ -20310,23 +20366,23 @@
         <v>-1</v>
       </c>
       <c r="E71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I71">
-        <f t="shared" ref="I71:I77" si="49">L4</f>
+        <f t="shared" ref="I71:I77" si="52">L4</f>
         <v>125</v>
       </c>
       <c r="AE71">
@@ -20345,27 +20401,27 @@
         <v>1</v>
       </c>
       <c r="AJ71">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>220</v>
       </c>
       <c r="AK71">
+        <f t="shared" si="50"/>
+        <v>149.51388888888886</v>
+      </c>
+      <c r="AL71">
+        <f t="shared" si="33"/>
+        <v>143.33333333333334</v>
+      </c>
+      <c r="AM71">
+        <f t="shared" si="51"/>
+        <v>70.486111111111143</v>
+      </c>
+      <c r="AN71">
         <f t="shared" si="47"/>
-        <v>149.51388888888886</v>
-      </c>
-      <c r="AL71">
-        <f t="shared" si="32"/>
-        <v>143.33333333333334</v>
-      </c>
-      <c r="AM71">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="AO71">
         <f t="shared" si="48"/>
-        <v>70.486111111111143</v>
-      </c>
-      <c r="AN71">
-        <f t="shared" si="45"/>
-        <v>99.305555555555557</v>
-      </c>
-      <c r="AO71">
-        <f>_xlfn.NORM.INV(AN71/100,$AM$74,$AM$75)</f>
         <v>77.384551017079474</v>
       </c>
     </row>
@@ -20383,23 +20439,23 @@
         <v>-1</v>
       </c>
       <c r="E72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I72">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>160</v>
       </c>
       <c r="AE72">
@@ -20418,27 +20474,27 @@
         <v>1</v>
       </c>
       <c r="AJ72">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>210</v>
       </c>
       <c r="AK72">
+        <f t="shared" si="50"/>
+        <v>167.29166666666663</v>
+      </c>
+      <c r="AL72">
+        <f t="shared" si="33"/>
+        <v>183.88888888888889</v>
+      </c>
+      <c r="AM72">
+        <f t="shared" si="51"/>
+        <v>42.708333333333371</v>
+      </c>
+      <c r="AN72">
         <f t="shared" si="47"/>
-        <v>167.29166666666663</v>
-      </c>
-      <c r="AL72">
-        <f t="shared" si="32"/>
-        <v>183.88888888888889</v>
-      </c>
-      <c r="AM72">
+        <v>86.805555555555557</v>
+      </c>
+      <c r="AO72">
         <f t="shared" si="48"/>
-        <v>42.708333333333371</v>
-      </c>
-      <c r="AN72">
-        <f t="shared" si="45"/>
-        <v>86.805555555555557</v>
-      </c>
-      <c r="AO72">
-        <f>_xlfn.NORM.INV(AN72/100,$AM$74,$AM$75)</f>
         <v>35.143601220693029</v>
       </c>
     </row>
@@ -20456,23 +20512,23 @@
         <v>-1</v>
       </c>
       <c r="E73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I73">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>110</v>
       </c>
       <c r="AE73">
@@ -20491,27 +20547,27 @@
         <v>1</v>
       </c>
       <c r="AJ73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>180</v>
       </c>
       <c r="AK73">
+        <f t="shared" si="50"/>
+        <v>153.40277777777777</v>
+      </c>
+      <c r="AL73">
+        <f t="shared" si="33"/>
+        <v>147.77777777777777</v>
+      </c>
+      <c r="AM73">
+        <f t="shared" si="51"/>
+        <v>26.597222222222229</v>
+      </c>
+      <c r="AN73">
         <f t="shared" si="47"/>
-        <v>153.40277777777777</v>
-      </c>
-      <c r="AL73">
-        <f t="shared" si="32"/>
-        <v>147.77777777777777</v>
-      </c>
-      <c r="AM73">
+        <v>78.472222222222229</v>
+      </c>
+      <c r="AO73">
         <f t="shared" si="48"/>
-        <v>26.597222222222229</v>
-      </c>
-      <c r="AN73">
-        <f t="shared" si="45"/>
-        <v>78.472222222222229</v>
-      </c>
-      <c r="AO73">
-        <f>_xlfn.NORM.INV(AN73/100,$AM$74,$AM$75)</f>
         <v>24.79456051546158</v>
       </c>
     </row>
@@ -20529,23 +20585,23 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I74">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>250</v>
       </c>
       <c r="AL74" t="s">
@@ -20570,23 +20626,23 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H75">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I75">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>110</v>
       </c>
       <c r="AL75" t="s">
@@ -20611,23 +20667,23 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="F76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I76">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>185</v>
       </c>
     </row>
@@ -20645,23 +20701,23 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H77">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I77">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>180</v>
       </c>
     </row>
@@ -20679,19 +20735,19 @@
         <v>-1</v>
       </c>
       <c r="E78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H78">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I78">
@@ -20713,23 +20769,23 @@
         <v>-1</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E85" si="50">B79*C79</f>
+        <f t="shared" ref="E79:E85" si="53">B79*C79</f>
         <v>-1</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79:F85" si="51">C79*D79</f>
+        <f t="shared" ref="F79:F85" si="54">C79*D79</f>
         <v>1</v>
       </c>
       <c r="G79">
-        <f t="shared" ref="G79:G85" si="52">B79*D79</f>
+        <f t="shared" ref="G79:G85" si="55">B79*D79</f>
         <v>-1</v>
       </c>
       <c r="H79">
-        <f t="shared" ref="H79:H85" si="53">B79*C79*D79</f>
+        <f t="shared" ref="H79:H85" si="56">B79*C79*D79</f>
         <v>1</v>
       </c>
       <c r="I79">
-        <f t="shared" ref="I79:I85" si="54">M4</f>
+        <f t="shared" ref="I79:I85" si="57">M4</f>
         <v>170</v>
       </c>
     </row>
@@ -20747,23 +20803,23 @@
         <v>-1</v>
       </c>
       <c r="E80">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-1</v>
       </c>
       <c r="F80">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>-1</v>
       </c>
       <c r="G80">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="H80">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="I80">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>130</v>
       </c>
     </row>
@@ -20781,23 +20837,23 @@
         <v>-1</v>
       </c>
       <c r="E81">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="F81">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>-1</v>
       </c>
       <c r="G81">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>-1</v>
       </c>
       <c r="H81">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-1</v>
       </c>
       <c r="I81">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>100</v>
       </c>
     </row>
@@ -20815,23 +20871,23 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="F82">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>-1</v>
       </c>
       <c r="G82">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>-1</v>
       </c>
       <c r="H82">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="I82">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>280</v>
       </c>
     </row>
@@ -20849,23 +20905,23 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-1</v>
       </c>
       <c r="F83">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>-1</v>
       </c>
       <c r="G83">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="H83">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-1</v>
       </c>
       <c r="I83">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>220</v>
       </c>
     </row>
@@ -20883,23 +20939,23 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-1</v>
       </c>
       <c r="F84">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="G84">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>-1</v>
       </c>
       <c r="H84">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-1</v>
       </c>
       <c r="I84">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>210</v>
       </c>
     </row>
@@ -20917,23 +20973,23 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="F85">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="G85">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="H85">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="I85">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>180</v>
       </c>
     </row>
@@ -20968,7 +21024,7 @@
   <dimension ref="B1:R30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -20986,21 +21042,21 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="39" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="39" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="44"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="45"/>
       <c r="O1" s="16"/>
       <c r="P1" s="14" t="s">
         <v>23</v>
@@ -22164,2114 +22220,2957 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84FC70-DF1D-4EB8-93B9-4E50CD9A7490}">
-  <dimension ref="A1:X73"/>
+  <dimension ref="A1:Z73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S20" sqref="S20:U20"/>
+      <selection activeCell="L14" sqref="L14:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.75" customWidth="1"/>
-    <col min="9" max="9" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.75" customWidth="1"/>
+    <col min="11" max="11" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="M1" s="45" t="s">
+      <c r="D1" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="W1" t="s">
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="Y1" t="s">
         <v>0</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7">
+      <c r="D2" s="7">
         <f>297/2</f>
         <v>148.5</v>
       </c>
-      <c r="C2" s="9">
+      <c r="E2" s="9">
         <v>210</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>4</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>5</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>5</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>6</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>4</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>5</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>6</v>
       </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <f>J25</f>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <f>L25</f>
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="D3" s="6">
         <f>2/5</f>
         <v>0.4</v>
       </c>
-      <c r="C3" s="10">
+      <c r="E3" s="10">
         <v>0.5</v>
       </c>
-      <c r="D3">
-        <f>$B$2*B3</f>
+      <c r="F3">
+        <f>$D$2*D3</f>
         <v>59.400000000000006</v>
       </c>
-      <c r="E3">
-        <f>$B$2*C3</f>
+      <c r="G3">
+        <f>$D$2*E3</f>
         <v>74.25</v>
       </c>
-      <c r="F3">
-        <f>$C$2*B3</f>
+      <c r="H3">
+        <f>$E$2*D3</f>
         <v>84</v>
       </c>
-      <c r="G3">
-        <f>$C$2*C3</f>
+      <c r="I3">
+        <f>$E$2*E3</f>
         <v>105</v>
       </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6">
         <f>297/2</f>
         <v>148.5</v>
       </c>
-      <c r="K3" s="6">
+      <c r="M3" s="6">
         <f>2/5</f>
         <v>0.4</v>
       </c>
-      <c r="L3" s="6">
+      <c r="N3" s="6">
         <v>0.8</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>190</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>245</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>195</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>195</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>138</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>205</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>192</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>210</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>212</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>2</v>
       </c>
-      <c r="X3">
-        <f t="shared" ref="X3:X9" si="0">J26</f>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z9" si="0">L26</f>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8">
+      <c r="D4" s="8">
         <v>0.8</v>
       </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
         <v>2</v>
       </c>
-      <c r="J4" s="6">
+      <c r="L4" s="6">
         <v>210</v>
       </c>
-      <c r="K4" s="6">
+      <c r="M4" s="6">
         <f>2/5</f>
         <v>0.4</v>
       </c>
-      <c r="L4" s="6">
+      <c r="N4" s="6">
         <v>0.8</v>
       </c>
-      <c r="M4" s="12">
+      <c r="O4" s="12">
         <v>156</v>
       </c>
-      <c r="N4" s="12">
+      <c r="P4" s="12">
         <v>230</v>
       </c>
-      <c r="O4" s="12">
+      <c r="Q4" s="12">
         <v>167</v>
       </c>
-      <c r="P4" s="12">
+      <c r="R4" s="12">
         <v>115</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="S4" s="12">
         <v>158</v>
       </c>
-      <c r="R4" s="12">
+      <c r="T4" s="12">
         <v>170</v>
       </c>
-      <c r="S4" s="12">
+      <c r="U4" s="12">
         <v>165</v>
       </c>
-      <c r="T4" s="12">
+      <c r="V4" s="12">
         <v>174</v>
       </c>
-      <c r="U4" s="12">
+      <c r="W4" s="12">
         <v>170</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>3</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="I5" s="6">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K5" s="6">
         <v>3</v>
       </c>
-      <c r="J5" s="6">
+      <c r="L5" s="6">
         <f>297/2</f>
         <v>148.5</v>
       </c>
-      <c r="K5" s="6">
+      <c r="M5" s="6">
         <v>0.5</v>
       </c>
-      <c r="L5" s="6">
+      <c r="N5" s="6">
         <v>0.8</v>
       </c>
-      <c r="M5" s="12">
+      <c r="O5" s="12">
         <v>87.5</v>
       </c>
-      <c r="N5" s="12">
+      <c r="P5" s="12">
         <v>92</v>
       </c>
-      <c r="O5" s="12">
+      <c r="Q5" s="12">
         <v>75</v>
       </c>
-      <c r="P5" s="12">
+      <c r="R5" s="12">
         <v>73</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="S5" s="12">
         <v>89</v>
       </c>
-      <c r="R5" s="12">
+      <c r="T5" s="12">
         <v>108</v>
       </c>
-      <c r="S5" s="12">
+      <c r="U5" s="12">
         <v>146</v>
       </c>
-      <c r="T5" s="12">
+      <c r="V5" s="12">
         <v>257</v>
       </c>
-      <c r="U5" s="12">
+      <c r="W5" s="12">
         <v>290</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>4</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="6" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="6">
+      <c r="K6" s="6">
         <v>4</v>
       </c>
-      <c r="J6" s="6">
+      <c r="L6" s="6">
         <v>210</v>
       </c>
-      <c r="K6" s="6">
+      <c r="M6" s="6">
         <v>0.5</v>
       </c>
-      <c r="L6" s="6">
+      <c r="N6" s="6">
         <v>0.8</v>
       </c>
-      <c r="M6" s="12">
+      <c r="O6" s="12">
         <v>245</v>
       </c>
-      <c r="N6" s="12">
+      <c r="P6" s="12">
         <v>262</v>
       </c>
-      <c r="O6" s="12">
+      <c r="Q6" s="12">
         <v>310</v>
       </c>
-      <c r="P6" s="12">
+      <c r="R6" s="12">
         <v>190</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="S6" s="12">
         <v>185</v>
       </c>
-      <c r="R6" s="12">
+      <c r="T6" s="12">
         <v>181</v>
       </c>
-      <c r="S6" s="12">
+      <c r="U6" s="12">
         <v>263</v>
       </c>
-      <c r="T6" s="12">
+      <c r="V6" s="12">
         <v>250</v>
       </c>
-      <c r="U6" s="12">
+      <c r="W6" s="12">
         <v>285</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>5</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C7" s="31">
-        <v>1</v>
-      </c>
-      <c r="D7" s="32" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>77</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="6">
+      <c r="K7" s="6">
         <v>5</v>
       </c>
-      <c r="J7" s="6">
+      <c r="L7" s="6">
         <f>297/2</f>
         <v>148.5</v>
       </c>
-      <c r="K7" s="6">
+      <c r="M7" s="6">
         <f>2/5</f>
         <v>0.4</v>
       </c>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="12">
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="12">
         <v>305</v>
       </c>
-      <c r="N7" s="12">
+      <c r="P7" s="12">
         <v>315</v>
       </c>
-      <c r="O7" s="12">
+      <c r="Q7" s="12">
         <v>228</v>
       </c>
-      <c r="P7" s="12">
+      <c r="R7" s="12">
         <v>257</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="S7" s="12">
         <v>230</v>
       </c>
-      <c r="R7" s="12">
+      <c r="T7" s="12">
         <v>243.5</v>
       </c>
-      <c r="S7" s="12">
+      <c r="U7" s="12">
         <v>113</v>
       </c>
-      <c r="T7" s="12">
+      <c r="V7" s="12">
         <v>157.5</v>
       </c>
-      <c r="U7" s="12">
+      <c r="W7" s="12">
         <v>90</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>6</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C8" s="31">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="18">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="31">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>73</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>72</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="6">
+      <c r="K8" s="6">
         <v>6</v>
       </c>
-      <c r="J8" s="6">
+      <c r="L8" s="6">
         <v>210</v>
       </c>
-      <c r="K8" s="6">
+      <c r="M8" s="6">
         <f>2/5</f>
         <v>0.4</v>
       </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="12">
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="12">
         <v>148</v>
       </c>
-      <c r="N8" s="12">
+      <c r="P8" s="12">
         <v>119</v>
       </c>
-      <c r="O8" s="12">
+      <c r="Q8" s="12">
         <v>120</v>
       </c>
-      <c r="P8" s="12">
+      <c r="R8" s="12">
         <v>273</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="S8" s="12">
         <v>207</v>
       </c>
-      <c r="R8" s="12">
+      <c r="T8" s="12">
         <v>155</v>
       </c>
-      <c r="S8" s="12">
+      <c r="U8" s="12">
         <v>210</v>
       </c>
-      <c r="T8" s="12">
+      <c r="V8" s="12">
         <v>243</v>
       </c>
-      <c r="U8" s="12">
+      <c r="W8" s="12">
         <v>171</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>7</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C9" s="31">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="18">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="31">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>94</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>84</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="6">
+      <c r="K9" s="6">
         <v>7</v>
       </c>
-      <c r="J9" s="6">
+      <c r="L9" s="6">
         <f>297/2</f>
         <v>148.5</v>
       </c>
-      <c r="K9" s="6">
+      <c r="M9" s="6">
         <v>0.5</v>
       </c>
-      <c r="L9" s="6">
-        <v>1</v>
-      </c>
-      <c r="M9" s="12">
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="12">
         <v>175</v>
       </c>
-      <c r="N9" s="12">
+      <c r="P9" s="12">
         <v>137.5</v>
       </c>
-      <c r="O9" s="12">
+      <c r="Q9" s="12">
         <v>174</v>
       </c>
-      <c r="P9" s="12">
+      <c r="R9" s="12">
         <v>171</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="S9" s="12">
         <v>163</v>
       </c>
-      <c r="R9" s="12">
+      <c r="T9" s="12">
         <v>180</v>
       </c>
-      <c r="S9" s="12">
+      <c r="U9" s="12">
         <v>212</v>
       </c>
-      <c r="T9" s="12">
+      <c r="V9" s="12">
         <v>241</v>
       </c>
-      <c r="U9" s="12">
+      <c r="W9" s="12">
         <v>255</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>8</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C10" s="31">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="31">
         <v>4</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="F10" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>79</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="6">
+      <c r="K10" s="6">
         <v>8</v>
       </c>
-      <c r="J10" s="6">
+      <c r="L10" s="6">
         <v>210</v>
       </c>
-      <c r="K10" s="6">
+      <c r="M10" s="6">
         <v>0.5</v>
       </c>
-      <c r="L10" s="6">
-        <v>1</v>
-      </c>
-      <c r="M10" s="12">
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="12">
         <v>146.5</v>
       </c>
-      <c r="N10" s="12">
+      <c r="P10" s="12">
         <v>145</v>
       </c>
-      <c r="O10" s="12">
+      <c r="Q10" s="12">
         <v>150</v>
       </c>
-      <c r="P10" s="12">
+      <c r="R10" s="12">
         <v>302</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="S10" s="12">
         <v>327</v>
       </c>
-      <c r="R10" s="12">
+      <c r="T10" s="12">
         <v>256.5</v>
       </c>
-      <c r="S10" s="12">
+      <c r="U10" s="12">
         <v>154</v>
       </c>
-      <c r="T10" s="12">
+      <c r="V10" s="12">
         <v>174</v>
       </c>
-      <c r="U10" s="12">
+      <c r="W10" s="12">
         <v>186</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>9</v>
       </c>
-      <c r="X10">
-        <f>K25+24</f>
+      <c r="Z10">
+        <f>M25+24</f>
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C11" s="31">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="31">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>74</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>90</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>76</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>10</v>
       </c>
-      <c r="X11">
-        <f t="shared" ref="X11:X17" si="1">K26+24</f>
+      <c r="Z11">
+        <f t="shared" ref="Z11:Z17" si="1">M26+24</f>
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C12" s="31">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1</v>
+      </c>
+      <c r="E12" s="31">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>75</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>92</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>83</v>
       </c>
-      <c r="M12" s="45" t="s">
+      <c r="O12" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45" t="s">
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45" t="s">
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="W12">
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="Y12">
         <v>11</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C13" s="31">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="31">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>76</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>71</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="N13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>4</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>5</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>6</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>5</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
         <v>6</v>
       </c>
-      <c r="S13" t="s">
+      <c r="U13" t="s">
         <v>4</v>
       </c>
-      <c r="T13" t="s">
+      <c r="V13" t="s">
         <v>5</v>
       </c>
-      <c r="U13" t="s">
+      <c r="W13" t="s">
         <v>6</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>95</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>12</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C14" s="31">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1</v>
+      </c>
+      <c r="E14" s="31">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>77</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>74</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="6">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6">
         <f>297/2</f>
         <v>148.5</v>
       </c>
-      <c r="K14" s="6">
+      <c r="M14" s="6">
         <f>2/5</f>
         <v>0.4</v>
       </c>
-      <c r="L14" s="6">
+      <c r="N14" s="6">
         <v>0.8</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>255</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>275</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>210</v>
       </c>
-      <c r="P14" s="37">
+      <c r="R14" s="37">
         <v>205</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="S14" s="37">
         <v>240</v>
       </c>
-      <c r="R14" s="37">
+      <c r="T14" s="37">
         <v>280</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>235</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>290</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>270</v>
       </c>
-      <c r="V14">
-        <f>AVERAGE(M14:U14)</f>
+      <c r="X14">
+        <f>AVERAGE(O14:W14)</f>
         <v>251.11111111111111</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>13</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C15" s="31">
+    <row r="15" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>8</v>
+      </c>
+      <c r="B15" s="20">
+        <v>1</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1</v>
+      </c>
+      <c r="D15" s="21">
+        <v>1</v>
+      </c>
+      <c r="E15" s="31">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>78</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="6">
+      <c r="K15" s="6">
         <v>2</v>
       </c>
-      <c r="J15" s="6">
+      <c r="L15" s="6">
         <v>210</v>
       </c>
-      <c r="K15" s="6">
+      <c r="M15" s="6">
         <f>2/5</f>
         <v>0.4</v>
       </c>
-      <c r="L15" s="6">
+      <c r="N15" s="6">
         <v>0.8</v>
       </c>
-      <c r="M15" s="37">
+      <c r="O15" s="37">
         <v>130</v>
       </c>
-      <c r="N15" s="37">
+      <c r="P15" s="37">
         <v>130</v>
       </c>
-      <c r="O15" s="37">
+      <c r="Q15" s="37">
         <v>165</v>
       </c>
-      <c r="P15" s="37">
+      <c r="R15" s="37">
         <v>125</v>
       </c>
-      <c r="Q15" s="37">
+      <c r="S15" s="37">
         <v>110</v>
       </c>
-      <c r="R15" s="37">
+      <c r="T15" s="37">
         <v>100</v>
       </c>
-      <c r="S15" s="12">
+      <c r="U15" s="12">
         <v>100</v>
       </c>
-      <c r="T15" s="12">
+      <c r="V15" s="12">
         <v>125</v>
       </c>
-      <c r="U15" s="12">
+      <c r="W15" s="12">
         <v>170</v>
       </c>
-      <c r="V15">
-        <f>AVERAGE(M15:U15)</f>
+      <c r="X15">
+        <f>AVERAGE(O15:W15)</f>
         <v>128.33333333333334</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>14</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C16" s="31">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E16" s="31">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>79</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>83</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="6">
+      <c r="K16" s="6">
         <v>3</v>
       </c>
-      <c r="J16" s="6">
+      <c r="L16" s="6">
         <f>297/2</f>
         <v>148.5</v>
       </c>
-      <c r="K16" s="6">
+      <c r="M16" s="6">
         <v>0.5</v>
       </c>
-      <c r="L16" s="6">
+      <c r="N16" s="6">
         <v>0.8</v>
       </c>
-      <c r="M16" s="12">
+      <c r="O16" s="12">
         <v>95</v>
       </c>
-      <c r="N16" s="12">
+      <c r="P16" s="12">
         <v>85</v>
       </c>
-      <c r="O16" s="12">
+      <c r="Q16" s="12">
         <v>75</v>
       </c>
-      <c r="P16" s="12">
+      <c r="R16" s="12">
         <v>150</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="S16" s="12">
         <v>130</v>
       </c>
-      <c r="R16" s="12">
+      <c r="T16" s="12">
         <v>175</v>
       </c>
-      <c r="S16" s="12">
+      <c r="U16" s="12">
         <v>110</v>
       </c>
-      <c r="T16" s="12">
+      <c r="V16" s="12">
         <v>160</v>
       </c>
-      <c r="U16" s="12">
+      <c r="W16" s="12">
         <v>130</v>
       </c>
-      <c r="V16">
-        <f t="shared" ref="V16:V21" si="2">AVERAGE(M16:U16)</f>
+      <c r="X16">
+        <f t="shared" ref="X16:X21" si="2">AVERAGE(O16:W16)</f>
         <v>123.33333333333333</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>15</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C17" s="31">
+    <row r="17" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E17" s="31">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>80</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>80</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="6">
+      <c r="K17" s="6">
         <v>4</v>
       </c>
-      <c r="J17" s="6">
+      <c r="L17" s="6">
         <v>210</v>
       </c>
-      <c r="K17" s="6">
+      <c r="M17" s="6">
         <v>0.5</v>
       </c>
-      <c r="L17" s="6">
+      <c r="N17" s="6">
         <v>0.8</v>
       </c>
-      <c r="M17" s="37">
+      <c r="O17" s="37">
         <v>165</v>
       </c>
-      <c r="N17" s="37">
+      <c r="P17" s="37">
         <v>145</v>
       </c>
-      <c r="O17" s="37">
+      <c r="Q17" s="37">
         <v>170</v>
       </c>
-      <c r="P17" s="12">
+      <c r="R17" s="12">
         <v>130</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="S17" s="12">
         <v>130</v>
       </c>
-      <c r="R17" s="12">
+      <c r="T17" s="12">
         <v>145</v>
       </c>
-      <c r="S17" s="12">
+      <c r="U17" s="12">
         <v>90</v>
       </c>
-      <c r="T17" s="12">
+      <c r="V17" s="12">
         <v>110</v>
       </c>
-      <c r="U17" s="12">
+      <c r="W17" s="12">
         <v>100</v>
       </c>
-      <c r="V17">
-        <f>AVERAGE(M17:U17)</f>
+      <c r="X17">
+        <f>AVERAGE(O17:W17)</f>
         <v>131.66666666666666</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>16</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C18" s="31">
+    <row r="18" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E18" s="31">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>81</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>93</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="6">
+      <c r="K18" s="6">
         <v>5</v>
       </c>
-      <c r="J18" s="6">
+      <c r="L18" s="6">
         <f>297/2</f>
         <v>148.5</v>
       </c>
-      <c r="K18" s="6">
+      <c r="M18" s="6">
         <f>2/5</f>
         <v>0.4</v>
       </c>
-      <c r="L18" s="6">
-        <v>1</v>
-      </c>
-      <c r="M18" s="12">
+      <c r="N18" s="6">
+        <v>1</v>
+      </c>
+      <c r="O18" s="12">
         <v>245</v>
       </c>
-      <c r="N18" s="12">
+      <c r="P18" s="12">
         <v>225</v>
       </c>
-      <c r="O18" s="12">
+      <c r="Q18" s="12">
         <v>335</v>
       </c>
-      <c r="P18" s="12">
+      <c r="R18" s="12">
         <v>295</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="S18" s="12">
         <v>280</v>
       </c>
-      <c r="R18" s="12">
+      <c r="T18" s="12">
         <v>220</v>
       </c>
-      <c r="S18" s="38">
+      <c r="U18" s="38">
         <v>290</v>
       </c>
-      <c r="T18" s="38">
+      <c r="V18" s="38">
         <v>250</v>
       </c>
-      <c r="U18" s="38">
+      <c r="W18" s="38">
         <v>280</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <f t="shared" si="2"/>
         <v>268.88888888888891</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>17</v>
       </c>
-      <c r="X18">
-        <f>L25+24*2</f>
+      <c r="Z18">
+        <f>N25+24*2</f>
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C19" s="31">
+    <row r="19" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E19" s="31">
         <v>13</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>82</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>89</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="6">
+      <c r="K19" s="6">
         <v>6</v>
       </c>
-      <c r="J19" s="6">
+      <c r="L19" s="6">
         <v>210</v>
       </c>
-      <c r="K19" s="6">
+      <c r="M19" s="6">
         <f>2/5</f>
         <v>0.4</v>
       </c>
-      <c r="L19" s="6">
-        <v>1</v>
-      </c>
-      <c r="M19" s="12">
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="12">
         <v>125</v>
       </c>
-      <c r="N19" s="12">
+      <c r="P19" s="12">
         <v>140</v>
       </c>
-      <c r="O19" s="12">
+      <c r="Q19" s="12">
         <v>120</v>
       </c>
-      <c r="P19" s="38">
+      <c r="R19" s="38">
         <v>170</v>
       </c>
-      <c r="Q19" s="38">
+      <c r="S19" s="38">
         <v>140</v>
       </c>
-      <c r="R19" s="38">
+      <c r="T19" s="38">
         <v>135</v>
       </c>
-      <c r="S19" s="12">
+      <c r="U19" s="12">
         <v>130</v>
       </c>
-      <c r="T19" s="12">
+      <c r="V19" s="12">
         <v>110</v>
       </c>
-      <c r="U19" s="12">
+      <c r="W19" s="12">
         <v>220</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <f t="shared" si="2"/>
         <v>143.33333333333334</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>18</v>
       </c>
-      <c r="X19">
-        <f t="shared" ref="X19:X25" si="3">L26+24*2</f>
+      <c r="Z19">
+        <f t="shared" ref="Z19:Z25" si="3">N26+24*2</f>
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C20" s="31">
+    <row r="20" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E20" s="31">
         <v>14</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>83</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>78</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="6">
+      <c r="K20" s="6">
         <v>7</v>
       </c>
-      <c r="J20" s="6">
+      <c r="L20" s="6">
         <f>297/2</f>
         <v>148.5</v>
       </c>
-      <c r="K20" s="6">
+      <c r="M20" s="6">
         <v>0.5</v>
       </c>
-      <c r="L20" s="6">
-        <v>1</v>
-      </c>
-      <c r="M20" s="38">
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="38">
         <v>225</v>
       </c>
-      <c r="N20" s="38">
+      <c r="P20" s="38">
         <v>215</v>
       </c>
-      <c r="O20" s="38">
+      <c r="Q20" s="38">
         <v>170</v>
       </c>
-      <c r="P20" s="12">
+      <c r="R20" s="12">
         <v>135</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="S20" s="12">
         <v>155</v>
       </c>
-      <c r="R20" s="12">
+      <c r="T20" s="12">
         <v>210</v>
       </c>
-      <c r="S20" s="38">
+      <c r="U20" s="38">
         <v>150</v>
       </c>
-      <c r="T20" s="38">
+      <c r="V20" s="38">
         <v>185</v>
       </c>
-      <c r="U20" s="38">
+      <c r="W20" s="38">
         <v>210</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <f t="shared" si="2"/>
         <v>183.88888888888889</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>19</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C21" s="31">
+    <row r="21" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E21" s="31">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>84</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>81</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="6">
+      <c r="K21" s="6">
         <v>8</v>
       </c>
-      <c r="J21" s="6">
+      <c r="L21" s="6">
         <v>210</v>
       </c>
-      <c r="K21" s="6">
+      <c r="M21" s="6">
         <v>0.5</v>
       </c>
-      <c r="L21" s="6">
-        <v>1</v>
-      </c>
-      <c r="M21" s="12">
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" s="12">
         <v>150</v>
       </c>
-      <c r="N21" s="12">
+      <c r="P21" s="12">
         <v>110</v>
       </c>
-      <c r="O21" s="12">
+      <c r="Q21" s="12">
         <v>160</v>
       </c>
-      <c r="P21" s="38">
+      <c r="R21" s="38">
         <v>110</v>
       </c>
-      <c r="Q21" s="38">
+      <c r="S21" s="38">
         <v>175</v>
       </c>
-      <c r="R21" s="38">
+      <c r="T21" s="38">
         <v>150</v>
       </c>
-      <c r="S21" s="12">
+      <c r="U21" s="12">
         <v>115</v>
       </c>
-      <c r="T21" s="12">
+      <c r="V21" s="12">
         <v>180</v>
       </c>
-      <c r="U21" s="12">
+      <c r="W21" s="12">
         <v>180</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <f t="shared" si="2"/>
         <v>147.77777777777777</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>20</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C22" s="31">
+    <row r="22" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E22" s="31">
         <v>16</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>85</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>85</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>78</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>21</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C23" s="31">
+    <row r="23" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E23" s="31">
         <v>17</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>86</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>76</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>77</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="L23" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45" t="s">
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45" t="s">
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="W23">
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="Y23">
         <v>22</v>
       </c>
-      <c r="X23">
+      <c r="Z23">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C24" s="31">
+    <row r="24" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E24" s="31">
         <v>18</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>87</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>73</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="K24" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>4</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" t="s">
         <v>5</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
         <v>6</v>
       </c>
-      <c r="M24" t="s">
+      <c r="O24" t="s">
         <v>4</v>
       </c>
-      <c r="N24" t="s">
+      <c r="P24" t="s">
         <v>5</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" t="s">
         <v>6</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="S24" t="s">
         <v>5</v>
       </c>
-      <c r="R24" t="s">
+      <c r="T24" t="s">
         <v>6</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <v>23</v>
       </c>
-      <c r="X24">
+      <c r="Z24">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C25" s="31">
+    <row r="25" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E25" s="31">
         <v>19</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="G25" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="6">
-        <v>1</v>
-      </c>
-      <c r="J25">
+      <c r="K25" s="6">
+        <v>1</v>
+      </c>
+      <c r="L25">
         <v>17</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>19</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>13</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>22</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>24</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>12</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>16</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>16</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>20</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
         <v>24</v>
       </c>
-      <c r="X25">
+      <c r="Z25">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C26" s="31">
+    <row r="26" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E26" s="31">
         <v>20</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>89</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>88</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>85</v>
       </c>
-      <c r="I26" s="6">
+      <c r="K26" s="6">
         <v>2</v>
       </c>
-      <c r="J26" s="12">
+      <c r="L26" s="12">
         <v>4</v>
       </c>
-      <c r="K26" s="12">
+      <c r="M26" s="12">
         <v>2</v>
       </c>
-      <c r="L26" s="12">
+      <c r="N26" s="12">
         <v>19</v>
       </c>
-      <c r="M26" s="12">
+      <c r="O26" s="12">
         <v>5</v>
       </c>
-      <c r="N26" s="12">
+      <c r="P26" s="12">
         <v>8</v>
       </c>
-      <c r="O26" s="12">
+      <c r="Q26" s="12">
         <v>22</v>
       </c>
-      <c r="P26" s="12">
+      <c r="R26" s="12">
         <v>10</v>
       </c>
-      <c r="Q26" s="12">
+      <c r="S26" s="12">
         <v>4</v>
       </c>
-      <c r="R26" s="12">
+      <c r="T26" s="12">
         <v>7</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
         <v>25</v>
       </c>
-      <c r="X26">
-        <f>M25</f>
+      <c r="Z26">
+        <f>O25</f>
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C27" s="31">
+    <row r="27" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E27" s="31">
         <v>21</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>90</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>94</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>75</v>
       </c>
-      <c r="I27" s="6">
+      <c r="K27" s="6">
         <v>3</v>
       </c>
-      <c r="J27" s="12">
+      <c r="L27" s="12">
         <v>12</v>
       </c>
-      <c r="K27" s="12">
+      <c r="M27" s="12">
         <v>15</v>
       </c>
-      <c r="L27" s="12">
+      <c r="N27" s="12">
         <v>2</v>
       </c>
-      <c r="M27" s="12">
+      <c r="O27" s="12">
         <v>21</v>
       </c>
-      <c r="N27" s="12">
+      <c r="P27" s="12">
         <v>5</v>
       </c>
-      <c r="O27" s="12">
+      <c r="Q27" s="12">
         <v>3</v>
       </c>
-      <c r="P27" s="12">
+      <c r="R27" s="12">
         <v>11</v>
       </c>
-      <c r="Q27" s="12">
+      <c r="S27" s="12">
         <v>11</v>
       </c>
-      <c r="R27" s="12">
+      <c r="T27" s="12">
         <v>9</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <v>26</v>
       </c>
-      <c r="X27">
-        <f t="shared" ref="X27:X33" si="4">M26</f>
+      <c r="Z27">
+        <f t="shared" ref="Z27:Z33" si="4">O26</f>
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C28" s="31">
+    <row r="28" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E28" s="31">
         <v>22</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>91</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>82</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>74</v>
       </c>
-      <c r="I28" s="6">
+      <c r="K28" s="6">
         <v>4</v>
       </c>
-      <c r="J28" s="12">
+      <c r="L28" s="12">
         <v>9</v>
       </c>
-      <c r="K28" s="12">
+      <c r="M28" s="12">
         <v>14</v>
       </c>
-      <c r="L28" s="12">
+      <c r="N28" s="12">
         <v>16</v>
       </c>
-      <c r="M28" s="12">
+      <c r="O28" s="12">
         <v>8</v>
       </c>
-      <c r="N28" s="12">
-        <v>1</v>
-      </c>
-      <c r="O28" s="12">
+      <c r="P28" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="12">
         <v>17</v>
       </c>
-      <c r="P28" s="12">
+      <c r="R28" s="12">
         <v>24</v>
       </c>
-      <c r="Q28" s="12">
+      <c r="S28" s="12">
         <v>12</v>
       </c>
-      <c r="R28" s="12">
-        <v>1</v>
-      </c>
-      <c r="W28">
+      <c r="T28" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y28">
         <v>27</v>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C29" s="31">
+    <row r="29" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E29" s="31">
         <v>23</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>92</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>75</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>89</v>
       </c>
-      <c r="I29" s="6">
+      <c r="K29" s="6">
         <v>5</v>
       </c>
-      <c r="J29" s="12">
+      <c r="L29" s="12">
         <v>23</v>
       </c>
-      <c r="K29" s="12">
+      <c r="M29" s="12">
         <v>6</v>
       </c>
-      <c r="L29" s="12">
+      <c r="N29" s="12">
         <v>15</v>
       </c>
-      <c r="M29" s="12">
+      <c r="O29" s="12">
         <v>19</v>
       </c>
-      <c r="N29" s="12">
+      <c r="P29" s="12">
         <v>20</v>
       </c>
-      <c r="O29" s="12">
+      <c r="Q29" s="12">
         <v>24</v>
       </c>
-      <c r="P29" s="12">
+      <c r="R29" s="12">
         <v>18</v>
       </c>
-      <c r="Q29" s="12">
+      <c r="S29" s="12">
         <v>9</v>
       </c>
-      <c r="R29" s="12">
+      <c r="T29" s="12">
         <v>4</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
         <v>28</v>
       </c>
-      <c r="X29">
+      <c r="Z29">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C30" s="31">
+    <row r="30" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E30" s="31">
         <v>24</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>93</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>91</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>88</v>
       </c>
-      <c r="I30" s="6">
+      <c r="K30" s="6">
         <v>6</v>
       </c>
-      <c r="J30" s="12">
-        <v>1</v>
-      </c>
-      <c r="K30" s="12">
+      <c r="L30" s="12">
+        <v>1</v>
+      </c>
+      <c r="M30" s="12">
         <v>7</v>
       </c>
-      <c r="L30" s="12">
+      <c r="N30" s="12">
         <v>14</v>
       </c>
-      <c r="M30" s="12">
+      <c r="O30" s="12">
         <v>20</v>
-      </c>
-      <c r="N30" s="12">
-        <v>13</v>
-      </c>
-      <c r="O30" s="12">
-        <v>23</v>
       </c>
       <c r="P30" s="12">
         <v>13</v>
       </c>
       <c r="Q30" s="12">
+        <v>23</v>
+      </c>
+      <c r="R30" s="12">
+        <v>13</v>
+      </c>
+      <c r="S30" s="12">
         <v>22</v>
       </c>
-      <c r="R30" s="12">
+      <c r="T30" s="12">
         <v>18</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
         <v>29</v>
       </c>
-      <c r="X30">
+      <c r="Z30">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="I31" s="6">
+    <row r="31" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="K31" s="6">
         <v>7</v>
       </c>
-      <c r="J31" s="12">
+      <c r="L31" s="12">
         <v>3</v>
       </c>
-      <c r="K31" s="12">
+      <c r="M31" s="12">
         <v>21</v>
       </c>
-      <c r="L31" s="12">
+      <c r="N31" s="12">
         <v>11</v>
       </c>
-      <c r="M31" s="12">
+      <c r="O31" s="12">
         <v>7</v>
       </c>
-      <c r="N31" s="12">
+      <c r="P31" s="12">
         <v>17</v>
       </c>
-      <c r="O31" s="12">
+      <c r="Q31" s="12">
         <v>5</v>
       </c>
-      <c r="P31" s="12">
+      <c r="R31" s="12">
         <v>15</v>
       </c>
-      <c r="Q31" s="12">
+      <c r="S31" s="12">
         <v>3</v>
       </c>
-      <c r="R31" s="12">
+      <c r="T31" s="12">
         <v>8</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
         <v>30</v>
       </c>
-      <c r="X31">
+      <c r="Z31">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="I32" s="6">
+    <row r="32" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="K32" s="6">
         <v>8</v>
       </c>
-      <c r="J32" s="12">
+      <c r="L32" s="12">
         <v>14</v>
       </c>
-      <c r="K32" s="12">
+      <c r="M32" s="12">
         <v>10</v>
       </c>
-      <c r="L32" s="12">
+      <c r="N32" s="12">
         <v>6</v>
       </c>
-      <c r="M32" s="12">
+      <c r="O32" s="12">
         <v>2</v>
       </c>
-      <c r="N32" s="12">
+      <c r="P32" s="12">
         <v>18</v>
       </c>
-      <c r="O32" s="12">
+      <c r="Q32" s="12">
         <v>10</v>
       </c>
-      <c r="P32" s="12">
+      <c r="R32" s="12">
         <v>6</v>
       </c>
-      <c r="Q32" s="12">
+      <c r="S32" s="12">
         <v>23</v>
       </c>
-      <c r="R32" s="12">
+      <c r="T32" s="12">
         <v>21</v>
       </c>
-      <c r="W32">
+      <c r="Y32">
         <v>31</v>
       </c>
-      <c r="X32">
+      <c r="Z32">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W33">
+    <row r="33" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y33">
         <v>32</v>
       </c>
-      <c r="X33">
+      <c r="Z33">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W34">
+    <row r="34" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y34">
         <v>33</v>
       </c>
-      <c r="X34">
-        <f>N25+24</f>
+      <c r="Z34">
+        <f>P25+24</f>
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W35">
+    <row r="35" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y35">
         <v>34</v>
       </c>
-      <c r="X35">
-        <f t="shared" ref="X35:X41" si="5">N26+24</f>
+      <c r="Z35">
+        <f t="shared" ref="Z35:Z41" si="5">P26+24</f>
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W36">
+    <row r="36" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y36">
         <v>35</v>
       </c>
-      <c r="X36">
+      <c r="Z36">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W37">
+    <row r="37" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y37">
         <v>36</v>
       </c>
-      <c r="X37">
+      <c r="Z37">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W38">
+    <row r="38" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y38">
         <v>37</v>
       </c>
-      <c r="X38">
+      <c r="Z38">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W39">
+    <row r="39" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y39">
         <v>38</v>
       </c>
-      <c r="X39">
+      <c r="Z39">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W40">
+    <row r="40" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y40">
         <v>39</v>
       </c>
-      <c r="X40">
+      <c r="Z40">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W41">
+    <row r="41" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y41">
         <v>40</v>
       </c>
-      <c r="X41">
+      <c r="Z41">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W42">
+    <row r="42" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y42">
         <v>41</v>
       </c>
-      <c r="X42">
-        <f>O25+24*2</f>
+      <c r="Z42">
+        <f>Q25+24*2</f>
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W43">
+    <row r="43" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y43">
         <v>42</v>
       </c>
-      <c r="X43">
-        <f t="shared" ref="X43:X49" si="6">O26+24*2</f>
+      <c r="Z43">
+        <f t="shared" ref="Z43:Z49" si="6">Q26+24*2</f>
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W44">
+    <row r="44" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y44">
         <v>43</v>
       </c>
-      <c r="X44">
+      <c r="Z44">
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W45">
+    <row r="45" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y45">
         <v>44</v>
       </c>
-      <c r="X45">
+      <c r="Z45">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W46">
+    <row r="46" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y46">
         <v>45</v>
       </c>
-      <c r="X46">
+      <c r="Z46">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W47">
+    <row r="47" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y47">
         <v>46</v>
       </c>
-      <c r="X47">
+      <c r="Z47">
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W48">
+    <row r="48" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y48">
         <v>47</v>
       </c>
-      <c r="X48">
+      <c r="Z48">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W49">
+    <row r="49" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y49">
         <v>48</v>
       </c>
-      <c r="X49">
+      <c r="Z49">
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W50">
+    <row r="50" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y50">
         <v>49</v>
       </c>
-      <c r="X50">
-        <f>P25</f>
+      <c r="Z50">
+        <f>R25</f>
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W51">
+    <row r="51" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y51">
         <v>50</v>
       </c>
-      <c r="X51">
-        <f t="shared" ref="X51:X57" si="7">P26</f>
+      <c r="Z51">
+        <f t="shared" ref="Z51:Z57" si="7">R26</f>
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W52">
+    <row r="52" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y52">
         <v>51</v>
       </c>
-      <c r="X52">
+      <c r="Z52">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W53">
+    <row r="53" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y53">
         <v>52</v>
       </c>
-      <c r="X53">
+      <c r="Z53">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W54">
+    <row r="54" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y54">
         <v>53</v>
       </c>
-      <c r="X54">
+      <c r="Z54">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W55">
+    <row r="55" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y55">
         <v>54</v>
       </c>
-      <c r="X55">
+      <c r="Z55">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W56">
+    <row r="56" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y56">
         <v>55</v>
       </c>
-      <c r="X56">
+      <c r="Z56">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W57">
+    <row r="57" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y57">
         <v>56</v>
       </c>
-      <c r="X57">
+      <c r="Z57">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W58">
+    <row r="58" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y58">
         <v>57</v>
       </c>
-      <c r="X58">
-        <f>Q25+24</f>
+      <c r="Z58">
+        <f>S25+24</f>
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W59">
+    <row r="59" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y59">
         <v>58</v>
       </c>
-      <c r="X59">
-        <f t="shared" ref="X59:X65" si="8">Q26+24</f>
+      <c r="Z59">
+        <f t="shared" ref="Z59:Z65" si="8">S26+24</f>
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W60">
+    <row r="60" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y60">
         <v>59</v>
       </c>
-      <c r="X60">
+      <c r="Z60">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W61">
+    <row r="61" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y61">
         <v>60</v>
       </c>
-      <c r="X61">
+      <c r="Z61">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W62">
+    <row r="62" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y62">
         <v>61</v>
       </c>
-      <c r="X62">
+      <c r="Z62">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W63">
+    <row r="63" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y63">
         <v>62</v>
       </c>
-      <c r="X63">
+      <c r="Z63">
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W64">
+    <row r="64" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y64">
         <v>63</v>
       </c>
-      <c r="X64">
+      <c r="Z64">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W65">
+    <row r="65" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y65">
         <v>64</v>
       </c>
-      <c r="X65">
+      <c r="Z65">
         <f t="shared" si="8"/>
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W66">
+    <row r="66" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y66">
         <v>65</v>
       </c>
-      <c r="X66">
-        <f>R25+24*2</f>
+      <c r="Z66">
+        <f>T25+24*2</f>
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W67">
+    <row r="67" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y67">
         <v>66</v>
       </c>
-      <c r="X67">
-        <f t="shared" ref="X67:X73" si="9">R26+24*2</f>
+      <c r="Z67">
+        <f t="shared" ref="Z67:Z73" si="9">T26+24*2</f>
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W68">
+    <row r="68" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y68">
         <v>67</v>
       </c>
-      <c r="X68">
+      <c r="Z68">
         <f t="shared" si="9"/>
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W69">
+    <row r="69" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y69">
         <v>68</v>
       </c>
-      <c r="X69">
+      <c r="Z69">
         <f t="shared" si="9"/>
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W70">
+    <row r="70" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y70">
         <v>69</v>
       </c>
-      <c r="X70">
+      <c r="Z70">
         <f t="shared" si="9"/>
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W71">
+    <row r="71" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y71">
         <v>70</v>
       </c>
-      <c r="X71">
+      <c r="Z71">
         <f t="shared" si="9"/>
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W72">
+    <row r="72" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y72">
         <v>71</v>
       </c>
-      <c r="X72">
+      <c r="Z72">
         <f t="shared" si="9"/>
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W73">
+    <row r="73" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y73">
         <v>72</v>
       </c>
-      <c r="X73">
+      <c r="Z73">
         <f t="shared" si="9"/>
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D7:E30">
-    <sortCondition ref="E7:E30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F7:G30">
+    <sortCondition ref="G7:G30"/>
   </sortState>
   <mergeCells count="9">
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497B4DE9-CA56-41BC-887D-6771AE9C783A}">
+  <dimension ref="B1:V28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="18">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="6">
+        <f>297/2</f>
+        <v>148.5</v>
+      </c>
+      <c r="H3" s="6">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="18">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="20">
+        <v>210</v>
+      </c>
+      <c r="H4" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="21">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f>(G$3+G$4)/2+(G$4-G$3)/2*C3</f>
+        <v>148.5</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:M4" si="0">(H$3+H$4)/2+(H$4-H$3)/2*D3</f>
+        <v>0.4</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K18" si="1">(G$3+G$4)/2+(G$4-G$3)/2*C4</f>
+        <v>210</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L18" si="2">(H$3+H$4)/2+(H$4-H$3)/2*D4</f>
+        <v>0.4</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M18" si="3">(I$3+I$4)/2+(I$4-I$3)/2*E4</f>
+        <v>0.8</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>148.5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>148.5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>148.5</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
+        <f>-SQRT(2)</f>
+        <v>-1.4142135623730951</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <f>SQRT(2)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>135.76293295702732</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <f>-SQRT(2)</f>
+        <v>-1.4142135623730951</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>222.73706704297268</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <f>SQRT(2)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>179.25</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.37928932188134529</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <f>-SQRT(2)</f>
+        <v>-1.4142135623730951</v>
+      </c>
+      <c r="J15">
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>179.25</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.52071067811865479</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18">
+        <f>SQRT(2)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>179.25</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>0.75857864376269057</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>14</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>179.25</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>1.0414213562373096</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>179.25</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>126</v>
+      </c>
+      <c r="L21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>135.75</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22:L25" si="4">L12*K12</f>
+        <v>61.093319830662296</v>
+      </c>
+      <c r="M22">
+        <f>M12</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>222.75</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>100.23168016933771</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23:M28" si="5">M13</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <f>K14</f>
+        <v>179.25</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>67.987610947231147</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <f>K15</f>
+        <v>179.25</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>93.33738905276887</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <f>K16</f>
+        <v>179.25</v>
+      </c>
+      <c r="L26">
+        <f>L16*K16</f>
+        <v>80.662500000000009</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>0.75857864376269057</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <f>K17</f>
+        <v>179.25</v>
+      </c>
+      <c r="L27">
+        <f>L17*K17</f>
+        <v>80.662500000000009</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>1.0414213562373096</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <f>K18</f>
+        <v>179.25</v>
+      </c>
+      <c r="L28">
+        <f>L18*K18</f>
+        <v>80.662500000000009</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/統計管制與最佳化方法概論/homework/my_homework/final exam/final_exam.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/final exam/final_exam.xlsx
@@ -5,104 +5,105 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\final exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\final exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6297270E-DA4C-4DA8-B8E5-D9C5039B9FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A44C7E-CBA5-438E-9CFB-247D3A5917BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2224B4A3-7DDB-4A03-9076-3DDD34B94DE1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="4" xr2:uid="{2224B4A3-7DDB-4A03-9076-3DDD34B94DE1}"/>
   </bookViews>
   <sheets>
-    <sheet name="experiment design 1" sheetId="1" r:id="rId1"/>
-    <sheet name="experiment design 2" sheetId="3" r:id="rId2"/>
-    <sheet name="experiment parameters(A)" sheetId="2" r:id="rId3"/>
-    <sheet name="experiment parameters(B)" sheetId="4" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId1"/>
+    <sheet name="experiment design 1" sheetId="1" r:id="rId2"/>
+    <sheet name="experiment design 2" sheetId="3" r:id="rId3"/>
+    <sheet name="experiment parameters(A)" sheetId="2" r:id="rId4"/>
+    <sheet name="experiment parameters(B)" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'experiment design 1'!$K$46:$M$46</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'experiment design 2'!$C$30:$D$30</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'experiment design 1'!$K$46:$M$46</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'experiment design 2'!$C$30:$D$30</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'experiment design 1'!$K$46</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'experiment design 2'!$C$30</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'experiment design 1'!$K$46</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'experiment design 2'!$C$30</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'experiment design 1'!$L$46</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'experiment design 2'!$D$30</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'experiment design 1'!$L$46</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'experiment design 2'!$D$30</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'experiment design 1'!$M$46</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'experiment design 1'!$M$46</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'experiment design 1'!$K$46</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'experiment design 2'!$C$30</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'experiment design 1'!$K$46</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'experiment design 2'!$C$30</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'experiment design 1'!$L$46</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'experiment design 2'!$D$30</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'experiment design 1'!$L$46</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'experiment design 2'!$D$30</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'experiment design 1'!$M$46</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'experiment design 1'!$M$46</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">6</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">4</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'experiment design 1'!$N$46</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'experiment design 2'!$E$30</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'experiment design 1'!$N$46</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'experiment design 2'!$E$30</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">-1</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">-1</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">-1</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">-1</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">-1</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">-1</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">-1</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">-1</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -145,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="157">
   <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -650,6 +651,90 @@
     <t>leg length</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>摘要輸出</t>
+  </si>
+  <si>
+    <t>迴歸統計</t>
+  </si>
+  <si>
+    <t>R 的倍數</t>
+  </si>
+  <si>
+    <t>R 平方</t>
+  </si>
+  <si>
+    <t>調整的 R 平方</t>
+  </si>
+  <si>
+    <t>標準誤</t>
+  </si>
+  <si>
+    <t>觀察值個數</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>迴歸</t>
+  </si>
+  <si>
+    <t>殘差</t>
+  </si>
+  <si>
+    <t>總和</t>
+  </si>
+  <si>
+    <t>截距</t>
+  </si>
+  <si>
+    <t>自由度</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>顯著值</t>
+  </si>
+  <si>
+    <t>係數</t>
+  </si>
+  <si>
+    <t>t 統計</t>
+  </si>
+  <si>
+    <t>P-值</t>
+  </si>
+  <si>
+    <t>下限 95%</t>
+  </si>
+  <si>
+    <t>上限 95%</t>
+  </si>
+  <si>
+    <t>下限 95.0%</t>
+  </si>
+  <si>
+    <t>上限 95.0%</t>
+  </si>
+  <si>
+    <t>x1x2</t>
+  </si>
+  <si>
+    <t>x2x3</t>
+  </si>
+  <si>
+    <t>x1x3</t>
+  </si>
+  <si>
+    <t>x1x2x3</t>
+  </si>
 </sst>
 </file>
 
@@ -675,7 +760,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,12 +770,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,7 +1133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1169,11 +1248,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14063,41 +14151,442 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9C3FB4-651D-425D-A759-1685BC90FD18}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="39">
+        <v>0.87502074791369655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="39">
+        <v>0.76566130927944487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="39">
+        <v>0.7400305149818841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="39">
+        <v>31.52930735398769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="40">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="39">
+        <v>7</v>
+      </c>
+      <c r="C12" s="39">
+        <v>207874.65277777778</v>
+      </c>
+      <c r="D12" s="39">
+        <v>29696.378968253968</v>
+      </c>
+      <c r="E12" s="39">
+        <v>29.872710942567736</v>
+      </c>
+      <c r="F12" s="39">
+        <v>7.1464046455199487E-18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="39">
+        <v>64</v>
+      </c>
+      <c r="C13" s="39">
+        <v>63622.222222222226</v>
+      </c>
+      <c r="D13" s="39">
+        <v>994.09722222222229</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="40">
+        <v>71</v>
+      </c>
+      <c r="C14" s="40">
+        <v>271496.875</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="39">
+        <v>172.29166666666666</v>
+      </c>
+      <c r="C17" s="39">
+        <v>3.71576450601993</v>
+      </c>
+      <c r="D17" s="39">
+        <v>46.367757264362695</v>
+      </c>
+      <c r="E17" s="39">
+        <v>5.6963708232434816E-51</v>
+      </c>
+      <c r="F17" s="39">
+        <v>164.86857372452951</v>
+      </c>
+      <c r="G17" s="39">
+        <v>179.7147596088038</v>
+      </c>
+      <c r="H17" s="39">
+        <v>164.86857372452951</v>
+      </c>
+      <c r="I17" s="39">
+        <v>179.7147596088038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="39">
+        <v>-34.513888888888864</v>
+      </c>
+      <c r="C18" s="39">
+        <v>3.7157645060199291</v>
+      </c>
+      <c r="D18" s="39">
+        <v>-9.2885027651705965</v>
+      </c>
+      <c r="E18" s="39">
+        <v>1.7789459470305319E-13</v>
+      </c>
+      <c r="F18" s="39">
+        <v>-41.936981831026017</v>
+      </c>
+      <c r="G18" s="39">
+        <v>-27.090795946751708</v>
+      </c>
+      <c r="H18" s="39">
+        <v>-41.936981831026017</v>
+      </c>
+      <c r="I18" s="39">
+        <v>-27.090795946751708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="39">
+        <v>-25.625000000000014</v>
+      </c>
+      <c r="C19" s="39">
+        <v>3.71576450601993</v>
+      </c>
+      <c r="D19" s="39">
+        <v>-6.8962927974807915</v>
+      </c>
+      <c r="E19" s="39">
+        <v>2.8278984230469716E-9</v>
+      </c>
+      <c r="F19" s="39">
+        <v>-33.048092942137174</v>
+      </c>
+      <c r="G19" s="39">
+        <v>-18.201907057862858</v>
+      </c>
+      <c r="H19" s="39">
+        <v>-33.048092942137174</v>
+      </c>
+      <c r="I19" s="39">
+        <v>-18.201907057862858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="39">
+        <v>13.680555555555555</v>
+      </c>
+      <c r="C20" s="39">
+        <v>3.71576450601993</v>
+      </c>
+      <c r="D20" s="39">
+        <v>3.6817606533976019</v>
+      </c>
+      <c r="E20" s="39">
+        <v>4.7768190654367426E-4</v>
+      </c>
+      <c r="F20" s="39">
+        <v>6.2574626134183982</v>
+      </c>
+      <c r="G20" s="39">
+        <v>21.103648497692713</v>
+      </c>
+      <c r="H20" s="39">
+        <v>6.2574626134183982</v>
+      </c>
+      <c r="I20" s="39">
+        <v>21.103648497692713</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="39">
+        <v>27.569444444444443</v>
+      </c>
+      <c r="C21" s="39">
+        <v>3.7157645060199291</v>
+      </c>
+      <c r="D21" s="39">
+        <v>7.4195887279129353</v>
+      </c>
+      <c r="E21" s="39">
+        <v>3.4015277259804298E-10</v>
+      </c>
+      <c r="F21" s="39">
+        <v>20.146351502307287</v>
+      </c>
+      <c r="G21" s="39">
+        <v>34.992537386581596</v>
+      </c>
+      <c r="H21" s="39">
+        <v>20.146351502307287</v>
+      </c>
+      <c r="I21" s="39">
+        <v>34.992537386581596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="39">
+        <v>5.4861111111111232</v>
+      </c>
+      <c r="C22" s="39">
+        <v>3.71576450601993</v>
+      </c>
+      <c r="D22" s="39">
+        <v>1.4764420894335595</v>
+      </c>
+      <c r="E22" s="39">
+        <v>0.14472894507094994</v>
+      </c>
+      <c r="F22" s="39">
+        <v>-1.9369818310260341</v>
+      </c>
+      <c r="G22" s="39">
+        <v>12.909204053248281</v>
+      </c>
+      <c r="H22" s="39">
+        <v>-1.9369818310260341</v>
+      </c>
+      <c r="I22" s="39">
+        <v>12.909204053248281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="39">
+        <v>-5.9027777777777724</v>
+      </c>
+      <c r="C23" s="39">
+        <v>3.7157645060199291</v>
+      </c>
+      <c r="D23" s="39">
+        <v>-1.588576931669015</v>
+      </c>
+      <c r="E23" s="39">
+        <v>0.11708438715111748</v>
+      </c>
+      <c r="F23" s="39">
+        <v>-13.325870719914928</v>
+      </c>
+      <c r="G23" s="39">
+        <v>1.5203151643593831</v>
+      </c>
+      <c r="H23" s="39">
+        <v>-13.325870719914928</v>
+      </c>
+      <c r="I23" s="39">
+        <v>1.5203151643593831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="40">
+        <v>-5.2083333333333375</v>
+      </c>
+      <c r="C24" s="40">
+        <v>3.7157645060199291</v>
+      </c>
+      <c r="D24" s="40">
+        <v>-1.401685527943251</v>
+      </c>
+      <c r="E24" s="40">
+        <v>0.16584040658342786</v>
+      </c>
+      <c r="F24" s="40">
+        <v>-12.631426275470492</v>
+      </c>
+      <c r="G24" s="40">
+        <v>2.2147596088038179</v>
+      </c>
+      <c r="H24" s="40">
+        <v>-12.631426275470492</v>
+      </c>
+      <c r="I24" s="40">
+        <v>2.2147596088038179</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAAFF7F-C379-4648-8145-FECEA7F02896}">
   <dimension ref="A1:AO85"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D10"/>
+    <sheetView zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="16" max="16" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="40" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="40" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="22"/>
       <c r="O1" s="23"/>
       <c r="P1" s="14" t="s">
@@ -14140,7 +14629,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -14264,7 +14753,7 @@
         <v>10.600760115206734</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -14395,7 +14884,7 @@
         <v>8.3088870314850301</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -14527,7 +15016,7 @@
         <v>-48.256597326517728</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -14658,7 +15147,7 @@
         <v>33.169005319884299</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A6" s="17">
         <v>4</v>
       </c>
@@ -14791,7 +15280,7 @@
         <v>-24.794560515461562</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A7" s="17">
         <v>5</v>
       </c>
@@ -14922,7 +15411,7 @@
         <v>-21.909020319035537</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="17">
         <v>6</v>
       </c>
@@ -15055,7 +15544,7 @@
         <v>57.108086645888982</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A9" s="17">
         <v>7</v>
       </c>
@@ -15180,7 +15669,7 @@
         <v>-2.741221183522601</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="19">
         <v>8</v>
       </c>
@@ -15292,7 +15781,7 @@
         <v>27.905678224423603</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="S11" s="17"/>
       <c r="T11" s="6" cm="1">
         <f t="array" ref="T11">SUM(((E4:M4)-N4)^2)</f>
@@ -15354,7 +15843,7 @@
         <v>8.3088870314850301</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.4">
       <c r="S12" s="17"/>
       <c r="T12" s="6" cm="1">
         <f t="array" ref="T12">SUM(((E5:M5)-N5)^2)</f>
@@ -15409,7 +15898,7 @@
         <v>-64.069727034327329</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -15512,7 +16001,7 @@
         <v>15.374728238070459</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -15620,7 +16109,7 @@
         <v>-52.168142015497658</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2</v>
       </c>
@@ -15742,7 +16231,7 @@
         <v>-6.0603469148980285</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>3</v>
       </c>
@@ -15775,23 +16264,23 @@
         <f t="shared" si="20"/>
         <v>95</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="37">
         <f>AVERAGE(E3:M10)</f>
         <v>172.29166666666666</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="37">
         <f>K14/2</f>
         <v>-34.513888888888886</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="37">
         <f t="shared" ref="L16:Q16" si="21">L14/2</f>
         <v>-25.625</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="37">
         <f t="shared" si="21"/>
         <v>13.680555555555555</v>
       </c>
-      <c r="N16" s="39">
+      <c r="N16" s="37">
         <f t="shared" si="21"/>
         <v>27.569444444444443</v>
       </c>
@@ -15876,7 +16365,7 @@
         <v>48.256597326517777</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>4</v>
       </c>
@@ -15998,7 +16487,7 @@
         <v>-44.974770883466576</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>5</v>
       </c>
@@ -16139,7 +16628,7 @@
         <v>-33.169005319884256</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>6</v>
       </c>
@@ -16268,7 +16757,7 @@
         <v>39.576157197965557</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>7</v>
       </c>
@@ -16392,7 +16881,7 @@
         <v>-77.384551017079403</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>8</v>
       </c>
@@ -16513,7 +17002,7 @@
         <v>44.974770883466654</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
@@ -16627,7 +17116,7 @@
         <v>64.0697270343274</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2</v>
       </c>
@@ -16741,7 +17230,7 @@
         <v>-26.317927843627817</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>3</v>
       </c>
@@ -16848,7 +17337,7 @@
         <v>-0.54757875009487278</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>4</v>
       </c>
@@ -16921,7 +17410,7 @@
         <v>7.1800294636251634</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>5</v>
       </c>
@@ -16994,7 +17483,7 @@
         <v>-39.576157197965522</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>6</v>
       </c>
@@ -17067,7 +17556,7 @@
         <v>0.54757875009489654</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>7</v>
       </c>
@@ -17100,11 +17589,11 @@
         <f t="shared" si="31"/>
         <v>215</v>
       </c>
-      <c r="K28" s="42" t="s">
+      <c r="K28" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="L28" s="43"/>
-      <c r="M28" s="44"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="47"/>
       <c r="AE28">
         <v>27</v>
       </c>
@@ -17145,7 +17634,7 @@
         <v>11.767374889845355</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>8</v>
       </c>
@@ -17225,7 +17714,7 @@
         <v>2.741221183522625</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1</v>
       </c>
@@ -17307,7 +17796,7 @@
         <v>20.534000754096457</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>2</v>
       </c>
@@ -17389,7 +17878,7 @@
         <v>19.197149378333414</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3</v>
       </c>
@@ -17471,7 +17960,7 @@
         <v>-29.567926136636782</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>4</v>
       </c>
@@ -17553,7 +18042,7 @@
         <v>-44.974770883466576</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>5</v>
       </c>
@@ -17635,7 +18124,7 @@
         <v>-3.8423919457049842</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>6</v>
       </c>
@@ -17717,7 +18206,7 @@
         <v>-10.600760115206709</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>7</v>
       </c>
@@ -17799,7 +18288,7 @@
         <v>-8.3088870314850052</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>8</v>
       </c>
@@ -17881,7 +18370,7 @@
         <v>2.741221183522625</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1</v>
       </c>
@@ -17961,7 +18450,7 @@
         <v>4.9482932683074452</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>2</v>
       </c>
@@ -18043,7 +18532,7 @@
         <v>-6.0603469148980285</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>3</v>
       </c>
@@ -18125,7 +18614,7 @@
         <v>-11.767374889845337</v>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>4</v>
       </c>
@@ -18210,7 +18699,7 @@
         <v>21.909020319035559</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>5</v>
       </c>
@@ -18283,7 +18772,7 @@
         <v>29.5679261366368</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>6</v>
       </c>
@@ -18356,7 +18845,7 @@
         <v>-19.197149378333389</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>7</v>
       </c>
@@ -18429,7 +18918,7 @@
         <v>31.317146128603564</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>8</v>
       </c>
@@ -18514,7 +19003,7 @@
         <v>15.374728238070459</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>1</v>
       </c>
@@ -18600,7 +19089,7 @@
         <v>-57.108086645888996</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>2</v>
       </c>
@@ -18673,7 +19162,7 @@
         <v>-12.950409492828237</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>3</v>
       </c>
@@ -18746,7 +19235,7 @@
         <v>35.143601220693029</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>4</v>
       </c>
@@ -18819,7 +19308,7 @@
         <v>-2.741221183522601</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>5</v>
       </c>
@@ -18892,7 +19381,7 @@
         <v>-9.4485516983872113</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>6</v>
       </c>
@@ -18965,7 +19454,7 @@
         <v>-19.197149378333389</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>7</v>
       </c>
@@ -19038,7 +19527,7 @@
         <v>-27.905678224423582</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>8</v>
       </c>
@@ -19111,7 +19600,7 @@
         <v>-31.317146128603639</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>1</v>
       </c>
@@ -19184,7 +19673,7 @@
         <v>12.950409492828273</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>2</v>
       </c>
@@ -19257,7 +19746,7 @@
         <v>-16.621087836872164</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>3</v>
       </c>
@@ -19330,7 +19819,7 @@
         <v>-15.374728238070434</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>4</v>
       </c>
@@ -19403,7 +19892,7 @@
         <v>-35.143601220693</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>5</v>
       </c>
@@ -19476,7 +19965,7 @@
         <v>42.120435070013713</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>6</v>
       </c>
@@ -19549,7 +20038,7 @@
         <v>0.54757875009489654</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>7</v>
       </c>
@@ -19622,7 +20111,7 @@
         <v>17.894112054763355</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>8</v>
       </c>
@@ -19695,7 +20184,7 @@
         <v>-14.152057622445941</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>1</v>
       </c>
@@ -19768,7 +20257,7 @@
         <v>-20.534000754096436</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>2</v>
       </c>
@@ -19841,7 +20330,7 @@
         <v>-37.267369807683195</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>3</v>
       </c>
@@ -19914,7 +20403,7 @@
         <v>14.152057622445966</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>4</v>
       </c>
@@ -19987,7 +20476,7 @@
         <v>24.79456051546158</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>5</v>
       </c>
@@ -20060,7 +20549,7 @@
         <v>23.327244580687402</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>6</v>
       </c>
@@ -20133,7 +20622,7 @@
         <v>52.168142015497672</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>7</v>
       </c>
@@ -20206,7 +20695,7 @@
         <v>-8.3088870314850052</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>8</v>
       </c>
@@ -20279,7 +20768,7 @@
         <v>-23.327244580687378</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>1</v>
       </c>
@@ -20352,7 +20841,7 @@
         <v>4.9482932683074452</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>2</v>
       </c>
@@ -20425,7 +20914,7 @@
         <v>77.384551017079474</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>3</v>
       </c>
@@ -20498,7 +20987,7 @@
         <v>35.143601220693029</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>4</v>
       </c>
@@ -20571,7 +21060,7 @@
         <v>24.79456051546158</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>5</v>
       </c>
@@ -20612,7 +21101,7 @@
         <v>1.1842378929335004E-14</v>
       </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>6</v>
       </c>
@@ -20653,7 +21142,7 @@
         <v>31.455544679433103</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>7</v>
       </c>
@@ -20687,7 +21176,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>8</v>
       </c>
@@ -20721,7 +21210,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>1</v>
       </c>
@@ -20755,7 +21244,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>2</v>
       </c>
@@ -20789,7 +21278,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>3</v>
       </c>
@@ -20823,7 +21312,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>4</v>
       </c>
@@ -20857,7 +21346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>5</v>
       </c>
@@ -20891,7 +21380,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>6</v>
       </c>
@@ -20925,7 +21414,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>7</v>
       </c>
@@ -20959,7 +21448,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>8</v>
       </c>
@@ -21019,7 +21508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372D4D3E-4681-4E55-8949-E4054E158CF2}">
   <dimension ref="B1:R30"/>
   <sheetViews>
@@ -21027,36 +21516,36 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="40" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="40" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="45"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="48"/>
       <c r="O1" s="16"/>
       <c r="P1" s="14" t="s">
         <v>23</v>
@@ -21065,7 +21554,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
@@ -21116,7 +21605,7 @@
         <v>0.25217997182410773</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B3" s="17">
         <v>1</v>
       </c>
@@ -21167,7 +21656,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B4" s="17">
         <v>2</v>
       </c>
@@ -21219,7 +21708,7 @@
         <v>0.50217524015437853</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B5" s="17">
         <v>3</v>
       </c>
@@ -21268,7 +21757,7 @@
       </c>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B6" s="17">
         <v>4</v>
       </c>
@@ -21318,7 +21807,7 @@
       </c>
       <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B7" s="17">
         <v>5</v>
       </c>
@@ -21367,7 +21856,7 @@
       </c>
       <c r="Q7" s="18"/>
     </row>
-    <row r="8" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="17">
         <v>6</v>
       </c>
@@ -21417,7 +21906,7 @@
       </c>
       <c r="Q8" s="21"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B9" s="17">
         <v>7</v>
       </c>
@@ -21462,7 +21951,7 @@
         <v>41.216950898249664</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="19">
         <v>8</v>
       </c>
@@ -21507,7 +21996,7 @@
         <v>43.988926338146925</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
       <c r="M12" t="s">
         <v>118</v>
       </c>
@@ -21527,7 +22016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -21586,7 +22075,7 @@
         <v>0.53759947691780918</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>1</v>
       </c>
@@ -21653,7 +22142,7 @@
         <v>-0.20272180148502028</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>2</v>
       </c>
@@ -21720,7 +22209,7 @@
         <v>2.0921321438692848</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>3</v>
       </c>
@@ -21787,7 +22276,7 @@
         <v>4.6943450728667786</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>4</v>
       </c>
@@ -21854,7 +22343,7 @@
         <v>2.2315378653050137</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>5</v>
       </c>
@@ -21921,7 +22410,7 @@
         <v>2.1715738382594845</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>6</v>
       </c>
@@ -21988,7 +22477,7 @@
         <v>1.7610400023902322</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>7</v>
       </c>
@@ -22025,7 +22514,7 @@
         <v>41.216950898249664</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>8</v>
       </c>
@@ -22062,7 +22551,7 @@
         <v>43.988926338146925</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>17</v>
       </c>
@@ -22085,7 +22574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C24">
         <f>SUMPRODUCT(C14:C21,$J$14:$J$21)/($P$2/2*$P$4)</f>
         <v>-1.0605462607164515</v>
@@ -22115,7 +22604,7 @@
         <v>0.16289426475597146</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>27</v>
       </c>
@@ -22141,7 +22630,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B26">
         <f>AVERAGE(O3:O10)</f>
         <v>42.93968312080505</v>
@@ -22175,7 +22664,7 @@
         <v>8.1447132377985731E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>1</v>
       </c>
@@ -22186,7 +22675,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C30">
         <v>-1</v>
       </c>
@@ -22218,25 +22707,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84FC70-DF1D-4EB8-93B9-4E50CD9A7490}">
   <dimension ref="A1:Z73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:N21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:X21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.75" customWidth="1"/>
-    <col min="11" max="11" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.7265625" customWidth="1"/>
+    <col min="11" max="11" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
@@ -22246,21 +22735,21 @@
       <c r="E1" s="1">
         <v>1</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46" t="s">
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
       <c r="Y1" t="s">
         <v>0</v>
       </c>
@@ -22268,7 +22757,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -22326,7 +22815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -22365,34 +22854,7 @@
         <v>0.4</v>
       </c>
       <c r="N3" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="O3">
-        <v>190</v>
-      </c>
-      <c r="P3">
-        <v>245</v>
-      </c>
-      <c r="Q3">
-        <v>195</v>
-      </c>
-      <c r="R3">
-        <v>195</v>
-      </c>
-      <c r="S3">
-        <v>138</v>
-      </c>
-      <c r="T3">
-        <v>205</v>
-      </c>
-      <c r="U3">
-        <v>192</v>
-      </c>
-      <c r="V3">
-        <v>210</v>
-      </c>
-      <c r="W3">
-        <v>212</v>
+        <v>8</v>
       </c>
       <c r="Y3">
         <v>2</v>
@@ -22402,7 +22864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -22423,35 +22885,17 @@
         <v>0.4</v>
       </c>
       <c r="N4" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="O4" s="12">
-        <v>156</v>
-      </c>
-      <c r="P4" s="12">
-        <v>230</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>167</v>
-      </c>
-      <c r="R4" s="12">
-        <v>115</v>
-      </c>
-      <c r="S4" s="12">
-        <v>158</v>
-      </c>
-      <c r="T4" s="12">
-        <v>170</v>
-      </c>
-      <c r="U4" s="12">
-        <v>165</v>
-      </c>
-      <c r="V4" s="12">
-        <v>174</v>
-      </c>
-      <c r="W4" s="12">
-        <v>170</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
       <c r="Y4">
         <v>3</v>
       </c>
@@ -22460,7 +22904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="K5" s="6">
         <v>3</v>
       </c>
@@ -22472,35 +22916,17 @@
         <v>0.5</v>
       </c>
       <c r="N5" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="O5" s="12">
-        <v>87.5</v>
-      </c>
-      <c r="P5" s="12">
-        <v>92</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>75</v>
-      </c>
-      <c r="R5" s="12">
-        <v>73</v>
-      </c>
-      <c r="S5" s="12">
-        <v>89</v>
-      </c>
-      <c r="T5" s="12">
-        <v>108</v>
-      </c>
-      <c r="U5" s="12">
-        <v>146</v>
-      </c>
-      <c r="V5" s="12">
-        <v>257</v>
-      </c>
-      <c r="W5" s="12">
-        <v>290</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
       <c r="Y5">
         <v>4</v>
       </c>
@@ -22509,7 +22935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F6" t="s">
         <v>4</v>
       </c>
@@ -22529,35 +22955,17 @@
         <v>0.5</v>
       </c>
       <c r="N6" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="O6" s="12">
-        <v>245</v>
-      </c>
-      <c r="P6" s="12">
-        <v>262</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>310</v>
-      </c>
-      <c r="R6" s="12">
-        <v>190</v>
-      </c>
-      <c r="S6" s="12">
-        <v>185</v>
-      </c>
-      <c r="T6" s="12">
-        <v>181</v>
-      </c>
-      <c r="U6" s="12">
-        <v>263</v>
-      </c>
-      <c r="V6" s="12">
-        <v>250</v>
-      </c>
-      <c r="W6" s="12">
-        <v>285</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
       <c r="Y6">
         <v>5</v>
       </c>
@@ -22566,7 +22974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>125</v>
       </c>
@@ -22603,35 +23011,17 @@
         <v>0.4</v>
       </c>
       <c r="N7" s="6">
-        <v>1</v>
-      </c>
-      <c r="O7" s="12">
-        <v>305</v>
-      </c>
-      <c r="P7" s="12">
-        <v>315</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>228</v>
-      </c>
-      <c r="R7" s="12">
-        <v>257</v>
-      </c>
-      <c r="S7" s="12">
-        <v>230</v>
-      </c>
-      <c r="T7" s="12">
-        <v>243.5</v>
-      </c>
-      <c r="U7" s="12">
-        <v>113</v>
-      </c>
-      <c r="V7" s="12">
-        <v>157.5</v>
-      </c>
-      <c r="W7" s="12">
-        <v>90</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
       <c r="Y7">
         <v>6</v>
       </c>
@@ -22640,7 +23030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -22676,35 +23066,17 @@
         <v>0.4</v>
       </c>
       <c r="N8" s="6">
-        <v>1</v>
-      </c>
-      <c r="O8" s="12">
-        <v>148</v>
-      </c>
-      <c r="P8" s="12">
-        <v>119</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>120</v>
-      </c>
-      <c r="R8" s="12">
-        <v>273</v>
-      </c>
-      <c r="S8" s="12">
-        <v>207</v>
-      </c>
-      <c r="T8" s="12">
-        <v>155</v>
-      </c>
-      <c r="U8" s="12">
-        <v>210</v>
-      </c>
-      <c r="V8" s="12">
-        <v>243</v>
-      </c>
-      <c r="W8" s="12">
-        <v>171</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
       <c r="Y8">
         <v>7</v>
       </c>
@@ -22713,7 +23085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -22749,35 +23121,17 @@
         <v>0.5</v>
       </c>
       <c r="N9" s="6">
-        <v>1</v>
-      </c>
-      <c r="O9" s="12">
-        <v>175</v>
-      </c>
-      <c r="P9" s="12">
-        <v>137.5</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>174</v>
-      </c>
-      <c r="R9" s="12">
-        <v>171</v>
-      </c>
-      <c r="S9" s="12">
-        <v>163</v>
-      </c>
-      <c r="T9" s="12">
-        <v>180</v>
-      </c>
-      <c r="U9" s="12">
-        <v>212</v>
-      </c>
-      <c r="V9" s="12">
-        <v>241</v>
-      </c>
-      <c r="W9" s="12">
-        <v>255</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
       <c r="Y9">
         <v>8</v>
       </c>
@@ -22786,7 +23140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -22821,35 +23175,17 @@
         <v>0.5</v>
       </c>
       <c r="N10" s="6">
-        <v>1</v>
-      </c>
-      <c r="O10" s="12">
-        <v>146.5</v>
-      </c>
-      <c r="P10" s="12">
-        <v>145</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>150</v>
-      </c>
-      <c r="R10" s="12">
-        <v>302</v>
-      </c>
-      <c r="S10" s="12">
-        <v>327</v>
-      </c>
-      <c r="T10" s="12">
-        <v>256.5</v>
-      </c>
-      <c r="U10" s="12">
-        <v>154</v>
-      </c>
-      <c r="V10" s="12">
-        <v>174</v>
-      </c>
-      <c r="W10" s="12">
-        <v>186</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
       <c r="Y10">
         <v>9</v>
       </c>
@@ -22858,7 +23194,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -22891,7 +23227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>5</v>
       </c>
@@ -22916,21 +23252,21 @@
       <c r="H12" t="s">
         <v>83</v>
       </c>
-      <c r="O12" s="46" t="s">
+      <c r="O12" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46" t="s">
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46" t="s">
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
       <c r="Y12">
         <v>11</v>
       </c>
@@ -22939,7 +23275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -23014,7 +23350,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>7</v>
       </c>
@@ -23051,33 +23387,33 @@
         <v>0.4</v>
       </c>
       <c r="N14" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="O14">
+        <v>8</v>
+      </c>
+      <c r="O14" s="38">
         <v>255</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="38">
         <v>275</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="38">
         <v>210</v>
       </c>
-      <c r="R14" s="37">
+      <c r="R14" s="38">
         <v>205</v>
       </c>
-      <c r="S14" s="37">
+      <c r="S14" s="38">
         <v>240</v>
       </c>
-      <c r="T14" s="37">
+      <c r="T14" s="38">
         <v>280</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="38">
         <v>235</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="38">
         <v>290</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="38">
         <v>270</v>
       </c>
       <c r="X14">
@@ -23092,7 +23428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>8</v>
       </c>
@@ -23128,24 +23464,24 @@
         <v>0.4</v>
       </c>
       <c r="N15" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="O15" s="37">
+        <v>8</v>
+      </c>
+      <c r="O15" s="38">
         <v>130</v>
       </c>
-      <c r="P15" s="37">
+      <c r="P15" s="38">
         <v>130</v>
       </c>
-      <c r="Q15" s="37">
+      <c r="Q15" s="38">
         <v>165</v>
       </c>
-      <c r="R15" s="37">
+      <c r="R15" s="38">
         <v>125</v>
       </c>
-      <c r="S15" s="37">
+      <c r="S15" s="38">
         <v>110</v>
       </c>
-      <c r="T15" s="37">
+      <c r="T15" s="38">
         <v>100</v>
       </c>
       <c r="U15" s="12">
@@ -23169,7 +23505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="E16" s="31">
         <v>10</v>
       </c>
@@ -23193,7 +23529,7 @@
         <v>0.5</v>
       </c>
       <c r="N16" s="6">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="O16" s="12">
         <v>95</v>
@@ -23234,7 +23570,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:26" x14ac:dyDescent="0.4">
       <c r="E17" s="31">
         <v>11</v>
       </c>
@@ -23257,15 +23593,15 @@
         <v>0.5</v>
       </c>
       <c r="N17" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="O17" s="37">
+        <v>8</v>
+      </c>
+      <c r="O17" s="38">
         <v>165</v>
       </c>
-      <c r="P17" s="37">
+      <c r="P17" s="38">
         <v>145</v>
       </c>
-      <c r="Q17" s="37">
+      <c r="Q17" s="38">
         <v>170</v>
       </c>
       <c r="R17" s="12">
@@ -23298,7 +23634,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:26" x14ac:dyDescent="0.4">
       <c r="E18" s="31">
         <v>12</v>
       </c>
@@ -23323,7 +23659,7 @@
         <v>0.4</v>
       </c>
       <c r="N18" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O18" s="12">
         <v>245</v>
@@ -23343,13 +23679,13 @@
       <c r="T18" s="12">
         <v>220</v>
       </c>
-      <c r="U18" s="38">
+      <c r="U18" s="12">
         <v>290</v>
       </c>
-      <c r="V18" s="38">
+      <c r="V18" s="12">
         <v>250</v>
       </c>
-      <c r="W18" s="38">
+      <c r="W18" s="12">
         <v>280</v>
       </c>
       <c r="X18">
@@ -23364,7 +23700,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:26" x14ac:dyDescent="0.4">
       <c r="E19" s="31">
         <v>13</v>
       </c>
@@ -23388,7 +23724,7 @@
         <v>0.4</v>
       </c>
       <c r="N19" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O19" s="12">
         <v>125</v>
@@ -23399,13 +23735,13 @@
       <c r="Q19" s="12">
         <v>120</v>
       </c>
-      <c r="R19" s="38">
+      <c r="R19" s="12">
         <v>170</v>
       </c>
-      <c r="S19" s="38">
+      <c r="S19" s="12">
         <v>140</v>
       </c>
-      <c r="T19" s="38">
+      <c r="T19" s="12">
         <v>135</v>
       </c>
       <c r="U19" s="12">
@@ -23429,7 +23765,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:26" x14ac:dyDescent="0.4">
       <c r="E20" s="31">
         <v>14</v>
       </c>
@@ -23453,15 +23789,15 @@
         <v>0.5</v>
       </c>
       <c r="N20" s="6">
-        <v>1</v>
-      </c>
-      <c r="O20" s="38">
+        <v>10</v>
+      </c>
+      <c r="O20" s="12">
         <v>225</v>
       </c>
-      <c r="P20" s="38">
+      <c r="P20" s="12">
         <v>215</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="Q20" s="12">
         <v>170</v>
       </c>
       <c r="R20" s="12">
@@ -23473,13 +23809,13 @@
       <c r="T20" s="12">
         <v>210</v>
       </c>
-      <c r="U20" s="38">
+      <c r="U20" s="12">
         <v>150</v>
       </c>
-      <c r="V20" s="38">
+      <c r="V20" s="12">
         <v>185</v>
       </c>
-      <c r="W20" s="38">
+      <c r="W20" s="12">
         <v>210</v>
       </c>
       <c r="X20">
@@ -23494,7 +23830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:26" x14ac:dyDescent="0.4">
       <c r="E21" s="31">
         <v>15</v>
       </c>
@@ -23517,7 +23853,7 @@
         <v>0.5</v>
       </c>
       <c r="N21" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O21" s="12">
         <v>150</v>
@@ -23528,13 +23864,13 @@
       <c r="Q21" s="12">
         <v>160</v>
       </c>
-      <c r="R21" s="38">
+      <c r="R21" s="12">
         <v>110</v>
       </c>
-      <c r="S21" s="38">
+      <c r="S21" s="12">
         <v>175</v>
       </c>
-      <c r="T21" s="38">
+      <c r="T21" s="12">
         <v>150</v>
       </c>
       <c r="U21" s="12">
@@ -23558,7 +23894,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:26" x14ac:dyDescent="0.4">
       <c r="E22" s="31">
         <v>16</v>
       </c>
@@ -23579,7 +23915,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:26" x14ac:dyDescent="0.4">
       <c r="E23" s="31">
         <v>17</v>
       </c>
@@ -23592,21 +23928,21 @@
       <c r="H23" t="s">
         <v>77</v>
       </c>
-      <c r="L23" s="46" t="s">
+      <c r="L23" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46" t="s">
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46" t="s">
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
       <c r="Y23">
         <v>22</v>
       </c>
@@ -23615,7 +23951,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:26" x14ac:dyDescent="0.4">
       <c r="E24" s="31">
         <v>18</v>
       </c>
@@ -23666,7 +24002,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:26" x14ac:dyDescent="0.4">
       <c r="E25" s="31">
         <v>19</v>
       </c>
@@ -23717,7 +24053,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:26" x14ac:dyDescent="0.4">
       <c r="E26" s="31">
         <v>20</v>
       </c>
@@ -23768,7 +24104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:26" x14ac:dyDescent="0.4">
       <c r="E27" s="31">
         <v>21</v>
       </c>
@@ -23819,7 +24155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:26" x14ac:dyDescent="0.4">
       <c r="E28" s="31">
         <v>22</v>
       </c>
@@ -23870,7 +24206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:26" x14ac:dyDescent="0.4">
       <c r="E29" s="31">
         <v>23</v>
       </c>
@@ -23921,7 +24257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:26" x14ac:dyDescent="0.4">
       <c r="E30" s="31">
         <v>24</v>
       </c>
@@ -23972,7 +24308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:26" x14ac:dyDescent="0.4">
       <c r="K31" s="6">
         <v>7</v>
       </c>
@@ -24011,7 +24347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:26" x14ac:dyDescent="0.4">
       <c r="K32" s="6">
         <v>8</v>
       </c>
@@ -24050,7 +24386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y33">
         <v>32</v>
       </c>
@@ -24059,7 +24395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y34">
         <v>33</v>
       </c>
@@ -24068,7 +24404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y35">
         <v>34</v>
       </c>
@@ -24077,7 +24413,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y36">
         <v>35</v>
       </c>
@@ -24086,7 +24422,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y37">
         <v>36</v>
       </c>
@@ -24095,7 +24431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y38">
         <v>37</v>
       </c>
@@ -24104,7 +24440,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y39">
         <v>38</v>
       </c>
@@ -24113,7 +24449,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y40">
         <v>39</v>
       </c>
@@ -24122,7 +24458,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y41">
         <v>40</v>
       </c>
@@ -24131,7 +24467,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y42">
         <v>41</v>
       </c>
@@ -24140,7 +24476,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y43">
         <v>42</v>
       </c>
@@ -24149,7 +24485,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y44">
         <v>43</v>
       </c>
@@ -24158,7 +24494,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y45">
         <v>44</v>
       </c>
@@ -24167,7 +24503,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y46">
         <v>45</v>
       </c>
@@ -24176,7 +24512,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y47">
         <v>46</v>
       </c>
@@ -24185,7 +24521,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y48">
         <v>47</v>
       </c>
@@ -24194,7 +24530,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y49">
         <v>48</v>
       </c>
@@ -24203,7 +24539,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y50">
         <v>49</v>
       </c>
@@ -24212,7 +24548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y51">
         <v>50</v>
       </c>
@@ -24221,7 +24557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y52">
         <v>51</v>
       </c>
@@ -24230,7 +24566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y53">
         <v>52</v>
       </c>
@@ -24239,7 +24575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y54">
         <v>53</v>
       </c>
@@ -24248,7 +24584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y55">
         <v>54</v>
       </c>
@@ -24257,7 +24593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y56">
         <v>55</v>
       </c>
@@ -24266,7 +24602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y57">
         <v>56</v>
       </c>
@@ -24275,7 +24611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y58">
         <v>57</v>
       </c>
@@ -24284,7 +24620,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y59">
         <v>58</v>
       </c>
@@ -24293,7 +24629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y60">
         <v>59</v>
       </c>
@@ -24302,7 +24638,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y61">
         <v>60</v>
       </c>
@@ -24311,7 +24647,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y62">
         <v>61</v>
       </c>
@@ -24320,7 +24656,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y63">
         <v>62</v>
       </c>
@@ -24329,7 +24665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y64">
         <v>63</v>
       </c>
@@ -24338,7 +24674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y65">
         <v>64</v>
       </c>
@@ -24347,7 +24683,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y66">
         <v>65</v>
       </c>
@@ -24356,7 +24692,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y67">
         <v>66</v>
       </c>
@@ -24365,7 +24701,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y68">
         <v>67</v>
       </c>
@@ -24374,7 +24710,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y69">
         <v>68</v>
       </c>
@@ -24383,7 +24719,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y70">
         <v>69</v>
       </c>
@@ -24392,7 +24728,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y71">
         <v>70</v>
       </c>
@@ -24401,7 +24737,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y72">
         <v>71</v>
       </c>
@@ -24410,7 +24746,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="25:26" x14ac:dyDescent="0.4">
       <c r="Y73">
         <v>72</v>
       </c>
@@ -24440,30 +24776,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497B4DE9-CA56-41BC-887D-6771AE9C783A}">
   <dimension ref="B1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>125</v>
       </c>
@@ -24488,23 +24824,23 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46" t="s">
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46" t="s">
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -24529,7 +24865,7 @@
         <v>0.4</v>
       </c>
       <c r="I3" s="18">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>0</v>
@@ -24571,7 +24907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -24594,7 +24930,7 @@
         <v>0.5</v>
       </c>
       <c r="I4" s="21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -24609,13 +24945,13 @@
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -24641,13 +24977,13 @@
       </c>
       <c r="M5">
         <f t="shared" ref="M5:M18" si="3">(I$3+I$4)/2+(I$4-I$3)/2*E4</f>
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -24673,13 +25009,13 @@
       </c>
       <c r="M6">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -24705,13 +25041,13 @@
       </c>
       <c r="M7">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -24737,13 +25073,13 @@
       </c>
       <c r="M8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -24769,13 +25105,13 @@
       </c>
       <c r="M9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -24801,13 +25137,13 @@
       </c>
       <c r="M10">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -24834,13 +25170,13 @@
       </c>
       <c r="M11">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -24867,10 +25203,10 @@
       </c>
       <c r="M12">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -24897,10 +25233,10 @@
       </c>
       <c r="M13">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -24927,10 +25263,10 @@
       </c>
       <c r="M14">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -24957,10 +25293,10 @@
       </c>
       <c r="M15">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -24987,10 +25323,10 @@
       </c>
       <c r="M16">
         <f t="shared" si="3"/>
-        <v>0.75857864376269057</v>
+        <v>7.5857864376269051</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="4">
         <v>15</v>
       </c>
@@ -25016,10 +25352,10 @@
       </c>
       <c r="M17">
         <f t="shared" si="3"/>
-        <v>1.0414213562373096</v>
+        <v>10.414213562373096</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="J18">
         <v>15</v>
       </c>
@@ -25033,10 +25369,10 @@
       </c>
       <c r="M18">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="K21" t="s">
         <v>126</v>
       </c>
@@ -25047,7 +25383,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="J22">
         <v>1</v>
       </c>
@@ -25060,10 +25396,10 @@
       </c>
       <c r="M22">
         <f>M12</f>
-        <v>0.9</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
       <c r="J23">
         <v>2</v>
       </c>
@@ -25076,10 +25412,10 @@
       </c>
       <c r="M23">
         <f t="shared" ref="M23:M28" si="5">M13</f>
-        <v>0.9</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
       <c r="J24">
         <v>3</v>
       </c>
@@ -25093,10 +25429,10 @@
       </c>
       <c r="M24">
         <f t="shared" si="5"/>
-        <v>0.9</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
       <c r="J25">
         <v>4</v>
       </c>
@@ -25110,10 +25446,10 @@
       </c>
       <c r="M25">
         <f t="shared" si="5"/>
-        <v>0.9</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
       <c r="J26">
         <v>5</v>
       </c>
@@ -25127,10 +25463,10 @@
       </c>
       <c r="M26">
         <f t="shared" si="5"/>
-        <v>0.75857864376269057</v>
+        <v>7.5857864376269051</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
       <c r="J27">
         <v>6</v>
       </c>
@@ -25144,10 +25480,10 @@
       </c>
       <c r="M27">
         <f t="shared" si="5"/>
-        <v>1.0414213562373096</v>
+        <v>10.414213562373096</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
       <c r="J28">
         <v>7</v>
       </c>
@@ -25161,7 +25497,7 @@
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
-        <v>0.9</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
